--- a/gis/data/geographical.xlsx
+++ b/gis/data/geographical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082C9463-E5DD-4D17-83CC-05FE1C753E23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3EAB56-A71F-452B-B602-B80E1837DB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-48" windowWidth="23256" windowHeight="13896" xr2:uid="{6C3CB45D-6930-4358-8246-5C5767DAECE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{6C3CB45D-6930-4358-8246-5C5767DAECE9}"/>
   </bookViews>
   <sheets>
     <sheet name="catchment" sheetId="1" r:id="rId1"/>
@@ -978,13 +978,13 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="4" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="4" width="13.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -998,7 +998,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>ID_108!C2</f>
         <v>1</v>
@@ -1016,7 +1016,7 @@
         <v>-0.9026983531843642</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>ID_108!C3</f>
         <v>2</v>
@@ -1034,7 +1034,7 @@
         <v>-0.51585486974664008</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>ID_108!C4</f>
         <v>6</v>
@@ -1052,7 +1052,7 @@
         <v>-2.2883473658819415</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>ID_108!C5</f>
         <v>16</v>
@@ -1070,7 +1070,7 @@
         <v>-0.3938657434068783</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>ID_108!C6</f>
         <v>17</v>
@@ -1088,7 +1088,7 @@
         <v>-0.17210922674641163</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>ID_108!C7</f>
         <v>18</v>
@@ -1106,7 +1106,7 @@
         <v>-0.4634129488996177</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>ID_108!C8</f>
         <v>24</v>
@@ -1124,7 +1124,7 @@
         <v>-0.76877655490985286</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>ID_108!C9</f>
         <v>25</v>
@@ -1142,7 +1142,7 @@
         <v>-0.5498286387983089</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>ID_108!C10</f>
         <v>28</v>
@@ -1160,7 +1160,7 @@
         <v>-0.69934032187685946</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>ID_108!C11</f>
         <v>29</v>
@@ -1178,7 +1178,7 @@
         <v>-0.65794194512247484</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>ID_108!C12</f>
         <v>34</v>
@@ -1196,7 +1196,7 @@
         <v>-0.33162630546528804</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>ID_108!C13</f>
         <v>35</v>
@@ -1214,7 +1214,7 @@
         <v>-0.43206055202377819</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>ID_108!C14</f>
         <v>36</v>
@@ -1232,7 +1232,7 @@
         <v>-0.27870496622239227</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>ID_108!C15</f>
         <v>37</v>
@@ -1250,7 +1250,7 @@
         <v>-0.21753619486035208</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <f>ID_108!C16</f>
         <v>38</v>
@@ -1268,7 +1268,7 @@
         <v>-0.34755734322875853</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <f>ID_108!C17</f>
         <v>44</v>
@@ -1286,7 +1286,7 @@
         <v>-0.35533717569749024</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>ID_108!C18</f>
         <v>45</v>
@@ -1304,7 +1304,7 @@
         <v>-0.32651677284317338</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <f>ID_108!C19</f>
         <v>46</v>
@@ -1322,7 +1322,7 @@
         <v>-0.33336307888530248</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <f>ID_108!C20</f>
         <v>47</v>
@@ -1340,7 +1340,7 @@
         <v>-0.40721169528599827</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <f>ID_108!C21</f>
         <v>48</v>
@@ -1358,7 +1358,7 @@
         <v>-0.36963766756270439</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <f>ID_108!C22</f>
         <v>49</v>
@@ -1376,7 +1376,7 @@
         <v>-0.15989768553367753</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <f>ID_108!C23</f>
         <v>56</v>
@@ -1394,7 +1394,7 @@
         <v>-0.52615807012696958</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <f>ID_108!C24</f>
         <v>57</v>
@@ -1412,7 +1412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <f>ID_108!C25</f>
         <v>59</v>
@@ -1430,7 +1430,7 @@
         <v>-0.14224308927852178</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <f>ID_108!C26</f>
         <v>62</v>
@@ -1448,7 +1448,7 @@
         <v>-0.22158272910396501</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <f>ID_108!C27</f>
         <v>68</v>
@@ -1466,7 +1466,7 @@
         <v>-0.27118573172237376</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <f>ID_108!C28</f>
         <v>72</v>
@@ -1484,7 +1484,7 @@
         <v>-0.37380100374880065</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <f>ID_108!C29</f>
         <v>74</v>
@@ -1502,7 +1502,7 @@
         <v>-0.57761101746602084</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <f>ID_108!C30</f>
         <v>80</v>
@@ -1520,7 +1520,7 @@
         <v>-0.18543810233724753</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <f>ID_108!C31</f>
         <v>82</v>
@@ -1538,7 +1538,7 @@
         <v>-0.16797461734547633</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <f>ID_108!C32</f>
         <v>83</v>
@@ -1556,7 +1556,7 @@
         <v>-0.3831424977047439</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <f>ID_108!C33</f>
         <v>84</v>
@@ -1574,7 +1574,7 @@
         <v>-0.21260068658663531</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <f>ID_108!C34</f>
         <v>85</v>
@@ -1592,7 +1592,7 @@
         <v>-0.19419191333027611</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <f>ID_108!C35</f>
         <v>86</v>
@@ -1610,7 +1610,7 @@
         <v>-1.3704074435594995</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <f>ID_108!C36</f>
         <v>87</v>
@@ -1628,7 +1628,7 @@
         <v>-0.34594718152457338</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <f>ID_108!C37</f>
         <v>89</v>
@@ -1646,7 +1646,7 @@
         <v>-0.66132290823537176</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <f>ID_108!C38</f>
         <v>90</v>
@@ -1664,7 +1664,7 @@
         <v>-0.38678735315178514</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <f>ID_108!C39</f>
         <v>92</v>
@@ -1682,7 +1682,7 @@
         <v>-0.21381824373782748</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <f>ID_108!C40</f>
         <v>93</v>
@@ -1700,7 +1700,7 @@
         <v>-0.45781753560050525</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <f>ID_108!C41</f>
         <v>95</v>
@@ -1718,7 +1718,7 @@
         <v>-0.46970618019983168</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <f>ID_108!C42</f>
         <v>96</v>
@@ -1736,7 +1736,7 @@
         <v>-0.28936031530724099</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <f>ID_108!C43</f>
         <v>101</v>
@@ -1754,7 +1754,7 @@
         <v>-0.57911523552225452</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <f>ID_108!C44</f>
         <v>102</v>
@@ -1772,7 +1772,7 @@
         <v>-0.7850219337275165</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <f>ID_108!C45</f>
         <v>103</v>
@@ -1790,7 +1790,7 @@
         <v>-0.18993069660248696</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <f>ID_108!C46</f>
         <v>104</v>
@@ -1808,7 +1808,7 @@
         <v>-0.3298002078098779</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <f>ID_108!C47</f>
         <v>105</v>
@@ -1826,7 +1826,7 @@
         <v>-0.35502347446147614</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <f>ID_108!C48</f>
         <v>106</v>
@@ -1844,7 +1844,7 @@
         <v>-0.42467660795749906</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <f>ID_108!C49</f>
         <v>107</v>
@@ -1862,7 +1862,7 @@
         <v>-0.39131480564960403</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <f>ID_108!C50</f>
         <v>108</v>
@@ -1880,7 +1880,7 @@
         <v>-0.23147280720157978</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <f>ID_108!C51</f>
         <v>109</v>
@@ -1898,7 +1898,7 @@
         <v>-0.2038077316072136</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <f>ID_108!C52</f>
         <v>110</v>
@@ -1916,7 +1916,7 @@
         <v>-0.45314559518541536</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <f>ID_108!C53</f>
         <v>111</v>
@@ -1934,7 +1934,7 @@
         <v>-0.30886143117555254</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <f>ID_108!C54</f>
         <v>113</v>
@@ -1952,7 +1952,7 @@
         <v>-0.69700948446022792</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <f>ID_108!C55</f>
         <v>114</v>
@@ -1970,7 +1970,7 @@
         <v>-0.34076106365774606</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <f>ID_108!C56</f>
         <v>119</v>
@@ -1988,7 +1988,7 @@
         <v>-1.2184236525581895</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <f>ID_108!C57</f>
         <v>120</v>
@@ -2006,7 +2006,7 @@
         <v>-0.23162379074341521</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <f>ID_108!C58</f>
         <v>121</v>
@@ -2024,7 +2024,7 @@
         <v>-0.44164025962954095</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <f>ID_108!C59</f>
         <v>122</v>
@@ -2042,7 +2042,7 @@
         <v>-0.41642816243851788</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <f>ID_108!C60</f>
         <v>123</v>
@@ -2060,7 +2060,7 @@
         <v>-0.70938742044928615</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <f>ID_108!C61</f>
         <v>124</v>
@@ -2078,7 +2078,7 @@
         <v>-0.49392468743501822</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <f>ID_108!C62</f>
         <v>125</v>
@@ -2096,7 +2096,7 @@
         <v>-0.47972253305427148</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <f>ID_108!C63</f>
         <v>127</v>
@@ -2114,7 +2114,7 @@
         <v>-0.37129129105774533</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <f>ID_108!C64</f>
         <v>128</v>
@@ -2132,7 +2132,7 @@
         <v>-0.39883680528909932</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <f>ID_108!C65</f>
         <v>129</v>
@@ -2150,7 +2150,7 @@
         <v>-0.47726409326116748</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <f>ID_108!C66</f>
         <v>130</v>
@@ -2168,7 +2168,7 @@
         <v>-0.36193919256754759</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <f>ID_108!C67</f>
         <v>131</v>
@@ -2186,7 +2186,7 @@
         <v>-0.47057240742949308</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <f>ID_108!C68</f>
         <v>132</v>
@@ -2204,7 +2204,7 @@
         <v>-0.49996509330097438</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <f>ID_108!C69</f>
         <v>133</v>
@@ -2222,7 +2222,7 @@
         <v>-0.81921720007650878</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <f>ID_108!C70</f>
         <v>136</v>
@@ -2240,7 +2240,7 @@
         <v>-0.57868058796229849</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <f>ID_108!C71</f>
         <v>137</v>
@@ -2258,7 +2258,7 @@
         <v>-0.24953663007035887</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <f>ID_108!C72</f>
         <v>138</v>
@@ -2276,7 +2276,7 @@
         <v>-0.73997696054951678</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <f>ID_108!C73</f>
         <v>139</v>
@@ -2294,7 +2294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <f>ID_108!C74</f>
         <v>140</v>
@@ -2312,7 +2312,7 @@
         <v>-0.60066155214535666</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <f>ID_108!C75</f>
         <v>141</v>
@@ -2330,7 +2330,7 @@
         <v>-1.6457002544010422</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <f>ID_108!C76</f>
         <v>142</v>
@@ -2348,7 +2348,7 @@
         <v>-0.53030058986927175</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <f>ID_108!C77</f>
         <v>144</v>
@@ -2366,7 +2366,7 @@
         <v>-0.44727459267826825</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <f>ID_108!C78</f>
         <v>145</v>
@@ -2384,7 +2384,7 @@
         <v>-0.5458509059253458</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <f>ID_108!C79</f>
         <v>146</v>
@@ -2402,7 +2402,7 @@
         <v>-0.33752718282793215</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <f>ID_108!C80</f>
         <v>147</v>
@@ -2420,7 +2420,7 @@
         <v>-0.61082690051456301</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <f>ID_108!C81</f>
         <v>154</v>
@@ -2438,7 +2438,7 @@
         <v>-1.5573901287579945</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <f>ID_108!C82</f>
         <v>157</v>
@@ -2456,7 +2456,7 @@
         <v>-0.48816977778106219</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <f>ID_108!C83</f>
         <v>158</v>
@@ -2474,7 +2474,7 @@
         <v>-0.39442879518630602</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <f>ID_108!C84</f>
         <v>159</v>
@@ -2492,7 +2492,7 @@
         <v>-0.48779910483210226</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <f>ID_108!C85</f>
         <v>160</v>
@@ -2510,7 +2510,7 @@
         <v>-0.52047428622417946</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <f>ID_108!C86</f>
         <v>165</v>
@@ -2528,7 +2528,7 @@
         <v>-0.32641633327787273</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <f>ID_108!C87</f>
         <v>200</v>
@@ -2546,7 +2546,7 @@
         <v>-0.98130519183863485</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <f>ID_108!C88</f>
         <v>201</v>
@@ -2564,7 +2564,7 @@
         <v>-0.55326128157952736</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <f>ID_108!C89</f>
         <v>204</v>
@@ -2582,7 +2582,7 @@
         <v>-0.3892511301792187</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <f>ID_108!C90</f>
         <v>206</v>
@@ -2600,7 +2600,7 @@
         <v>-0.41847828230826473</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <f>ID_108!C91</f>
         <v>207</v>
@@ -2618,7 +2618,7 @@
         <v>-0.2098802561919493</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <f>ID_108!C92</f>
         <v>208</v>
@@ -2636,7 +2636,7 @@
         <v>-0.1379413552874133</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <f>ID_108!C93</f>
         <v>209</v>
@@ -2654,7 +2654,7 @@
         <v>-0.29555705297429352</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <f>ID_108!C94</f>
         <v>212</v>
@@ -2672,7 +2672,7 @@
         <v>-0.7672619337820028</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <f>ID_108!C95</f>
         <v>214</v>
@@ -2690,7 +2690,7 @@
         <v>-0.43437437872031187</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <f>ID_108!C96</f>
         <v>216</v>
@@ -2708,7 +2708,7 @@
         <v>-0.30811582353672207</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <f>ID_108!C97</f>
         <v>217</v>
@@ -2726,7 +2726,7 @@
         <v>-0.36200724541324864</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <f>ID_108!C98</f>
         <v>219</v>
@@ -2744,7 +2744,7 @@
         <v>-0.32697254768856843</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <f>ID_108!C99</f>
         <v>221</v>
@@ -2762,7 +2762,7 @@
         <v>-0.77018392832969396</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <f>ID_108!C100</f>
         <v>222</v>
@@ -2780,7 +2780,7 @@
         <v>-0.50687944329222667</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <f>ID_108!C101</f>
         <v>224</v>
@@ -2798,7 +2798,7 @@
         <v>-0.26383835019326518</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <f>ID_108!C102</f>
         <v>225</v>
@@ -2816,7 +2816,7 @@
         <v>-0.92435444296338654</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <f>ID_108!C103</f>
         <v>231</v>
@@ -2834,7 +2834,7 @@
         <v>-1.2390167406448969</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <f>ID_108!C104</f>
         <v>232</v>
@@ -2852,7 +2852,7 @@
         <v>-0.42392333832794804</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <f>ID_108!C105</f>
         <v>233</v>
@@ -2870,7 +2870,7 @@
         <v>-0.31940470017562256</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <f>ID_108!C106</f>
         <v>234</v>
@@ -2888,7 +2888,7 @@
         <v>-0.36481547045545226</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <f>ID_108!C107</f>
         <v>235</v>
@@ -2906,7 +2906,7 @@
         <v>-0.41621654665699742</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <f>ID_108!C108</f>
         <v>236</v>
@@ -2924,7 +2924,7 @@
         <v>-0.43727382952202681</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <f>ID_108!C109</f>
         <v>238</v>
@@ -2942,7 +2942,7 @@
         <v>-0.33126078425478106</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D110" s="26"/>
     </row>
   </sheetData>
@@ -2962,716 +2962,716 @@
       <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.77734375" style="4" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="13" customWidth="1"/>
-    <col min="5" max="7" width="11.77734375" style="18" customWidth="1"/>
-    <col min="8" max="9" width="11.77734375" style="18" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="11.77734375" style="18" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" style="22" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" style="17" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" style="20" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" style="13" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="256" width="8.88671875" style="13"/>
-    <col min="257" max="257" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="34.77734375" style="13" customWidth="1"/>
-    <col min="260" max="260" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.81640625" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="13" customWidth="1"/>
+    <col min="5" max="7" width="11.81640625" style="18" customWidth="1"/>
+    <col min="8" max="9" width="11.81640625" style="18" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="11.81640625" style="18" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" style="22" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="11.90625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="18.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="256" width="8.90625" style="13"/>
+    <col min="257" max="257" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="34.81640625" style="13" customWidth="1"/>
+    <col min="260" max="260" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="264" max="264" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="265" max="267" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="268" max="269" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="270" max="512" width="8.88671875" style="13"/>
-    <col min="513" max="513" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="34.77734375" style="13" customWidth="1"/>
-    <col min="516" max="516" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="265" max="267" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="268" max="269" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="270" max="512" width="8.90625" style="13"/>
+    <col min="513" max="513" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="34.81640625" style="13" customWidth="1"/>
+    <col min="516" max="516" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="520" max="520" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="521" max="523" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="524" max="525" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="526" max="768" width="8.88671875" style="13"/>
-    <col min="769" max="769" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="34.77734375" style="13" customWidth="1"/>
-    <col min="772" max="772" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="521" max="523" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="524" max="525" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="526" max="768" width="8.90625" style="13"/>
+    <col min="769" max="769" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="34.81640625" style="13" customWidth="1"/>
+    <col min="772" max="772" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="776" max="776" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="777" max="779" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="780" max="781" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="782" max="1024" width="8.88671875" style="13"/>
-    <col min="1025" max="1025" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="34.77734375" style="13" customWidth="1"/>
-    <col min="1028" max="1028" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="777" max="779" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="780" max="781" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="782" max="1024" width="8.90625" style="13"/>
+    <col min="1025" max="1025" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="34.81640625" style="13" customWidth="1"/>
+    <col min="1028" max="1028" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="1032" max="1032" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1035" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1037" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1038" max="1280" width="8.88671875" style="13"/>
-    <col min="1281" max="1281" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="34.77734375" style="13" customWidth="1"/>
-    <col min="1284" max="1284" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1035" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1037" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1280" width="8.90625" style="13"/>
+    <col min="1281" max="1281" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="34.81640625" style="13" customWidth="1"/>
+    <col min="1284" max="1284" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="1288" max="1288" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1291" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1293" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1294" max="1536" width="8.88671875" style="13"/>
-    <col min="1537" max="1537" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="34.77734375" style="13" customWidth="1"/>
-    <col min="1540" max="1540" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1291" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1293" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1294" max="1536" width="8.90625" style="13"/>
+    <col min="1537" max="1537" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="34.81640625" style="13" customWidth="1"/>
+    <col min="1540" max="1540" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="1544" max="1544" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1547" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1549" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1550" max="1792" width="8.88671875" style="13"/>
-    <col min="1793" max="1793" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="34.77734375" style="13" customWidth="1"/>
-    <col min="1796" max="1796" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1547" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1549" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1550" max="1792" width="8.90625" style="13"/>
+    <col min="1793" max="1793" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="34.81640625" style="13" customWidth="1"/>
+    <col min="1796" max="1796" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="1800" max="1800" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1803" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1805" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1806" max="2048" width="8.88671875" style="13"/>
-    <col min="2049" max="2049" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="34.77734375" style="13" customWidth="1"/>
-    <col min="2052" max="2052" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1803" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1805" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1806" max="2048" width="8.90625" style="13"/>
+    <col min="2049" max="2049" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="34.81640625" style="13" customWidth="1"/>
+    <col min="2052" max="2052" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="2056" max="2056" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2059" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2061" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2062" max="2304" width="8.88671875" style="13"/>
-    <col min="2305" max="2305" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="34.77734375" style="13" customWidth="1"/>
-    <col min="2308" max="2308" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2059" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2061" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2062" max="2304" width="8.90625" style="13"/>
+    <col min="2305" max="2305" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="34.81640625" style="13" customWidth="1"/>
+    <col min="2308" max="2308" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="2312" max="2312" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2315" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2317" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2318" max="2560" width="8.88671875" style="13"/>
-    <col min="2561" max="2561" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="34.77734375" style="13" customWidth="1"/>
-    <col min="2564" max="2564" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2315" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2317" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2318" max="2560" width="8.90625" style="13"/>
+    <col min="2561" max="2561" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="34.81640625" style="13" customWidth="1"/>
+    <col min="2564" max="2564" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="2568" max="2568" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2571" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2573" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2574" max="2816" width="8.88671875" style="13"/>
-    <col min="2817" max="2817" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="34.77734375" style="13" customWidth="1"/>
-    <col min="2820" max="2820" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2571" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2573" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2574" max="2816" width="8.90625" style="13"/>
+    <col min="2817" max="2817" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="34.81640625" style="13" customWidth="1"/>
+    <col min="2820" max="2820" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="2824" max="2824" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2827" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2829" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2830" max="3072" width="8.88671875" style="13"/>
-    <col min="3073" max="3073" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="34.77734375" style="13" customWidth="1"/>
-    <col min="3076" max="3076" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2827" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2829" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2830" max="3072" width="8.90625" style="13"/>
+    <col min="3073" max="3073" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="34.81640625" style="13" customWidth="1"/>
+    <col min="3076" max="3076" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3080" max="3080" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3083" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3085" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3086" max="3328" width="8.88671875" style="13"/>
-    <col min="3329" max="3329" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="34.77734375" style="13" customWidth="1"/>
-    <col min="3332" max="3332" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3083" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3085" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3086" max="3328" width="8.90625" style="13"/>
+    <col min="3329" max="3329" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="34.81640625" style="13" customWidth="1"/>
+    <col min="3332" max="3332" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3336" max="3336" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3339" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3341" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3342" max="3584" width="8.88671875" style="13"/>
-    <col min="3585" max="3585" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="34.77734375" style="13" customWidth="1"/>
-    <col min="3588" max="3588" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3339" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3341" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3342" max="3584" width="8.90625" style="13"/>
+    <col min="3585" max="3585" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="34.81640625" style="13" customWidth="1"/>
+    <col min="3588" max="3588" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3592" max="3592" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3595" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3597" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3598" max="3840" width="8.88671875" style="13"/>
-    <col min="3841" max="3841" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="34.77734375" style="13" customWidth="1"/>
-    <col min="3844" max="3844" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3595" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3597" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3598" max="3840" width="8.90625" style="13"/>
+    <col min="3841" max="3841" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="34.81640625" style="13" customWidth="1"/>
+    <col min="3844" max="3844" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3848" max="3848" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3851" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3853" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3854" max="4096" width="8.88671875" style="13"/>
-    <col min="4097" max="4097" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="34.77734375" style="13" customWidth="1"/>
-    <col min="4100" max="4100" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3851" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3853" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3854" max="4096" width="8.90625" style="13"/>
+    <col min="4097" max="4097" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="34.81640625" style="13" customWidth="1"/>
+    <col min="4100" max="4100" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="4104" max="4104" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4107" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4109" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4110" max="4352" width="8.88671875" style="13"/>
-    <col min="4353" max="4353" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="34.77734375" style="13" customWidth="1"/>
-    <col min="4356" max="4356" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4107" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4109" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4110" max="4352" width="8.90625" style="13"/>
+    <col min="4353" max="4353" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="34.81640625" style="13" customWidth="1"/>
+    <col min="4356" max="4356" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="4360" max="4360" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4363" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4365" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4366" max="4608" width="8.88671875" style="13"/>
-    <col min="4609" max="4609" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="34.77734375" style="13" customWidth="1"/>
-    <col min="4612" max="4612" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4363" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4365" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4366" max="4608" width="8.90625" style="13"/>
+    <col min="4609" max="4609" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="34.81640625" style="13" customWidth="1"/>
+    <col min="4612" max="4612" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="4616" max="4616" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4619" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4621" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4622" max="4864" width="8.88671875" style="13"/>
-    <col min="4865" max="4865" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="34.77734375" style="13" customWidth="1"/>
-    <col min="4868" max="4868" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4619" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4621" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4622" max="4864" width="8.90625" style="13"/>
+    <col min="4865" max="4865" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="34.81640625" style="13" customWidth="1"/>
+    <col min="4868" max="4868" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="4872" max="4872" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4875" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4877" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4878" max="5120" width="8.88671875" style="13"/>
-    <col min="5121" max="5121" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="34.77734375" style="13" customWidth="1"/>
-    <col min="5124" max="5124" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4875" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4877" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4878" max="5120" width="8.90625" style="13"/>
+    <col min="5121" max="5121" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="34.81640625" style="13" customWidth="1"/>
+    <col min="5124" max="5124" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5128" max="5128" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5131" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5133" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5134" max="5376" width="8.88671875" style="13"/>
-    <col min="5377" max="5377" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="34.77734375" style="13" customWidth="1"/>
-    <col min="5380" max="5380" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5131" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5133" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5134" max="5376" width="8.90625" style="13"/>
+    <col min="5377" max="5377" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="34.81640625" style="13" customWidth="1"/>
+    <col min="5380" max="5380" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5384" max="5384" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5387" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5389" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5390" max="5632" width="8.88671875" style="13"/>
-    <col min="5633" max="5633" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="34.77734375" style="13" customWidth="1"/>
-    <col min="5636" max="5636" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5387" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5389" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5390" max="5632" width="8.90625" style="13"/>
+    <col min="5633" max="5633" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="34.81640625" style="13" customWidth="1"/>
+    <col min="5636" max="5636" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5640" max="5640" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5643" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5645" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5646" max="5888" width="8.88671875" style="13"/>
-    <col min="5889" max="5889" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="34.77734375" style="13" customWidth="1"/>
-    <col min="5892" max="5892" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5643" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5645" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5646" max="5888" width="8.90625" style="13"/>
+    <col min="5889" max="5889" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="34.81640625" style="13" customWidth="1"/>
+    <col min="5892" max="5892" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5896" max="5896" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5899" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5901" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5902" max="6144" width="8.88671875" style="13"/>
-    <col min="6145" max="6145" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="34.77734375" style="13" customWidth="1"/>
-    <col min="6148" max="6148" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5899" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5901" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5902" max="6144" width="8.90625" style="13"/>
+    <col min="6145" max="6145" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="34.81640625" style="13" customWidth="1"/>
+    <col min="6148" max="6148" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="6152" max="6152" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6155" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6157" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6158" max="6400" width="8.88671875" style="13"/>
-    <col min="6401" max="6401" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="34.77734375" style="13" customWidth="1"/>
-    <col min="6404" max="6404" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6155" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6157" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6158" max="6400" width="8.90625" style="13"/>
+    <col min="6401" max="6401" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="34.81640625" style="13" customWidth="1"/>
+    <col min="6404" max="6404" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="6408" max="6408" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6411" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6413" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6414" max="6656" width="8.88671875" style="13"/>
-    <col min="6657" max="6657" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="34.77734375" style="13" customWidth="1"/>
-    <col min="6660" max="6660" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6411" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6413" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6414" max="6656" width="8.90625" style="13"/>
+    <col min="6657" max="6657" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="34.81640625" style="13" customWidth="1"/>
+    <col min="6660" max="6660" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="6664" max="6664" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6667" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6669" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6670" max="6912" width="8.88671875" style="13"/>
-    <col min="6913" max="6913" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="34.77734375" style="13" customWidth="1"/>
-    <col min="6916" max="6916" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6667" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6669" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6670" max="6912" width="8.90625" style="13"/>
+    <col min="6913" max="6913" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="34.81640625" style="13" customWidth="1"/>
+    <col min="6916" max="6916" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="6920" max="6920" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6923" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6925" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6926" max="7168" width="8.88671875" style="13"/>
-    <col min="7169" max="7169" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="34.77734375" style="13" customWidth="1"/>
-    <col min="7172" max="7172" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6923" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6925" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6926" max="7168" width="8.90625" style="13"/>
+    <col min="7169" max="7169" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="34.81640625" style="13" customWidth="1"/>
+    <col min="7172" max="7172" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="7176" max="7176" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7179" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7181" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7182" max="7424" width="8.88671875" style="13"/>
-    <col min="7425" max="7425" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="34.77734375" style="13" customWidth="1"/>
-    <col min="7428" max="7428" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7179" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7181" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7182" max="7424" width="8.90625" style="13"/>
+    <col min="7425" max="7425" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="34.81640625" style="13" customWidth="1"/>
+    <col min="7428" max="7428" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="7432" max="7432" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7435" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7437" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7438" max="7680" width="8.88671875" style="13"/>
-    <col min="7681" max="7681" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="34.77734375" style="13" customWidth="1"/>
-    <col min="7684" max="7684" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7435" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7437" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7438" max="7680" width="8.90625" style="13"/>
+    <col min="7681" max="7681" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="34.81640625" style="13" customWidth="1"/>
+    <col min="7684" max="7684" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="7688" max="7688" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7691" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7693" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7694" max="7936" width="8.88671875" style="13"/>
-    <col min="7937" max="7937" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="34.77734375" style="13" customWidth="1"/>
-    <col min="7940" max="7940" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7691" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7693" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7694" max="7936" width="8.90625" style="13"/>
+    <col min="7937" max="7937" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="34.81640625" style="13" customWidth="1"/>
+    <col min="7940" max="7940" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="7944" max="7944" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7947" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7949" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7950" max="8192" width="8.88671875" style="13"/>
-    <col min="8193" max="8193" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="34.77734375" style="13" customWidth="1"/>
-    <col min="8196" max="8196" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7947" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7949" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7950" max="8192" width="8.90625" style="13"/>
+    <col min="8193" max="8193" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="34.81640625" style="13" customWidth="1"/>
+    <col min="8196" max="8196" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="8200" max="8200" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8203" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8205" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8206" max="8448" width="8.88671875" style="13"/>
-    <col min="8449" max="8449" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="34.77734375" style="13" customWidth="1"/>
-    <col min="8452" max="8452" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8203" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8205" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8206" max="8448" width="8.90625" style="13"/>
+    <col min="8449" max="8449" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="34.81640625" style="13" customWidth="1"/>
+    <col min="8452" max="8452" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="8456" max="8456" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8459" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8461" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8462" max="8704" width="8.88671875" style="13"/>
-    <col min="8705" max="8705" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="34.77734375" style="13" customWidth="1"/>
-    <col min="8708" max="8708" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8459" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8461" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8462" max="8704" width="8.90625" style="13"/>
+    <col min="8705" max="8705" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="34.81640625" style="13" customWidth="1"/>
+    <col min="8708" max="8708" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="8712" max="8712" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8715" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8717" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8718" max="8960" width="8.88671875" style="13"/>
-    <col min="8961" max="8961" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="34.77734375" style="13" customWidth="1"/>
-    <col min="8964" max="8964" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8715" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8717" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8718" max="8960" width="8.90625" style="13"/>
+    <col min="8961" max="8961" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="34.81640625" style="13" customWidth="1"/>
+    <col min="8964" max="8964" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="8968" max="8968" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8971" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8973" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8974" max="9216" width="8.88671875" style="13"/>
-    <col min="9217" max="9217" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="34.77734375" style="13" customWidth="1"/>
-    <col min="9220" max="9220" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8971" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8973" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8974" max="9216" width="8.90625" style="13"/>
+    <col min="9217" max="9217" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="34.81640625" style="13" customWidth="1"/>
+    <col min="9220" max="9220" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="9224" max="9224" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9227" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9229" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9230" max="9472" width="8.88671875" style="13"/>
-    <col min="9473" max="9473" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="34.77734375" style="13" customWidth="1"/>
-    <col min="9476" max="9476" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9227" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9229" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9230" max="9472" width="8.90625" style="13"/>
+    <col min="9473" max="9473" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="34.81640625" style="13" customWidth="1"/>
+    <col min="9476" max="9476" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="9480" max="9480" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9483" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9485" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9486" max="9728" width="8.88671875" style="13"/>
-    <col min="9729" max="9729" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="34.77734375" style="13" customWidth="1"/>
-    <col min="9732" max="9732" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9483" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9485" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9486" max="9728" width="8.90625" style="13"/>
+    <col min="9729" max="9729" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="34.81640625" style="13" customWidth="1"/>
+    <col min="9732" max="9732" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="9736" max="9736" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9739" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9741" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9742" max="9984" width="8.88671875" style="13"/>
-    <col min="9985" max="9985" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="34.77734375" style="13" customWidth="1"/>
-    <col min="9988" max="9988" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9739" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9741" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9742" max="9984" width="8.90625" style="13"/>
+    <col min="9985" max="9985" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="34.81640625" style="13" customWidth="1"/>
+    <col min="9988" max="9988" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="9992" max="9992" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9995" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9997" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9998" max="10240" width="8.88671875" style="13"/>
-    <col min="10241" max="10241" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="34.77734375" style="13" customWidth="1"/>
-    <col min="10244" max="10244" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9995" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9997" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9998" max="10240" width="8.90625" style="13"/>
+    <col min="10241" max="10241" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="34.81640625" style="13" customWidth="1"/>
+    <col min="10244" max="10244" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="10248" max="10248" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10251" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10253" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10254" max="10496" width="8.88671875" style="13"/>
-    <col min="10497" max="10497" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="34.77734375" style="13" customWidth="1"/>
-    <col min="10500" max="10500" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10251" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10253" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10254" max="10496" width="8.90625" style="13"/>
+    <col min="10497" max="10497" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="34.81640625" style="13" customWidth="1"/>
+    <col min="10500" max="10500" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="10504" max="10504" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10507" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10509" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10510" max="10752" width="8.88671875" style="13"/>
-    <col min="10753" max="10753" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="34.77734375" style="13" customWidth="1"/>
-    <col min="10756" max="10756" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10507" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10509" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10510" max="10752" width="8.90625" style="13"/>
+    <col min="10753" max="10753" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="34.81640625" style="13" customWidth="1"/>
+    <col min="10756" max="10756" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="10760" max="10760" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10763" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10765" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10766" max="11008" width="8.88671875" style="13"/>
-    <col min="11009" max="11009" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="34.77734375" style="13" customWidth="1"/>
-    <col min="11012" max="11012" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10763" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10765" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10766" max="11008" width="8.90625" style="13"/>
+    <col min="11009" max="11009" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="34.81640625" style="13" customWidth="1"/>
+    <col min="11012" max="11012" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="11016" max="11016" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11019" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11021" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11022" max="11264" width="8.88671875" style="13"/>
-    <col min="11265" max="11265" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="34.77734375" style="13" customWidth="1"/>
-    <col min="11268" max="11268" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11019" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11021" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11022" max="11264" width="8.90625" style="13"/>
+    <col min="11265" max="11265" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="34.81640625" style="13" customWidth="1"/>
+    <col min="11268" max="11268" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="11272" max="11272" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11275" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11277" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11278" max="11520" width="8.88671875" style="13"/>
-    <col min="11521" max="11521" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="34.77734375" style="13" customWidth="1"/>
-    <col min="11524" max="11524" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11275" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11277" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11278" max="11520" width="8.90625" style="13"/>
+    <col min="11521" max="11521" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="34.81640625" style="13" customWidth="1"/>
+    <col min="11524" max="11524" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="11528" max="11528" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11531" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11533" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11534" max="11776" width="8.88671875" style="13"/>
-    <col min="11777" max="11777" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="34.77734375" style="13" customWidth="1"/>
-    <col min="11780" max="11780" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11531" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11533" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11534" max="11776" width="8.90625" style="13"/>
+    <col min="11777" max="11777" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="34.81640625" style="13" customWidth="1"/>
+    <col min="11780" max="11780" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="11784" max="11784" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11787" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11789" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11790" max="12032" width="8.88671875" style="13"/>
-    <col min="12033" max="12033" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="34.77734375" style="13" customWidth="1"/>
-    <col min="12036" max="12036" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11787" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11789" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11790" max="12032" width="8.90625" style="13"/>
+    <col min="12033" max="12033" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="34.81640625" style="13" customWidth="1"/>
+    <col min="12036" max="12036" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="12040" max="12040" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12043" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12045" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12046" max="12288" width="8.88671875" style="13"/>
-    <col min="12289" max="12289" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="34.77734375" style="13" customWidth="1"/>
-    <col min="12292" max="12292" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12043" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12045" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12046" max="12288" width="8.90625" style="13"/>
+    <col min="12289" max="12289" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="34.81640625" style="13" customWidth="1"/>
+    <col min="12292" max="12292" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="12296" max="12296" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12299" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12301" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12302" max="12544" width="8.88671875" style="13"/>
-    <col min="12545" max="12545" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="34.77734375" style="13" customWidth="1"/>
-    <col min="12548" max="12548" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12299" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12301" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12302" max="12544" width="8.90625" style="13"/>
+    <col min="12545" max="12545" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="34.81640625" style="13" customWidth="1"/>
+    <col min="12548" max="12548" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="12552" max="12552" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12555" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12557" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12558" max="12800" width="8.88671875" style="13"/>
-    <col min="12801" max="12801" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="34.77734375" style="13" customWidth="1"/>
-    <col min="12804" max="12804" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12555" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12557" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12558" max="12800" width="8.90625" style="13"/>
+    <col min="12801" max="12801" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="34.81640625" style="13" customWidth="1"/>
+    <col min="12804" max="12804" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="12808" max="12808" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12811" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12813" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12814" max="13056" width="8.88671875" style="13"/>
-    <col min="13057" max="13057" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="34.77734375" style="13" customWidth="1"/>
-    <col min="13060" max="13060" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12811" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12813" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12814" max="13056" width="8.90625" style="13"/>
+    <col min="13057" max="13057" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="34.81640625" style="13" customWidth="1"/>
+    <col min="13060" max="13060" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="13064" max="13064" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13067" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13069" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13070" max="13312" width="8.88671875" style="13"/>
-    <col min="13313" max="13313" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="34.77734375" style="13" customWidth="1"/>
-    <col min="13316" max="13316" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13067" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13069" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13070" max="13312" width="8.90625" style="13"/>
+    <col min="13313" max="13313" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="34.81640625" style="13" customWidth="1"/>
+    <col min="13316" max="13316" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="13320" max="13320" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13323" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13325" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13326" max="13568" width="8.88671875" style="13"/>
-    <col min="13569" max="13569" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="34.77734375" style="13" customWidth="1"/>
-    <col min="13572" max="13572" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13323" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13325" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13326" max="13568" width="8.90625" style="13"/>
+    <col min="13569" max="13569" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="34.81640625" style="13" customWidth="1"/>
+    <col min="13572" max="13572" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="13576" max="13576" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13579" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13581" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13582" max="13824" width="8.88671875" style="13"/>
-    <col min="13825" max="13825" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="34.77734375" style="13" customWidth="1"/>
-    <col min="13828" max="13828" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13579" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13581" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13582" max="13824" width="8.90625" style="13"/>
+    <col min="13825" max="13825" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="34.81640625" style="13" customWidth="1"/>
+    <col min="13828" max="13828" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="13832" max="13832" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13835" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13837" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13838" max="14080" width="8.88671875" style="13"/>
-    <col min="14081" max="14081" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="34.77734375" style="13" customWidth="1"/>
-    <col min="14084" max="14084" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13835" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13837" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13838" max="14080" width="8.90625" style="13"/>
+    <col min="14081" max="14081" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="34.81640625" style="13" customWidth="1"/>
+    <col min="14084" max="14084" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="14088" max="14088" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14091" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14093" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14094" max="14336" width="8.88671875" style="13"/>
-    <col min="14337" max="14337" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="34.77734375" style="13" customWidth="1"/>
-    <col min="14340" max="14340" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14091" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14093" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14094" max="14336" width="8.90625" style="13"/>
+    <col min="14337" max="14337" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="34.81640625" style="13" customWidth="1"/>
+    <col min="14340" max="14340" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="14344" max="14344" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14347" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14349" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14350" max="14592" width="8.88671875" style="13"/>
-    <col min="14593" max="14593" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="34.77734375" style="13" customWidth="1"/>
-    <col min="14596" max="14596" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14347" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14349" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14350" max="14592" width="8.90625" style="13"/>
+    <col min="14593" max="14593" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="34.81640625" style="13" customWidth="1"/>
+    <col min="14596" max="14596" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="14600" max="14600" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14603" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14605" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14606" max="14848" width="8.88671875" style="13"/>
-    <col min="14849" max="14849" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="34.77734375" style="13" customWidth="1"/>
-    <col min="14852" max="14852" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14603" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14605" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14606" max="14848" width="8.90625" style="13"/>
+    <col min="14849" max="14849" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="34.81640625" style="13" customWidth="1"/>
+    <col min="14852" max="14852" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="14856" max="14856" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14859" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14861" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14862" max="15104" width="8.88671875" style="13"/>
-    <col min="15105" max="15105" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="34.77734375" style="13" customWidth="1"/>
-    <col min="15108" max="15108" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14859" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14861" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14862" max="15104" width="8.90625" style="13"/>
+    <col min="15105" max="15105" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="34.81640625" style="13" customWidth="1"/>
+    <col min="15108" max="15108" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="15112" max="15112" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15115" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15117" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15118" max="15360" width="8.88671875" style="13"/>
-    <col min="15361" max="15361" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="34.77734375" style="13" customWidth="1"/>
-    <col min="15364" max="15364" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15115" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15117" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15118" max="15360" width="8.90625" style="13"/>
+    <col min="15361" max="15361" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="34.81640625" style="13" customWidth="1"/>
+    <col min="15364" max="15364" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="15368" max="15368" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15371" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15373" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15374" max="15616" width="8.88671875" style="13"/>
-    <col min="15617" max="15617" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="34.77734375" style="13" customWidth="1"/>
-    <col min="15620" max="15620" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15371" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15373" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15374" max="15616" width="8.90625" style="13"/>
+    <col min="15617" max="15617" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="34.81640625" style="13" customWidth="1"/>
+    <col min="15620" max="15620" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="15624" max="15624" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15627" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15629" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15630" max="15872" width="8.88671875" style="13"/>
-    <col min="15873" max="15873" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="34.77734375" style="13" customWidth="1"/>
-    <col min="15876" max="15876" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15627" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15629" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15630" max="15872" width="8.90625" style="13"/>
+    <col min="15873" max="15873" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="34.81640625" style="13" customWidth="1"/>
+    <col min="15876" max="15876" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="15880" max="15880" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15883" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15885" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15886" max="16128" width="8.88671875" style="13"/>
-    <col min="16129" max="16129" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="34.77734375" style="13" customWidth="1"/>
-    <col min="16132" max="16132" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15883" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15885" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15886" max="16128" width="8.90625" style="13"/>
+    <col min="16129" max="16129" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="34.81640625" style="13" customWidth="1"/>
+    <col min="16132" max="16132" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="16136" max="16136" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16139" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16141" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="16142" max="16384" width="8.88671875" style="13"/>
+    <col min="16137" max="16139" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16141" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16142" max="16384" width="8.90625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="39" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -8906,7 +8906,7 @@
         <v>-0.33126078425478106</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="24" t="s">
@@ -8955,7 +8955,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B111" s="21"/>
       <c r="C111" s="23" t="s">
         <v>126</v>

--- a/gis/data/geographical.xlsx
+++ b/gis/data/geographical.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D3EAB56-A71F-452B-B602-B80E1837DB49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2017EE58-0137-4A74-933D-3025137B736D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{6C3CB45D-6930-4358-8246-5C5767DAECE9}"/>
   </bookViews>
@@ -39,15 +39,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
   <si>
-    <t>op_id</t>
-  </si>
-  <si>
-    <t>shore_total</t>
-  </si>
-  <si>
-    <t>shore_coastal</t>
-  </si>
-  <si>
     <t>MEAN_AGE_ABOVE_45_POP</t>
   </si>
   <si>
@@ -492,7 +483,16 @@
     <t>Source: calculations by Zandersen et al. (2022) based on CORINE Land Cover 2018 (2020)</t>
   </si>
   <si>
-    <t>lnPAL</t>
+    <t>v</t>
+  </si>
+  <si>
+    <t>ln PAL</t>
+  </si>
+  <si>
+    <t>shore all j</t>
+  </si>
+  <si>
+    <t>shore coastal</t>
   </si>
 </sst>
 </file>
@@ -974,9 +974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACD2585-A628-477C-A524-CD7422BC68C9}">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -986,16 +984,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>132</v>
       </c>
       <c r="D1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2955,11 +2953,11 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="D110" sqref="D110"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3675,49 +3673,49 @@
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="Q1" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,7 +3723,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="6">
         <v>814153.94890066294</v>
@@ -3773,7 +3771,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E3" s="6">
         <v>793928.81511893403</v>
@@ -3821,7 +3819,7 @@
         <v>6</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4" s="6">
         <v>890937.34792565205</v>
@@ -3869,7 +3867,7 @@
         <v>16</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E5" s="6">
         <v>638650.02204916906</v>
@@ -3917,7 +3915,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6">
         <v>599142.82075729896</v>
@@ -3965,7 +3963,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6">
         <v>613964.00815263996</v>
@@ -4013,7 +4011,7 @@
         <v>24</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E8" s="6">
         <v>573558.62601192901</v>
@@ -4061,7 +4059,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E9" s="6">
         <v>611179.99867864803</v>
@@ -4109,7 +4107,7 @@
         <v>28</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E10" s="6">
         <v>564636.90326529997</v>
@@ -4157,7 +4155,7 @@
         <v>29</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E11" s="6">
         <v>608122.64334931097</v>
@@ -4205,7 +4203,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E12" s="6">
         <v>497100.53956679301</v>
@@ -4253,7 +4251,7 @@
         <v>35</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E13" s="6">
         <v>663606.41750163003</v>
@@ -4301,7 +4299,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E14" s="6">
         <v>630449.48459130002</v>
@@ -4349,7 +4347,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E15" s="6">
         <v>580105.71417341696</v>
@@ -4397,7 +4395,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E16" s="6">
         <v>557142.12708008406</v>
@@ -4445,7 +4443,7 @@
         <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E17" s="6">
         <v>516647.14632213599</v>
@@ -4493,7 +4491,7 @@
         <v>45</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E18" s="6">
         <v>528404.15767294099</v>
@@ -4541,7 +4539,7 @@
         <v>46</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E19" s="6">
         <v>600362.613485993</v>
@@ -4589,7 +4587,7 @@
         <v>47</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E20" s="6">
         <v>628879.74904769496</v>
@@ -4637,7 +4635,7 @@
         <v>48</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E21" s="6">
         <v>545711.65819841402</v>
@@ -4685,7 +4683,7 @@
         <v>49</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E22" s="6">
         <v>505172.983373906</v>
@@ -4733,7 +4731,7 @@
         <v>56</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E23" s="6">
         <v>513508.525233911</v>
@@ -4781,7 +4779,7 @@
         <v>57</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E24" s="6">
         <v>488447.75</v>
@@ -4829,7 +4827,7 @@
         <v>59</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E25" s="6">
         <v>561924.68804841302</v>
@@ -4877,7 +4875,7 @@
         <v>62</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E26" s="6">
         <v>563174.00958540896</v>
@@ -4925,7 +4923,7 @@
         <v>68</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E27" s="6">
         <v>471645.502720733</v>
@@ -4973,7 +4971,7 @@
         <v>72</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E28" s="6">
         <v>481736.550888061</v>
@@ -5021,7 +5019,7 @@
         <v>74</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E29" s="6">
         <v>612222.99957489397</v>
@@ -5069,7 +5067,7 @@
         <v>80</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E30" s="6">
         <v>654784.28010138404</v>
@@ -5117,7 +5115,7 @@
         <v>82</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E31" s="6">
         <v>581339.89785370301</v>
@@ -5165,7 +5163,7 @@
         <v>83</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E32" s="6">
         <v>602904.51330053096</v>
@@ -5213,7 +5211,7 @@
         <v>84</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E33" s="6">
         <v>696867.07635632902</v>
@@ -5261,7 +5259,7 @@
         <v>85</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E34" s="6">
         <v>621630.40588216705</v>
@@ -5309,7 +5307,7 @@
         <v>86</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E35" s="6">
         <v>556896.78497053206</v>
@@ -5357,7 +5355,7 @@
         <v>87</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E36" s="6">
         <v>575660.61294544302</v>
@@ -5405,7 +5403,7 @@
         <v>89</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E37" s="6">
         <v>569231.333597544</v>
@@ -5453,7 +5451,7 @@
         <v>90</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E38" s="6">
         <v>572533.18341964902</v>
@@ -5501,7 +5499,7 @@
         <v>92</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E39" s="6">
         <v>618986.62080929102</v>
@@ -5549,7 +5547,7 @@
         <v>93</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E40" s="6">
         <v>611284.16422924295</v>
@@ -5597,7 +5595,7 @@
         <v>95</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E41" s="6">
         <v>460120.88207320898</v>
@@ -5646,7 +5644,7 @@
         <v>96</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E42" s="6">
         <v>641240.38105076505</v>
@@ -5695,7 +5693,7 @@
         <v>101</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E43" s="6">
         <v>601069.51109890197</v>
@@ -5743,7 +5741,7 @@
         <v>102</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E44" s="6">
         <v>678169.85507896903</v>
@@ -5791,7 +5789,7 @@
         <v>103</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E45" s="6">
         <v>562525.61436661403</v>
@@ -5839,7 +5837,7 @@
         <v>104</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E46" s="6">
         <v>647906.95666702604</v>
@@ -5887,7 +5885,7 @@
         <v>105</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E47" s="6">
         <v>593256.01289885701</v>
@@ -5935,7 +5933,7 @@
         <v>106</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E48" s="6">
         <v>637214.14909081894</v>
@@ -5983,7 +5981,7 @@
         <v>107</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E49" s="6">
         <v>591678.31082165102</v>
@@ -6031,7 +6029,7 @@
         <v>108</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E50" s="6">
         <v>590649.20476518595</v>
@@ -6079,7 +6077,7 @@
         <v>109</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E51" s="6">
         <v>618717.32087956904</v>
@@ -6127,7 +6125,7 @@
         <v>110</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E52" s="6">
         <v>633543.65414879005</v>
@@ -6175,7 +6173,7 @@
         <v>111</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E53" s="6">
         <v>573246.54007967399</v>
@@ -6223,7 +6221,7 @@
         <v>113</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E54" s="6">
         <v>612203.970141044</v>
@@ -6271,7 +6269,7 @@
         <v>114</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E55" s="6">
         <v>575642.64945364499</v>
@@ -6319,7 +6317,7 @@
         <v>119</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E56" s="6">
         <v>624693.79617061897</v>
@@ -6367,7 +6365,7 @@
         <v>120</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E57" s="6">
         <v>620069.03308228904</v>
@@ -6415,7 +6413,7 @@
         <v>121</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E58" s="6">
         <v>648667.21875982499</v>
@@ -6463,7 +6461,7 @@
         <v>122</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E59" s="6">
         <v>685833.00729562098</v>
@@ -6511,7 +6509,7 @@
         <v>123</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E60" s="6">
         <v>702219.20966176596</v>
@@ -6559,7 +6557,7 @@
         <v>124</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E61" s="6">
         <v>691070.97003230604</v>
@@ -6607,7 +6605,7 @@
         <v>125</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E62" s="6">
         <v>728192.37214635196</v>
@@ -6655,7 +6653,7 @@
         <v>127</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E63" s="6">
         <v>647968.43744520505</v>
@@ -6703,7 +6701,7 @@
         <v>128</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E64" s="6">
         <v>684341.75406284898</v>
@@ -6751,7 +6749,7 @@
         <v>129</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E65" s="6">
         <v>565255.03270214598</v>
@@ -6799,7 +6797,7 @@
         <v>130</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E66" s="6">
         <v>563092.51642891101</v>
@@ -6847,7 +6845,7 @@
         <v>131</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E67" s="6">
         <v>669191.34153249802</v>
@@ -6895,7 +6893,7 @@
         <v>132</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E68" s="6">
         <v>642377.12950246397</v>
@@ -6943,7 +6941,7 @@
         <v>133</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E69" s="6">
         <v>536639.52865868597</v>
@@ -6991,7 +6989,7 @@
         <v>136</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E70" s="6">
         <v>672085.276339159</v>
@@ -7039,7 +7037,7 @@
         <v>137</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E71" s="6">
         <v>565290.02320590406</v>
@@ -7087,7 +7085,7 @@
         <v>138</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E72" s="6">
         <v>560786.69712843199</v>
@@ -7135,7 +7133,7 @@
         <v>139</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E73" s="6">
         <v>544522.98970243498</v>
@@ -7183,7 +7181,7 @@
         <v>140</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E74" s="6">
         <v>574792.34788157896</v>
@@ -7231,7 +7229,7 @@
         <v>141</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E75" s="6">
         <v>582149.55792792595</v>
@@ -7279,7 +7277,7 @@
         <v>142</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E76" s="6">
         <v>530141.46670127497</v>
@@ -7327,7 +7325,7 @@
         <v>144</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E77" s="6">
         <v>581748.70480278903</v>
@@ -7375,7 +7373,7 @@
         <v>145</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E78" s="6">
         <v>687762.83463483001</v>
@@ -7423,7 +7421,7 @@
         <v>146</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E79" s="6">
         <v>710717.64779026597</v>
@@ -7471,7 +7469,7 @@
         <v>147</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E80" s="6">
         <v>730752.25490177202</v>
@@ -7519,7 +7517,7 @@
         <v>154</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E81" s="6">
         <v>451028.39560214401</v>
@@ -7567,7 +7565,7 @@
         <v>157</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E82" s="6">
         <v>598784.65277438494</v>
@@ -7615,7 +7613,7 @@
         <v>158</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E83" s="6">
         <v>620930.85315027402</v>
@@ -7663,7 +7661,7 @@
         <v>159</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E84" s="6">
         <v>625713.72091396002</v>
@@ -7711,7 +7709,7 @@
         <v>160</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E85" s="6">
         <v>563124.124150672</v>
@@ -7759,7 +7757,7 @@
         <v>165</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E86" s="6">
         <v>655655.08190596197</v>
@@ -7807,7 +7805,7 @@
         <v>200</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E87" s="6">
         <v>720961.96759315301</v>
@@ -7855,7 +7853,7 @@
         <v>201</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E88" s="6">
         <v>711776.46740748303</v>
@@ -7903,7 +7901,7 @@
         <v>204</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E89" s="6">
         <v>641774.18489240902</v>
@@ -7951,7 +7949,7 @@
         <v>206</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E90" s="6">
         <v>552398.06086212699</v>
@@ -7999,7 +7997,7 @@
         <v>207</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E91" s="6">
         <v>473899.33146357402</v>
@@ -8047,7 +8045,7 @@
         <v>208</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E92" s="6">
         <v>479600.116606845</v>
@@ -8095,7 +8093,7 @@
         <v>209</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E93" s="6">
         <v>492126.23583552003</v>
@@ -8143,7 +8141,7 @@
         <v>212</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E94" s="6">
         <v>533601.04819239001</v>
@@ -8191,7 +8189,7 @@
         <v>214</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E95" s="6">
         <v>566929.97289873101</v>
@@ -8239,7 +8237,7 @@
         <v>216</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E96" s="6">
         <v>554521.54743491998</v>
@@ -8287,7 +8285,7 @@
         <v>217</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E97" s="6">
         <v>637309.11521501199</v>
@@ -8335,7 +8333,7 @@
         <v>219</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E98" s="6">
         <v>586377.56007540098</v>
@@ -8383,7 +8381,7 @@
         <v>221</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E99" s="6">
         <v>575365.52783845703</v>
@@ -8431,7 +8429,7 @@
         <v>222</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E100" s="6">
         <v>574730.11460446601</v>
@@ -8479,7 +8477,7 @@
         <v>224</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E101" s="6">
         <v>591960.63575273496</v>
@@ -8527,7 +8525,7 @@
         <v>225</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E102" s="6">
         <v>572296.166663551</v>
@@ -8575,7 +8573,7 @@
         <v>231</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E103" s="6">
         <v>699738.93730562401</v>
@@ -8623,7 +8621,7 @@
         <v>232</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E104" s="6">
         <v>566026.08483557904</v>
@@ -8671,7 +8669,7 @@
         <v>233</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E105" s="6">
         <v>576779.39215189696</v>
@@ -8719,7 +8717,7 @@
         <v>234</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E106" s="6">
         <v>547313.59042146103</v>
@@ -8767,7 +8765,7 @@
         <v>235</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E107" s="6">
         <v>624570.54698165006</v>
@@ -8815,7 +8813,7 @@
         <v>236</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E108" s="6">
         <v>577175.17964619398</v>
@@ -8863,7 +8861,7 @@
         <v>238</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E109" s="6">
         <v>628414.74776329403</v>
@@ -8910,65 +8908,65 @@
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D110" s="24" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H110" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="I110" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K110" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="L110" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="M110" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N110" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="O110" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="P110" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="Q110" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B111" s="21"/>
       <c r="C111" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="D111" s="13" t="s">
         <v>126</v>
-      </c>
-      <c r="D111" s="13" t="s">
-        <v>129</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="17"/>
       <c r="G111" s="13"/>
       <c r="I111" s="19"/>
       <c r="J111" s="25" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K111" s="13"/>
     </row>

--- a/gis/data/geographical.xlsx
+++ b/gis/data/geographical.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2017EE58-0137-4A74-933D-3025137B736D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9DE5B2-29E4-4815-B495-E151611CC161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{6C3CB45D-6930-4358-8246-5C5767DAECE9}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{6C3CB45D-6930-4358-8246-5C5767DAECE9}"/>
   </bookViews>
   <sheets>
     <sheet name="catchment" sheetId="1" r:id="rId1"/>
-    <sheet name="ID_108" sheetId="2" r:id="rId2"/>
+    <sheet name="all_VP_shore length" sheetId="3" r:id="rId2"/>
+    <sheet name="ID_108" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
   <si>
     <t>MEAN_AGE_ABOVE_45_POP</t>
   </si>
@@ -474,9 +475,6 @@
     </r>
   </si>
   <si>
-    <t>Benefit transfer tool by Zandersen et al. (2022) - download and unhide sheet "ID_108"</t>
-  </si>
-  <si>
     <t>Source: calculations by Zandersen et al. (2022) based on Statistics Denmark grid (2018)</t>
   </si>
   <si>
@@ -493,6 +491,12 @@
   </si>
   <si>
     <t>shore coastal</t>
+  </si>
+  <si>
+    <t>coastal</t>
+  </si>
+  <si>
+    <t>Benefit Transfer tool by Zandersen et al. (2022) - download and unhide sheet "ID_108"</t>
   </si>
 </sst>
 </file>
@@ -974,7 +978,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACD2585-A628-477C-A524-CD7422BC68C9}">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -984,16 +991,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" t="s">
         <v>129</v>
-      </c>
-      <c r="B1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C1" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -2949,15 +2956,903 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5345CE1D-39D7-4E3E-83C7-2617AB338F52}">
+  <dimension ref="A1:B109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>90.462352268068912</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>80.575037663134992</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>163.44546256116001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>13.703742301782201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>26.360111331108801</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>17.789887294684199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>24</v>
+      </c>
+      <c r="B8">
+        <v>78.780988884369208</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>12.1593442820985</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10">
+        <v>167.12440693833901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>29</v>
+      </c>
+      <c r="B11">
+        <v>38.907308074859003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>122.222690456568</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>46.486430754171401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>24.726356270610399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>34.763056288620398</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>68.121080671328002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>66.647717347198807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>45</v>
+      </c>
+      <c r="B18">
+        <v>84.328459968970904</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>46</v>
+      </c>
+      <c r="B19">
+        <v>66.786127218971998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>47</v>
+      </c>
+      <c r="B20">
+        <v>34.830250770458903</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>48</v>
+      </c>
+      <c r="B21">
+        <v>121.20670222515101</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>49</v>
+      </c>
+      <c r="B22">
+        <v>16.092469684539399</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>56</v>
+      </c>
+      <c r="B23">
+        <v>128.89917274900301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>57</v>
+      </c>
+      <c r="B24">
+        <v>5.7362150556347098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>59</v>
+      </c>
+      <c r="B25">
+        <v>17.5881486032326</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>62</v>
+      </c>
+      <c r="B26">
+        <v>17.518985135487799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>68</v>
+      </c>
+      <c r="B27">
+        <v>17.814597455059697</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>23.617188354992997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>74</v>
+      </c>
+      <c r="B29">
+        <v>4.1709686189861701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>80</v>
+      </c>
+      <c r="B30">
+        <v>21.582552459189799</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>82</v>
+      </c>
+      <c r="B31">
+        <v>0.73679092665746893</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>83</v>
+      </c>
+      <c r="B32">
+        <v>0.393108732750372</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>84</v>
+      </c>
+      <c r="B33">
+        <v>16.399972223192702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>85</v>
+      </c>
+      <c r="B34">
+        <v>11.922590329405601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>86</v>
+      </c>
+      <c r="B35">
+        <v>16.700908318916802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>87</v>
+      </c>
+      <c r="B36">
+        <v>61.150938148266597</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>89</v>
+      </c>
+      <c r="B37">
+        <v>12.209338796248</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>90</v>
+      </c>
+      <c r="B38">
+        <v>61.852367244897401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>92</v>
+      </c>
+      <c r="B39">
+        <v>48.003890361753506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>93</v>
+      </c>
+      <c r="B40">
+        <v>30.729033085067503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>95</v>
+      </c>
+      <c r="B41">
+        <v>66.768820940095495</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>96</v>
+      </c>
+      <c r="B42">
+        <v>57.991899241940999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>101</v>
+      </c>
+      <c r="B43">
+        <v>13.5725371775284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>102</v>
+      </c>
+      <c r="B44">
+        <v>28.918686758553797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>103</v>
+      </c>
+      <c r="B45">
+        <v>56.666394045752099</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>104</v>
+      </c>
+      <c r="B46">
+        <v>21.883636010759499</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>105</v>
+      </c>
+      <c r="B47">
+        <v>33.148226238865703</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>106</v>
+      </c>
+      <c r="B48">
+        <v>34.069154300544007</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>107</v>
+      </c>
+      <c r="B49">
+        <v>57.196581074945598</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>108</v>
+      </c>
+      <c r="B50">
+        <v>3.0466849633245703</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>109</v>
+      </c>
+      <c r="B51">
+        <v>6.3640985779312498</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>110</v>
+      </c>
+      <c r="B52">
+        <v>18.2336901615225</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>111</v>
+      </c>
+      <c r="B53">
+        <v>64.0746826157105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>113</v>
+      </c>
+      <c r="B54">
+        <v>15.3732518472636</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>114</v>
+      </c>
+      <c r="B55">
+        <v>85.657971271405899</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>119</v>
+      </c>
+      <c r="B56">
+        <v>62.912131507601103</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>120</v>
+      </c>
+      <c r="B57">
+        <v>33.702368779454403</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>121</v>
+      </c>
+      <c r="B58">
+        <v>94.1291566739431</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>122</v>
+      </c>
+      <c r="B59">
+        <v>41.849157005930202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>123</v>
+      </c>
+      <c r="B60">
+        <v>23.796507622701601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>124</v>
+      </c>
+      <c r="B61">
+        <v>18.291319812558598</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>125</v>
+      </c>
+      <c r="B62">
+        <v>17.2543812389608</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>127</v>
+      </c>
+      <c r="B63">
+        <v>37.820536688400495</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>128</v>
+      </c>
+      <c r="B64">
+        <v>60.8236887123076</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>129</v>
+      </c>
+      <c r="B65">
+        <v>41.343192696446103</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>130</v>
+      </c>
+      <c r="B66">
+        <v>14.9920813548565</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>131</v>
+      </c>
+      <c r="B67">
+        <v>14.568366769162399</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>132</v>
+      </c>
+      <c r="B68">
+        <v>147.14315261005598</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>133</v>
+      </c>
+      <c r="B69">
+        <v>113.50764057621799</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>136</v>
+      </c>
+      <c r="B70">
+        <v>11.3173685646903</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>137</v>
+      </c>
+      <c r="B71">
+        <v>47.505618002688699</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>138</v>
+      </c>
+      <c r="B72">
+        <v>39.540434614627998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>139</v>
+      </c>
+      <c r="B73">
+        <v>25.0021884820497</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>140</v>
+      </c>
+      <c r="B74">
+        <v>56.117064378217698</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>141</v>
+      </c>
+      <c r="B75">
+        <v>41.498931655941696</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>142</v>
+      </c>
+      <c r="B76">
+        <v>22.559917431177897</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>144</v>
+      </c>
+      <c r="B77">
+        <v>12.916723775594601</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>145</v>
+      </c>
+      <c r="B78">
+        <v>49.327177826538204</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>146</v>
+      </c>
+      <c r="B79">
+        <v>10.886887177280499</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>147</v>
+      </c>
+      <c r="B80">
+        <v>67.493124607455002</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>154</v>
+      </c>
+      <c r="B81">
+        <v>129.01766027308798</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>157</v>
+      </c>
+      <c r="B82">
+        <v>139.81550628903199</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>158</v>
+      </c>
+      <c r="B83">
+        <v>36.189132031932402</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>159</v>
+      </c>
+      <c r="B84">
+        <v>40.722940331555506</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>160</v>
+      </c>
+      <c r="B85">
+        <v>56.254680433708302</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>165</v>
+      </c>
+      <c r="B86">
+        <v>105.309328066353</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>200</v>
+      </c>
+      <c r="B87">
+        <v>97.294834531165009</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>201</v>
+      </c>
+      <c r="B88">
+        <v>101.74407693775601</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>204</v>
+      </c>
+      <c r="B89">
+        <v>75.016541728875907</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>206</v>
+      </c>
+      <c r="B90">
+        <v>155.271628419449</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>207</v>
+      </c>
+      <c r="B91">
+        <v>66.545367680081995</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>208</v>
+      </c>
+      <c r="B92">
+        <v>60.106835946228102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>209</v>
+      </c>
+      <c r="B93">
+        <v>116.00900398214901</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94">
+        <v>212</v>
+      </c>
+      <c r="B94">
+        <v>15.759407377429399</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95">
+        <v>214</v>
+      </c>
+      <c r="B95">
+        <v>241.72726207686</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96">
+        <v>216</v>
+      </c>
+      <c r="B96">
+        <v>185.298232444874</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97">
+        <v>217</v>
+      </c>
+      <c r="B97">
+        <v>139.50795108312499</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98">
+        <v>219</v>
+      </c>
+      <c r="B98">
+        <v>219.353552794644</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99">
+        <v>221</v>
+      </c>
+      <c r="B99">
+        <v>228.05187702106301</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100">
+        <v>222</v>
+      </c>
+      <c r="B100">
+        <v>88.0209661493178</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101">
+        <v>224</v>
+      </c>
+      <c r="B101">
+        <v>40.568367289178902</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102">
+        <v>225</v>
+      </c>
+      <c r="B102">
+        <v>91.940430193144692</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103">
+        <v>231</v>
+      </c>
+      <c r="B103">
+        <v>64.5365701890683</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104">
+        <v>232</v>
+      </c>
+      <c r="B104">
+        <v>106.06167313702501</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105">
+        <v>233</v>
+      </c>
+      <c r="B105">
+        <v>288.35059161265997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106">
+        <v>234</v>
+      </c>
+      <c r="B106">
+        <v>127.807022380007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107">
+        <v>235</v>
+      </c>
+      <c r="B107">
+        <v>194.508009381964</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108">
+        <v>236</v>
+      </c>
+      <c r="B108">
+        <v>144.077202742564</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109">
+        <v>238</v>
+      </c>
+      <c r="B109">
+        <v>21.010887781978902</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF53C27-29CA-4A91-B8DD-39F16DCC6542}">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D94" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -8914,13 +9809,13 @@
         <v>120</v>
       </c>
       <c r="E110" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F110" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G110" s="16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H110" s="16" t="s">
         <v>122</v>
@@ -8929,28 +9824,28 @@
         <v>122</v>
       </c>
       <c r="J110" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K110" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L110" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="M110" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="N110" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="O110" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P110" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q110" s="16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
@@ -8959,7 +9854,7 @@
         <v>123</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="17"/>

--- a/gis/data/geographical.xlsx
+++ b/gis/data/geographical.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E9DE5B2-29E4-4815-B495-E151611CC161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1411B29-D936-40EC-AF56-9428FDA3E262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{6C3CB45D-6930-4358-8246-5C5767DAECE9}"/>
+    <workbookView xWindow="22932" yWindow="-48" windowWidth="23256" windowHeight="13896" xr2:uid="{6C3CB45D-6930-4358-8246-5C5767DAECE9}"/>
   </bookViews>
   <sheets>
     <sheet name="catchment" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="136">
   <si>
     <t>MEAN_AGE_ABOVE_45_POP</t>
   </si>
@@ -497,6 +497,12 @@
   </si>
   <si>
     <t>Benefit Transfer tool by Zandersen et al. (2022) - download and unhide sheet "ID_108"</t>
+  </si>
+  <si>
+    <t>lakes</t>
+  </si>
+  <si>
+    <t>streams</t>
   </si>
 </sst>
 </file>
@@ -978,18 +984,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DACD2585-A628-477C-A524-CD7422BC68C9}">
   <dimension ref="A1:D110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.90625" customWidth="1"/>
-    <col min="2" max="4" width="13.81640625" customWidth="1"/>
+    <col min="1" max="2" width="8.88671875" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>128</v>
       </c>
@@ -1003,14 +1010,14 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <f>ID_108!C2</f>
         <v>1</v>
       </c>
       <c r="B2">
-        <f>ID_108!J2</f>
-        <v>853.25679458854586</v>
+        <f>SUM('all_VP_shore length'!B2:D2)</f>
+        <v>636.51185778548188</v>
       </c>
       <c r="C2">
         <f>ID_108!L2</f>
@@ -1021,14 +1028,14 @@
         <v>-0.9026983531843642</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <f>ID_108!C3</f>
         <v>2</v>
       </c>
       <c r="B3">
-        <f>ID_108!J3</f>
-        <v>558.83515900047632</v>
+        <f>SUM('all_VP_shore length'!B3:D3)</f>
+        <v>416.38526189793879</v>
       </c>
       <c r="C3">
         <f>ID_108!L3</f>
@@ -1039,14 +1046,14 @@
         <v>-0.51585486974664008</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <f>ID_108!C4</f>
         <v>6</v>
       </c>
       <c r="B4">
-        <f>ID_108!J4</f>
-        <v>690.14807483823404</v>
+        <f>SUM('all_VP_shore length'!B4:D4)</f>
+        <v>578.32471689827503</v>
       </c>
       <c r="C4">
         <f>ID_108!L4</f>
@@ -1057,14 +1064,14 @@
         <v>-2.2883473658819415</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <f>ID_108!C5</f>
         <v>16</v>
       </c>
       <c r="B5">
-        <f>ID_108!J5</f>
-        <v>28.762488289103658</v>
+        <f>SUM('all_VP_shore length'!B5:D5)</f>
+        <v>18.704060855522982</v>
       </c>
       <c r="C5">
         <f>ID_108!L5</f>
@@ -1075,14 +1082,14 @@
         <v>-0.3938657434068783</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <f>ID_108!C6</f>
         <v>17</v>
       </c>
       <c r="B6">
-        <f>ID_108!J6</f>
-        <v>50.502104538331935</v>
+        <f>SUM('all_VP_shore length'!B6:D6)</f>
+        <v>41.272206754884152</v>
       </c>
       <c r="C6">
         <f>ID_108!L6</f>
@@ -1093,14 +1100,14 @@
         <v>-0.17210922674641163</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <f>ID_108!C7</f>
         <v>18</v>
       </c>
       <c r="B7">
-        <f>ID_108!J7</f>
-        <v>33.267334468556896</v>
+        <f>SUM('all_VP_shore length'!B7:D7)</f>
+        <v>17.789887294684199</v>
       </c>
       <c r="C7">
         <f>ID_108!L7</f>
@@ -1111,14 +1118,14 @@
         <v>-0.4634129488996177</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <f>ID_108!C8</f>
         <v>24</v>
       </c>
       <c r="B8">
-        <f>ID_108!J8</f>
-        <v>115.80035293165236</v>
+        <f>SUM('all_VP_shore length'!B8:D8)</f>
+        <v>110.43064154280167</v>
       </c>
       <c r="C8">
         <f>ID_108!L8</f>
@@ -1129,14 +1136,14 @@
         <v>-0.76877655490985286</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <f>ID_108!C9</f>
         <v>25</v>
       </c>
       <c r="B9">
-        <f>ID_108!J9</f>
-        <v>24.963102714450407</v>
+        <f>SUM('all_VP_shore length'!B9:D9)</f>
+        <v>21.32277152389802</v>
       </c>
       <c r="C9">
         <f>ID_108!L9</f>
@@ -1147,14 +1154,14 @@
         <v>-0.5498286387983089</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <f>ID_108!C10</f>
         <v>28</v>
       </c>
       <c r="B10">
-        <f>ID_108!J10</f>
-        <v>410.2035941848622</v>
+        <f>SUM('all_VP_shore length'!B10:D10)</f>
+        <v>326.520409938603</v>
       </c>
       <c r="C10">
         <f>ID_108!L10</f>
@@ -1165,14 +1172,14 @@
         <v>-0.69934032187685946</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <f>ID_108!C11</f>
         <v>29</v>
       </c>
       <c r="B11">
-        <f>ID_108!J11</f>
-        <v>54.449104868372942</v>
+        <f>SUM('all_VP_shore length'!B11:D11)</f>
+        <v>55.719380860366101</v>
       </c>
       <c r="C11">
         <f>ID_108!L11</f>
@@ -1183,14 +1190,14 @@
         <v>-0.65794194512247484</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <f>ID_108!C12</f>
         <v>34</v>
       </c>
       <c r="B12">
-        <f>ID_108!J12</f>
-        <v>633.64835271732295</v>
+        <f>SUM('all_VP_shore length'!B12:D12)</f>
+        <v>355.13258532290649</v>
       </c>
       <c r="C12">
         <f>ID_108!L12</f>
@@ -1201,14 +1208,14 @@
         <v>-0.33162630546528804</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <f>ID_108!C13</f>
         <v>35</v>
       </c>
       <c r="B13">
-        <f>ID_108!J13</f>
-        <v>1367.0700852241073</v>
+        <f>SUM('all_VP_shore length'!B13:D13)</f>
+        <v>1222.8693964351805</v>
       </c>
       <c r="C13">
         <f>ID_108!L13</f>
@@ -1219,14 +1226,14 @@
         <v>-0.43206055202377819</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <f>ID_108!C14</f>
         <v>36</v>
       </c>
       <c r="B14">
-        <f>ID_108!J14</f>
-        <v>50.98076795122472</v>
+        <f>SUM('all_VP_shore length'!B14:D14)</f>
+        <v>34.956137101696598</v>
       </c>
       <c r="C14">
         <f>ID_108!L14</f>
@@ -1237,14 +1244,14 @@
         <v>-0.27870496622239227</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <f>ID_108!C15</f>
         <v>37</v>
       </c>
       <c r="B15">
-        <f>ID_108!J15</f>
-        <v>113.78258801709352</v>
+        <f>SUM('all_VP_shore length'!B15:D15)</f>
+        <v>116.01941660336706</v>
       </c>
       <c r="C15">
         <f>ID_108!L15</f>
@@ -1255,14 +1262,14 @@
         <v>-0.21753619486035208</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <f>ID_108!C16</f>
         <v>38</v>
       </c>
       <c r="B16">
-        <f>ID_108!J16</f>
-        <v>301.29100888402593</v>
+        <f>SUM('all_VP_shore length'!B16:D16)</f>
+        <v>186.69224763007361</v>
       </c>
       <c r="C16">
         <f>ID_108!L16</f>
@@ -1273,14 +1280,14 @@
         <v>-0.34755734322875853</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <f>ID_108!C17</f>
         <v>44</v>
       </c>
       <c r="B17">
-        <f>ID_108!J17</f>
-        <v>137.46299861802396</v>
+        <f>SUM('all_VP_shore length'!B17:D17)</f>
+        <v>126.15438470255253</v>
       </c>
       <c r="C17">
         <f>ID_108!L17</f>
@@ -1291,14 +1298,14 @@
         <v>-0.35533717569749024</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <f>ID_108!C18</f>
         <v>45</v>
       </c>
       <c r="B18">
-        <f>ID_108!J18</f>
-        <v>242.5792814744625</v>
+        <f>SUM('all_VP_shore length'!B18:D18)</f>
+        <v>225.2282474164731</v>
       </c>
       <c r="C18">
         <f>ID_108!L18</f>
@@ -1309,14 +1316,14 @@
         <v>-0.32651677284317338</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <f>ID_108!C19</f>
         <v>46</v>
       </c>
       <c r="B19">
-        <f>ID_108!J19</f>
-        <v>241.86906643065709</v>
+        <f>SUM('all_VP_shore length'!B19:D19)</f>
+        <v>218.78152272044258</v>
       </c>
       <c r="C19">
         <f>ID_108!L19</f>
@@ -1327,14 +1334,14 @@
         <v>-0.33336307888530248</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <f>ID_108!C20</f>
         <v>47</v>
       </c>
       <c r="B20">
-        <f>ID_108!J20</f>
-        <v>194.42169884465051</v>
+        <f>SUM('all_VP_shore length'!B20:D20)</f>
+        <v>171.44517989973011</v>
       </c>
       <c r="C20">
         <f>ID_108!L20</f>
@@ -1345,14 +1352,14 @@
         <v>-0.40721169528599827</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>ID_108!C21</f>
         <v>48</v>
       </c>
       <c r="B21">
-        <f>ID_108!J21</f>
-        <v>283.17619199275708</v>
+        <f>SUM('all_VP_shore length'!B21:D21)</f>
+        <v>273.80849320371965</v>
       </c>
       <c r="C21">
         <f>ID_108!L21</f>
@@ -1363,14 +1370,14 @@
         <v>-0.36963766756270439</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <f>ID_108!C22</f>
         <v>49</v>
       </c>
       <c r="B22">
-        <f>ID_108!J22</f>
-        <v>18.84997253688298</v>
+        <f>SUM('all_VP_shore length'!B22:D22)</f>
+        <v>20.486292333526137</v>
       </c>
       <c r="C22">
         <f>ID_108!L22</f>
@@ -1381,14 +1388,14 @@
         <v>-0.15989768553367753</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <f>ID_108!C23</f>
         <v>56</v>
       </c>
       <c r="B23">
-        <f>ID_108!J23</f>
-        <v>500.43777804319819</v>
+        <f>SUM('all_VP_shore length'!B23:D23)</f>
+        <v>894.11629375697021</v>
       </c>
       <c r="C23">
         <f>ID_108!L23</f>
@@ -1399,13 +1406,13 @@
         <v>-0.52615807012696958</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <f>ID_108!C24</f>
         <v>57</v>
       </c>
       <c r="B24">
-        <f>ID_108!J24</f>
+        <f>SUM('all_VP_shore length'!B24:D24)</f>
         <v>5.7362150556347098</v>
       </c>
       <c r="C24">
@@ -1417,14 +1424,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <f>ID_108!C25</f>
         <v>59</v>
       </c>
       <c r="B25">
-        <f>ID_108!J25</f>
-        <v>88.981980346211273</v>
+        <f>SUM('all_VP_shore length'!B25:D25)</f>
+        <v>58.296311953558281</v>
       </c>
       <c r="C25">
         <f>ID_108!L25</f>
@@ -1435,14 +1442,14 @@
         <v>-0.14224308927852178</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <f>ID_108!C26</f>
         <v>62</v>
       </c>
       <c r="B26">
-        <f>ID_108!J26</f>
-        <v>26.9988358997836</v>
+        <f>SUM('all_VP_shore length'!B26:D26)</f>
+        <v>17.518985135487799</v>
       </c>
       <c r="C26">
         <f>ID_108!L26</f>
@@ -1453,14 +1460,14 @@
         <v>-0.22158272910396501</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <f>ID_108!C27</f>
         <v>68</v>
       </c>
       <c r="B27">
-        <f>ID_108!J27</f>
-        <v>53.249813109150026</v>
+        <f>SUM('all_VP_shore length'!B27:D27)</f>
+        <v>20.173042414759863</v>
       </c>
       <c r="C27">
         <f>ID_108!L27</f>
@@ -1471,14 +1478,14 @@
         <v>-0.27118573172237376</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <f>ID_108!C28</f>
         <v>72</v>
       </c>
       <c r="B28">
-        <f>ID_108!J28</f>
-        <v>39.164245986416589</v>
+        <f>SUM('all_VP_shore length'!B28:D28)</f>
+        <v>36.478659061909319</v>
       </c>
       <c r="C28">
         <f>ID_108!L28</f>
@@ -1489,14 +1496,14 @@
         <v>-0.37380100374880065</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <f>ID_108!C29</f>
         <v>74</v>
       </c>
       <c r="B29">
-        <f>ID_108!J29</f>
-        <v>129.05359127877017</v>
+        <f>SUM('all_VP_shore length'!B29:D29)</f>
+        <v>195.19520583643316</v>
       </c>
       <c r="C29">
         <f>ID_108!L29</f>
@@ -1507,14 +1514,14 @@
         <v>-0.57761101746602084</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <f>ID_108!C30</f>
         <v>80</v>
       </c>
       <c r="B30">
-        <f>ID_108!J30</f>
-        <v>61.849889553564729</v>
+        <f>SUM('all_VP_shore length'!B30:D30)</f>
+        <v>59.732124284938195</v>
       </c>
       <c r="C30">
         <f>ID_108!L30</f>
@@ -1525,14 +1532,14 @@
         <v>-0.18543810233724753</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>ID_108!C31</f>
         <v>82</v>
       </c>
       <c r="B31">
-        <f>ID_108!J31</f>
-        <v>99.64232342982433</v>
+        <f>SUM('all_VP_shore length'!B31:D31)</f>
+        <v>124.26401219854804</v>
       </c>
       <c r="C31">
         <f>ID_108!L31</f>
@@ -1543,14 +1550,14 @@
         <v>-0.16797461734547633</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <f>ID_108!C32</f>
         <v>83</v>
       </c>
       <c r="B32">
-        <f>ID_108!J32</f>
-        <v>313.05567350576621</v>
+        <f>SUM('all_VP_shore length'!B32:D32)</f>
+        <v>320.92094955731329</v>
       </c>
       <c r="C32">
         <f>ID_108!L32</f>
@@ -1561,14 +1568,14 @@
         <v>-0.3831424977047439</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <f>ID_108!C33</f>
         <v>84</v>
       </c>
       <c r="B33">
-        <f>ID_108!J33</f>
-        <v>22.113603531094043</v>
+        <f>SUM('all_VP_shore length'!B33:D33)</f>
+        <v>16.399972223192702</v>
       </c>
       <c r="C33">
         <f>ID_108!L33</f>
@@ -1579,14 +1586,14 @@
         <v>-0.21260068658663531</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <f>ID_108!C34</f>
         <v>85</v>
       </c>
       <c r="B34">
-        <f>ID_108!J34</f>
-        <v>20.805879620640823</v>
+        <f>SUM('all_VP_shore length'!B34:D34)</f>
+        <v>23.0100338469883</v>
       </c>
       <c r="C34">
         <f>ID_108!L34</f>
@@ -1597,14 +1604,14 @@
         <v>-0.19419191333027611</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <f>ID_108!C35</f>
         <v>86</v>
       </c>
       <c r="B35">
-        <f>ID_108!J35</f>
-        <v>35.180109928821736</v>
+        <f>SUM('all_VP_shore length'!B35:D35)</f>
+        <v>41.99671218498159</v>
       </c>
       <c r="C35">
         <f>ID_108!L35</f>
@@ -1615,14 +1622,14 @@
         <v>-1.3704074435594995</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <f>ID_108!C36</f>
         <v>87</v>
       </c>
       <c r="B36">
-        <f>ID_108!J36</f>
-        <v>208.74360093207588</v>
+        <f>SUM('all_VP_shore length'!B36:D36)</f>
+        <v>269.38297539802772</v>
       </c>
       <c r="C36">
         <f>ID_108!L36</f>
@@ -1633,14 +1640,14 @@
         <v>-0.34594718152457338</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <f>ID_108!C37</f>
         <v>89</v>
       </c>
       <c r="B37">
-        <f>ID_108!J37</f>
-        <v>17.540249302330221</v>
+        <f>SUM('all_VP_shore length'!B37:D37)</f>
+        <v>30.538420168720279</v>
       </c>
       <c r="C37">
         <f>ID_108!L37</f>
@@ -1651,14 +1658,14 @@
         <v>-0.66132290823537176</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <f>ID_108!C38</f>
         <v>90</v>
       </c>
       <c r="B38">
-        <f>ID_108!J38</f>
-        <v>302.50452938987985</v>
+        <f>SUM('all_VP_shore length'!B38:D38)</f>
+        <v>401.20389092817055</v>
       </c>
       <c r="C38">
         <f>ID_108!L38</f>
@@ -1669,14 +1676,14 @@
         <v>-0.38678735315178514</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <f>ID_108!C39</f>
         <v>92</v>
       </c>
       <c r="B39">
-        <f>ID_108!J39</f>
-        <v>142.58630102508815</v>
+        <f>SUM('all_VP_shore length'!B39:D39)</f>
+        <v>100.22835594448023</v>
       </c>
       <c r="C39">
         <f>ID_108!L39</f>
@@ -1687,14 +1694,14 @@
         <v>-0.21381824373782748</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <f>ID_108!C40</f>
         <v>93</v>
       </c>
       <c r="B40">
-        <f>ID_108!J40</f>
-        <v>1376.3052341992316</v>
+        <f>SUM('all_VP_shore length'!B40:D40)</f>
+        <v>1232.8315597827852</v>
       </c>
       <c r="C40">
         <f>ID_108!L40</f>
@@ -1705,14 +1712,14 @@
         <v>-0.45781753560050525</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <f>ID_108!C41</f>
         <v>95</v>
       </c>
       <c r="B41">
-        <f>ID_108!J41</f>
-        <v>152.9058380229358</v>
+        <f>SUM('all_VP_shore length'!B41:D41)</f>
+        <v>88.944321452854197</v>
       </c>
       <c r="C41">
         <f>ID_108!L41</f>
@@ -1723,14 +1730,14 @@
         <v>-0.46970618019983168</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <f>ID_108!C42</f>
         <v>96</v>
       </c>
       <c r="B42">
-        <f>ID_108!J42</f>
-        <v>126.58334422158502</v>
+        <f>SUM('all_VP_shore length'!B42:D42)</f>
+        <v>114.48282210658479</v>
       </c>
       <c r="C42">
         <f>ID_108!L42</f>
@@ -1741,14 +1748,14 @@
         <v>-0.28936031530724099</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <f>ID_108!C43</f>
         <v>101</v>
       </c>
       <c r="B43">
-        <f>ID_108!J43</f>
-        <v>51.063464450032427</v>
+        <f>SUM('all_VP_shore length'!B43:D43)</f>
+        <v>52.524517174948627</v>
       </c>
       <c r="C43">
         <f>ID_108!L43</f>
@@ -1759,14 +1766,14 @@
         <v>-0.57911523552225452</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <f>ID_108!C44</f>
         <v>102</v>
       </c>
       <c r="B44">
-        <f>ID_108!J44</f>
-        <v>125.10457316002794</v>
+        <f>SUM('all_VP_shore length'!B44:D44)</f>
+        <v>130.84910534915235</v>
       </c>
       <c r="C44">
         <f>ID_108!L44</f>
@@ -1777,14 +1784,14 @@
         <v>-0.7850219337275165</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <f>ID_108!C45</f>
         <v>103</v>
       </c>
       <c r="B45">
-        <f>ID_108!J45</f>
-        <v>138.29703323115609</v>
+        <f>SUM('all_VP_shore length'!B45:D45)</f>
+        <v>147.32171751391439</v>
       </c>
       <c r="C45">
         <f>ID_108!L45</f>
@@ -1795,14 +1802,14 @@
         <v>-0.18993069660248696</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <f>ID_108!C46</f>
         <v>104</v>
       </c>
       <c r="B46">
-        <f>ID_108!J46</f>
-        <v>44.688982036562606</v>
+        <f>SUM('all_VP_shore length'!B46:D46)</f>
+        <v>41.104538997464559</v>
       </c>
       <c r="C46">
         <f>ID_108!L46</f>
@@ -1813,14 +1820,14 @@
         <v>-0.3298002078098779</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <f>ID_108!C47</f>
         <v>105</v>
       </c>
       <c r="B47">
-        <f>ID_108!J47</f>
-        <v>99.915219007469204</v>
+        <f>SUM('all_VP_shore length'!B47:D47)</f>
+        <v>108.39688441996208</v>
       </c>
       <c r="C47">
         <f>ID_108!L47</f>
@@ -1831,14 +1838,14 @@
         <v>-0.35502347446147614</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <f>ID_108!C48</f>
         <v>106</v>
       </c>
       <c r="B48">
-        <f>ID_108!J48</f>
-        <v>212.69009377597052</v>
+        <f>SUM('all_VP_shore length'!B48:D48)</f>
+        <v>225.7864402687409</v>
       </c>
       <c r="C48">
         <f>ID_108!L48</f>
@@ -1849,14 +1856,14 @@
         <v>-0.42467660795749906</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <f>ID_108!C49</f>
         <v>107</v>
       </c>
       <c r="B49">
-        <f>ID_108!J49</f>
-        <v>345.02470244461153</v>
+        <f>SUM('all_VP_shore length'!B49:D49)</f>
+        <v>293.74004319465752</v>
       </c>
       <c r="C49">
         <f>ID_108!L49</f>
@@ -1867,14 +1874,14 @@
         <v>-0.39131480564960403</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <f>ID_108!C50</f>
         <v>108</v>
       </c>
       <c r="B50">
-        <f>ID_108!J50</f>
-        <v>46.001637112544373</v>
+        <f>SUM('all_VP_shore length'!B50:D50)</f>
+        <v>48.33702644177297</v>
       </c>
       <c r="C50">
         <f>ID_108!L50</f>
@@ -1885,14 +1892,14 @@
         <v>-0.23147280720157978</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <f>ID_108!C51</f>
         <v>109</v>
       </c>
       <c r="B51">
-        <f>ID_108!J51</f>
-        <v>130.72998242693154</v>
+        <f>SUM('all_VP_shore length'!B51:D51)</f>
+        <v>132.86487738822473</v>
       </c>
       <c r="C51">
         <f>ID_108!L51</f>
@@ -1903,14 +1910,14 @@
         <v>-0.2038077316072136</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <f>ID_108!C52</f>
         <v>110</v>
       </c>
       <c r="B52">
-        <f>ID_108!J52</f>
-        <v>82.579219004887577</v>
+        <f>SUM('all_VP_shore length'!B52:D52)</f>
+        <v>94.481392764975411</v>
       </c>
       <c r="C52">
         <f>ID_108!L52</f>
@@ -1921,14 +1928,14 @@
         <v>-0.45314559518541536</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <f>ID_108!C53</f>
         <v>111</v>
       </c>
       <c r="B53">
-        <f>ID_108!J53</f>
-        <v>2375.6067711648875</v>
+        <f>SUM('all_VP_shore length'!B53:D53)</f>
+        <v>1595.3556807914761</v>
       </c>
       <c r="C53">
         <f>ID_108!L53</f>
@@ -1939,14 +1946,14 @@
         <v>-0.30886143117555254</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <f>ID_108!C54</f>
         <v>113</v>
       </c>
       <c r="B54">
-        <f>ID_108!J54</f>
-        <v>48.6293594392695</v>
+        <f>SUM('all_VP_shore length'!B54:D54)</f>
+        <v>47.331033637877795</v>
       </c>
       <c r="C54">
         <f>ID_108!L54</f>
@@ -1957,14 +1964,14 @@
         <v>-0.69700948446022792</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <f>ID_108!C55</f>
         <v>114</v>
       </c>
       <c r="B55">
-        <f>ID_108!J55</f>
-        <v>129.56329668048704</v>
+        <f>SUM('all_VP_shore length'!B55:D55)</f>
+        <v>121.23493742399985</v>
       </c>
       <c r="C55">
         <f>ID_108!L55</f>
@@ -1975,14 +1982,14 @@
         <v>-0.34076106365774606</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <f>ID_108!C56</f>
         <v>119</v>
       </c>
       <c r="B56">
-        <f>ID_108!J56</f>
-        <v>345.8928637779992</v>
+        <f>SUM('all_VP_shore length'!B56:D56)</f>
+        <v>342.06958556940481</v>
       </c>
       <c r="C56">
         <f>ID_108!L56</f>
@@ -1993,14 +2000,14 @@
         <v>-1.2184236525581895</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <f>ID_108!C57</f>
         <v>120</v>
       </c>
       <c r="B57">
-        <f>ID_108!J57</f>
-        <v>1748.4545217654231</v>
+        <f>SUM('all_VP_shore length'!B57:D57)</f>
+        <v>1572.1653253730215</v>
       </c>
       <c r="C57">
         <f>ID_108!L57</f>
@@ -2011,14 +2018,14 @@
         <v>-0.23162379074341521</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <f>ID_108!C58</f>
         <v>121</v>
       </c>
       <c r="B58">
-        <f>ID_108!J58</f>
-        <v>2114.8181339155117</v>
+        <f>SUM('all_VP_shore length'!B58:D58)</f>
+        <v>1937.8365410542349</v>
       </c>
       <c r="C58">
         <f>ID_108!L58</f>
@@ -2029,14 +2036,14 @@
         <v>-0.44164025962954095</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <f>ID_108!C59</f>
         <v>122</v>
       </c>
       <c r="B59">
-        <f>ID_108!J59</f>
-        <v>449.3202313200984</v>
+        <f>SUM('all_VP_shore length'!B59:D59)</f>
+        <v>514.9790229884245</v>
       </c>
       <c r="C59">
         <f>ID_108!L59</f>
@@ -2047,14 +2054,14 @@
         <v>-0.41642816243851788</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <f>ID_108!C60</f>
         <v>123</v>
       </c>
       <c r="B60">
-        <f>ID_108!J60</f>
-        <v>514.86606258580002</v>
+        <f>SUM('all_VP_shore length'!B60:D60)</f>
+        <v>636.48286634852798</v>
       </c>
       <c r="C60">
         <f>ID_108!L60</f>
@@ -2065,14 +2072,14 @@
         <v>-0.70938742044928615</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <f>ID_108!C61</f>
         <v>124</v>
       </c>
       <c r="B61">
-        <f>ID_108!J61</f>
-        <v>455.12247656804317</v>
+        <f>SUM('all_VP_shore length'!B61:D61)</f>
+        <v>452.10448699112374</v>
       </c>
       <c r="C61">
         <f>ID_108!L61</f>
@@ -2083,14 +2090,14 @@
         <v>-0.49392468743501822</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <f>ID_108!C62</f>
         <v>125</v>
       </c>
       <c r="B62">
-        <f>ID_108!J62</f>
-        <v>62.662593904903375</v>
+        <f>SUM('all_VP_shore length'!B62:D62)</f>
+        <v>69.460927030459871</v>
       </c>
       <c r="C62">
         <f>ID_108!L62</f>
@@ -2101,14 +2108,14 @@
         <v>-0.47972253305427148</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <f>ID_108!C63</f>
         <v>127</v>
       </c>
       <c r="B63">
-        <f>ID_108!J63</f>
-        <v>43.347947664453741</v>
+        <f>SUM('all_VP_shore length'!B63:D63)</f>
+        <v>43.516170574566061</v>
       </c>
       <c r="C63">
         <f>ID_108!L63</f>
@@ -2119,14 +2126,14 @@
         <v>-0.37129129105774533</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <f>ID_108!C64</f>
         <v>128</v>
       </c>
       <c r="B64">
-        <f>ID_108!J64</f>
-        <v>608.22146443511383</v>
+        <f>SUM('all_VP_shore length'!B64:D64)</f>
+        <v>675.66221480313766</v>
       </c>
       <c r="C64">
         <f>ID_108!L64</f>
@@ -2137,14 +2144,14 @@
         <v>-0.39883680528909932</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <f>ID_108!C65</f>
         <v>129</v>
       </c>
       <c r="B65">
-        <f>ID_108!J65</f>
-        <v>388.12745079211686</v>
+        <f>SUM('all_VP_shore length'!B65:D65)</f>
+        <v>328.79356061737832</v>
       </c>
       <c r="C65">
         <f>ID_108!L65</f>
@@ -2155,14 +2162,14 @@
         <v>-0.47726409326116748</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <f>ID_108!C66</f>
         <v>130</v>
       </c>
       <c r="B66">
-        <f>ID_108!J66</f>
-        <v>138.67821028683949</v>
+        <f>SUM('all_VP_shore length'!B66:D66)</f>
+        <v>113.43935295165799</v>
       </c>
       <c r="C66">
         <f>ID_108!L66</f>
@@ -2173,14 +2180,14 @@
         <v>-0.36193919256754759</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <f>ID_108!C67</f>
         <v>131</v>
       </c>
       <c r="B67">
-        <f>ID_108!J67</f>
-        <v>1419.0534139748738</v>
+        <f>SUM('all_VP_shore length'!B67:D67)</f>
+        <v>1186.3249161879696</v>
       </c>
       <c r="C67">
         <f>ID_108!L67</f>
@@ -2191,14 +2198,14 @@
         <v>-0.47057240742949308</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <f>ID_108!C68</f>
         <v>132</v>
       </c>
       <c r="B68">
-        <f>ID_108!J68</f>
-        <v>3835.8766328291199</v>
+        <f>SUM('all_VP_shore length'!B68:D68)</f>
+        <v>3416.9028824504799</v>
       </c>
       <c r="C68">
         <f>ID_108!L68</f>
@@ -2209,14 +2216,14 @@
         <v>-0.49996509330097438</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <f>ID_108!C69</f>
         <v>133</v>
       </c>
       <c r="B69">
-        <f>ID_108!J69</f>
-        <v>126.88173346683564</v>
+        <f>SUM('all_VP_shore length'!B69:D69)</f>
+        <v>125.70335521239269</v>
       </c>
       <c r="C69">
         <f>ID_108!L69</f>
@@ -2227,14 +2234,14 @@
         <v>-0.81921720007650878</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <f>ID_108!C70</f>
         <v>136</v>
       </c>
       <c r="B70">
-        <f>ID_108!J70</f>
-        <v>3786.8510071199821</v>
+        <f>SUM('all_VP_shore length'!B70:D70)</f>
+        <v>4112.7465827793294</v>
       </c>
       <c r="C70">
         <f>ID_108!L70</f>
@@ -2245,14 +2252,14 @@
         <v>-0.57868058796229849</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <f>ID_108!C71</f>
         <v>137</v>
       </c>
       <c r="B71">
-        <f>ID_108!J71</f>
-        <v>138.96490276217747</v>
+        <f>SUM('all_VP_shore length'!B71:D71)</f>
+        <v>147.30647269239719</v>
       </c>
       <c r="C71">
         <f>ID_108!L71</f>
@@ -2263,14 +2270,14 @@
         <v>-0.24953663007035887</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <f>ID_108!C72</f>
         <v>138</v>
       </c>
       <c r="B72">
-        <f>ID_108!J72</f>
-        <v>252.30053188458979</v>
+        <f>SUM('all_VP_shore length'!B72:D72)</f>
+        <v>205.75001481404766</v>
       </c>
       <c r="C72">
         <f>ID_108!L72</f>
@@ -2281,13 +2288,13 @@
         <v>-0.73997696054951678</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <f>ID_108!C73</f>
         <v>139</v>
       </c>
       <c r="B73">
-        <f>ID_108!J73</f>
+        <f>SUM('all_VP_shore length'!B73:D73)</f>
         <v>25.0021884820497</v>
       </c>
       <c r="C73">
@@ -2299,14 +2306,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <f>ID_108!C74</f>
         <v>140</v>
       </c>
       <c r="B74">
-        <f>ID_108!J74</f>
-        <v>856.7536338121763</v>
+        <f>SUM('all_VP_shore length'!B74:D74)</f>
+        <v>745.68046302749303</v>
       </c>
       <c r="C74">
         <f>ID_108!L74</f>
@@ -2317,14 +2324,14 @@
         <v>-0.60066155214535666</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <f>ID_108!C75</f>
         <v>141</v>
       </c>
       <c r="B75">
-        <f>ID_108!J75</f>
-        <v>57.722653363248746</v>
+        <f>SUM('all_VP_shore length'!B75:D75)</f>
+        <v>62.880801409773355</v>
       </c>
       <c r="C75">
         <f>ID_108!L75</f>
@@ -2335,14 +2342,14 @@
         <v>-1.6457002544010422</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <f>ID_108!C76</f>
         <v>142</v>
       </c>
       <c r="B76">
-        <f>ID_108!J76</f>
-        <v>24.077054389715737</v>
+        <f>SUM('all_VP_shore length'!B76:D76)</f>
+        <v>22.559917431177801</v>
       </c>
       <c r="C76">
         <f>ID_108!L76</f>
@@ -2353,14 +2360,14 @@
         <v>-0.53030058986927175</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <f>ID_108!C77</f>
         <v>144</v>
       </c>
       <c r="B77">
-        <f>ID_108!J77</f>
-        <v>25.015080079425971</v>
+        <f>SUM('all_VP_shore length'!B77:D77)</f>
+        <v>29.647457902550997</v>
       </c>
       <c r="C77">
         <f>ID_108!L77</f>
@@ -2371,14 +2378,14 @@
         <v>-0.44727459267826825</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <f>ID_108!C78</f>
         <v>145</v>
       </c>
       <c r="B78">
-        <f>ID_108!J78</f>
-        <v>278.1656160524484</v>
+        <f>SUM('all_VP_shore length'!B78:D78)</f>
+        <v>312.38100264840807</v>
       </c>
       <c r="C78">
         <f>ID_108!L78</f>
@@ -2389,14 +2396,14 @@
         <v>-0.5458509059253458</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <f>ID_108!C79</f>
         <v>146</v>
       </c>
       <c r="B79">
-        <f>ID_108!J79</f>
-        <v>140.67528251152055</v>
+        <f>SUM('all_VP_shore length'!B79:D79)</f>
+        <v>200.8012884961625</v>
       </c>
       <c r="C79">
         <f>ID_108!L79</f>
@@ -2407,14 +2414,14 @@
         <v>-0.33752718282793215</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <f>ID_108!C80</f>
         <v>147</v>
       </c>
       <c r="B80">
-        <f>ID_108!J80</f>
-        <v>532.05736769846226</v>
+        <f>SUM('all_VP_shore length'!B80:D80)</f>
+        <v>686.70647201660597</v>
       </c>
       <c r="C80">
         <f>ID_108!L80</f>
@@ -2425,14 +2432,14 @@
         <v>-0.61082690051456301</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <f>ID_108!C81</f>
         <v>154</v>
       </c>
       <c r="B81">
-        <f>ID_108!J81</f>
-        <v>216.07648153683263</v>
+        <f>SUM('all_VP_shore length'!B81:D81)</f>
+        <v>162.07382725403903</v>
       </c>
       <c r="C81">
         <f>ID_108!L81</f>
@@ -2443,14 +2450,14 @@
         <v>-1.5573901287579945</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <f>ID_108!C82</f>
         <v>157</v>
       </c>
       <c r="B82">
-        <f>ID_108!J82</f>
-        <v>1643.4283878433241</v>
+        <f>SUM('all_VP_shore length'!B82:D82)</f>
+        <v>1460.0158619737629</v>
       </c>
       <c r="C82">
         <f>ID_108!L82</f>
@@ -2461,14 +2468,14 @@
         <v>-0.48816977778106219</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <f>ID_108!C83</f>
         <v>158</v>
       </c>
       <c r="B83">
-        <f>ID_108!J83</f>
-        <v>1128.8232285040585</v>
+        <f>SUM('all_VP_shore length'!B83:D83)</f>
+        <v>1043.7843129084715</v>
       </c>
       <c r="C83">
         <f>ID_108!L83</f>
@@ -2479,14 +2486,14 @@
         <v>-0.39442879518630602</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <f>ID_108!C84</f>
         <v>159</v>
       </c>
       <c r="B84">
-        <f>ID_108!J84</f>
-        <v>260.07367472543677</v>
+        <f>SUM('all_VP_shore length'!B84:D84)</f>
+        <v>294.26989524288922</v>
       </c>
       <c r="C84">
         <f>ID_108!L84</f>
@@ -2497,14 +2504,14 @@
         <v>-0.48779910483210226</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <f>ID_108!C85</f>
         <v>160</v>
       </c>
       <c r="B85">
-        <f>ID_108!J85</f>
-        <v>284.60788404558917</v>
+        <f>SUM('all_VP_shore length'!B85:D85)</f>
+        <v>270.57179279592873</v>
       </c>
       <c r="C85">
         <f>ID_108!L85</f>
@@ -2515,14 +2522,14 @@
         <v>-0.52047428622417946</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <f>ID_108!C86</f>
         <v>165</v>
       </c>
       <c r="B86">
-        <f>ID_108!J86</f>
-        <v>570.46408054223912</v>
+        <f>SUM('all_VP_shore length'!B86:D86)</f>
+        <v>472.78061081153612</v>
       </c>
       <c r="C86">
         <f>ID_108!L86</f>
@@ -2533,14 +2540,14 @@
         <v>-0.32641633327787273</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <f>ID_108!C87</f>
         <v>200</v>
       </c>
       <c r="B87">
-        <f>ID_108!J87</f>
-        <v>430.81013726457473</v>
+        <f>SUM('all_VP_shore length'!B87:D87)</f>
+        <v>389.57178127892712</v>
       </c>
       <c r="C87">
         <f>ID_108!L87</f>
@@ -2551,14 +2558,14 @@
         <v>-0.98130519183863485</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <f>ID_108!C88</f>
         <v>201</v>
       </c>
       <c r="B88">
-        <f>ID_108!J88</f>
-        <v>950.18045828114646</v>
+        <f>SUM('all_VP_shore length'!B88:D88)</f>
+        <v>722.86841583883881</v>
       </c>
       <c r="C88">
         <f>ID_108!L88</f>
@@ -2569,14 +2576,14 @@
         <v>-0.55326128157952736</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <f>ID_108!C89</f>
         <v>204</v>
       </c>
       <c r="B89">
-        <f>ID_108!J89</f>
-        <v>1104.6662780866989</v>
+        <f>SUM('all_VP_shore length'!B89:D89)</f>
+        <v>931.92840493760275</v>
       </c>
       <c r="C89">
         <f>ID_108!L89</f>
@@ -2587,14 +2594,14 @@
         <v>-0.3892511301792187</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <f>ID_108!C90</f>
         <v>206</v>
       </c>
       <c r="B90">
-        <f>ID_108!J90</f>
-        <v>214.86761989980869</v>
+        <f>SUM('all_VP_shore length'!B90:D90)</f>
+        <v>192.81624598157381</v>
       </c>
       <c r="C90">
         <f>ID_108!L90</f>
@@ -2605,14 +2612,14 @@
         <v>-0.41847828230826473</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <f>ID_108!C91</f>
         <v>207</v>
       </c>
       <c r="B91">
-        <f>ID_108!J91</f>
-        <v>326.30194708132342</v>
+        <f>SUM('all_VP_shore length'!B91:D91)</f>
+        <v>184.54181190989749</v>
       </c>
       <c r="C91">
         <f>ID_108!L91</f>
@@ -2623,14 +2630,14 @@
         <v>-0.2098802561919493</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <f>ID_108!C92</f>
         <v>208</v>
       </c>
       <c r="B92">
-        <f>ID_108!J92</f>
-        <v>311.37673223667673</v>
+        <f>SUM('all_VP_shore length'!B92:D92)</f>
+        <v>203.23982315998703</v>
       </c>
       <c r="C92">
         <f>ID_108!L92</f>
@@ -2641,14 +2648,14 @@
         <v>-0.1379413552874133</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <f>ID_108!C93</f>
         <v>209</v>
       </c>
       <c r="B93">
-        <f>ID_108!J93</f>
-        <v>349.18370185912391</v>
+        <f>SUM('all_VP_shore length'!B93:D93)</f>
+        <v>250.1284794913737</v>
       </c>
       <c r="C93">
         <f>ID_108!L93</f>
@@ -2659,14 +2666,14 @@
         <v>-0.29555705297429352</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <f>ID_108!C94</f>
         <v>212</v>
       </c>
       <c r="B94">
-        <f>ID_108!J94</f>
-        <v>34.374588703181509</v>
+        <f>SUM('all_VP_shore length'!B94:D94)</f>
+        <v>39.388204478128046</v>
       </c>
       <c r="C94">
         <f>ID_108!L94</f>
@@ -2677,14 +2684,14 @@
         <v>-0.7672619337820028</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <f>ID_108!C95</f>
         <v>214</v>
       </c>
       <c r="B95">
-        <f>ID_108!J95</f>
-        <v>461.68566793389152</v>
+        <f>SUM('all_VP_shore length'!B95:D95)</f>
+        <v>494.72662018693887</v>
       </c>
       <c r="C95">
         <f>ID_108!L95</f>
@@ -2695,14 +2702,14 @@
         <v>-0.43437437872031187</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <f>ID_108!C96</f>
         <v>216</v>
       </c>
       <c r="B96">
-        <f>ID_108!J96</f>
-        <v>454.85649868476958</v>
+        <f>SUM('all_VP_shore length'!B96:D96)</f>
+        <v>454.71555014210026</v>
       </c>
       <c r="C96">
         <f>ID_108!L96</f>
@@ -2713,14 +2720,14 @@
         <v>-0.30811582353672207</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <f>ID_108!C97</f>
         <v>217</v>
       </c>
       <c r="B97">
-        <f>ID_108!J97</f>
-        <v>328.1787561955428</v>
+        <f>SUM('all_VP_shore length'!B97:D97)</f>
+        <v>334.18849448402347</v>
       </c>
       <c r="C97">
         <f>ID_108!L97</f>
@@ -2731,14 +2738,14 @@
         <v>-0.36200724541324864</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <f>ID_108!C98</f>
         <v>219</v>
       </c>
       <c r="B98">
-        <f>ID_108!J98</f>
-        <v>429.186484477036</v>
+        <f>SUM('all_VP_shore length'!B98:D98)</f>
+        <v>419.48152340611909</v>
       </c>
       <c r="C98">
         <f>ID_108!L98</f>
@@ -2749,14 +2756,14 @@
         <v>-0.32697254768856843</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <f>ID_108!C99</f>
         <v>221</v>
       </c>
       <c r="B99">
-        <f>ID_108!J99</f>
-        <v>1881.232778938333</v>
+        <f>SUM('all_VP_shore length'!B99:D99)</f>
+        <v>1610.0601127264295</v>
       </c>
       <c r="C99">
         <f>ID_108!L99</f>
@@ -2767,14 +2774,14 @@
         <v>-0.77018392832969396</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <f>ID_108!C100</f>
         <v>222</v>
       </c>
       <c r="B100">
-        <f>ID_108!J100</f>
-        <v>1049.7468565272306</v>
+        <f>SUM('all_VP_shore length'!B100:D100)</f>
+        <v>819.68036282048661</v>
       </c>
       <c r="C100">
         <f>ID_108!L100</f>
@@ -2785,14 +2792,14 @@
         <v>-0.50687944329222667</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <f>ID_108!C101</f>
         <v>224</v>
       </c>
       <c r="B101">
-        <f>ID_108!J101</f>
-        <v>435.08013358260723</v>
+        <f>SUM('all_VP_shore length'!B101:D101)</f>
+        <v>419.43952743379458</v>
       </c>
       <c r="C101">
         <f>ID_108!L101</f>
@@ -2803,14 +2810,14 @@
         <v>-0.26383835019326518</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <f>ID_108!C102</f>
         <v>225</v>
       </c>
       <c r="B102">
-        <f>ID_108!J102</f>
-        <v>947.69665478121578</v>
+        <f>SUM('all_VP_shore length'!B102:D102)</f>
+        <v>811.99942791370586</v>
       </c>
       <c r="C102">
         <f>ID_108!L102</f>
@@ -2821,14 +2828,14 @@
         <v>-0.92435444296338654</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <f>ID_108!C103</f>
         <v>231</v>
       </c>
       <c r="B103">
-        <f>ID_108!J103</f>
-        <v>103.9458446321546</v>
+        <f>SUM('all_VP_shore length'!B103:D103)</f>
+        <v>104.7451712642995</v>
       </c>
       <c r="C103">
         <f>ID_108!L103</f>
@@ -2839,14 +2846,14 @@
         <v>-1.2390167406448969</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <f>ID_108!C104</f>
         <v>232</v>
       </c>
       <c r="B104">
-        <f>ID_108!J104</f>
-        <v>851.82360535333805</v>
+        <f>SUM('all_VP_shore length'!B104:D104)</f>
+        <v>622.28463806028901</v>
       </c>
       <c r="C104">
         <f>ID_108!L104</f>
@@ -2857,14 +2864,14 @@
         <v>-0.42392333832794804</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <f>ID_108!C105</f>
         <v>233</v>
       </c>
       <c r="B105">
-        <f>ID_108!J105</f>
-        <v>1009.0662625644637</v>
+        <f>SUM('all_VP_shore length'!B105:D105)</f>
+        <v>927.67161872879626</v>
       </c>
       <c r="C105">
         <f>ID_108!L105</f>
@@ -2875,14 +2882,14 @@
         <v>-0.31940470017562256</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <f>ID_108!C106</f>
         <v>234</v>
       </c>
       <c r="B106">
-        <f>ID_108!J106</f>
-        <v>839.37017317366303</v>
+        <f>SUM('all_VP_shore length'!B106:D106)</f>
+        <v>630.39748505083207</v>
       </c>
       <c r="C106">
         <f>ID_108!L106</f>
@@ -2893,14 +2900,14 @@
         <v>-0.36481547045545226</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <f>ID_108!C107</f>
         <v>235</v>
       </c>
       <c r="B107">
-        <f>ID_108!J107</f>
-        <v>2877.2617236212227</v>
+        <f>SUM('all_VP_shore length'!B107:D107)</f>
+        <v>1918.1910706886397</v>
       </c>
       <c r="C107">
         <f>ID_108!L107</f>
@@ -2911,14 +2918,14 @@
         <v>-0.41621654665699742</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <f>ID_108!C108</f>
         <v>236</v>
       </c>
       <c r="B108">
-        <f>ID_108!J108</f>
-        <v>754.60081003200901</v>
+        <f>SUM('all_VP_shore length'!B108:D108)</f>
+        <v>625.94513916488097</v>
       </c>
       <c r="C108">
         <f>ID_108!L108</f>
@@ -2929,14 +2936,14 @@
         <v>-0.43727382952202681</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <f>ID_108!C109</f>
         <v>238</v>
       </c>
       <c r="B109">
-        <f>ID_108!J109</f>
-        <v>329.21604411558087</v>
+        <f>SUM('all_VP_shore length'!B109:D109)</f>
+        <v>368.10305876214818</v>
       </c>
       <c r="C109">
         <f>ID_108!L109</f>
@@ -2947,7 +2954,7 @@
         <v>-0.33126078425478106</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D110" s="26"/>
     </row>
   </sheetData>
@@ -2957,64 +2964,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5345CE1D-39D7-4E3E-83C7-2617AB338F52}">
-  <dimension ref="A1:B109"/>
+  <dimension ref="A1:D109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>128</v>
       </c>
       <c r="B1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>90.462352268068912</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>90.462352268068898</v>
+      </c>
+      <c r="C2">
+        <v>108.83751014754399</v>
+      </c>
+      <c r="D2">
+        <v>437.21199536986899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>80.575037663134992</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>80.575037663134907</v>
+      </c>
+      <c r="C3">
+        <v>36.554130850621902</v>
+      </c>
+      <c r="D3">
+        <v>299.25609338418201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>6</v>
       </c>
       <c r="B4">
         <v>163.44546256116001</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>144.51149152425899</v>
+      </c>
+      <c r="D4">
+        <v>270.36776281285597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>16</v>
       </c>
       <c r="B5">
-        <v>13.703742301782201</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>13.703742301782199</v>
+      </c>
+      <c r="C5">
+        <v>2.8108604930977901</v>
+      </c>
+      <c r="D5">
+        <v>2.1894580606429899</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>17</v>
       </c>
       <c r="B6">
         <v>26.360111331108801</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6">
+        <v>1.9942004425397499</v>
+      </c>
+      <c r="D6">
+        <v>12.9178949812356</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>18</v>
       </c>
@@ -3022,135 +3068,222 @@
         <v>17.789887294684199</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>24</v>
       </c>
       <c r="B8">
-        <v>78.780988884369208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>78.780988884369194</v>
+      </c>
+      <c r="C8">
+        <v>8.9095095728028806</v>
+      </c>
+      <c r="D8">
+        <v>22.740143085629601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>25</v>
       </c>
       <c r="B9">
         <v>12.1593442820985</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9">
+        <v>3.60502621641192</v>
+      </c>
+      <c r="D9">
+        <v>5.5584010253876004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>28</v>
       </c>
       <c r="B10">
         <v>167.12440693833901</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10">
+        <v>53.322867183831001</v>
+      </c>
+      <c r="D10">
+        <v>106.07313581643299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>29</v>
       </c>
       <c r="B11">
         <v>38.907308074859003</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D11">
+        <v>16.812072785507102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>34</v>
       </c>
       <c r="B12">
         <v>122.222690456568</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12">
+        <v>72.083034370135493</v>
+      </c>
+      <c r="D12">
+        <v>160.82686049620301</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>35</v>
       </c>
       <c r="B13">
         <v>46.486430754171401</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13">
+        <v>117.884058875709</v>
+      </c>
+      <c r="D13">
+        <v>1058.4989068053001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>36</v>
       </c>
       <c r="B14">
         <v>24.726356270610399</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D14">
+        <v>10.229780831086201</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>37</v>
       </c>
       <c r="B15">
         <v>34.763056288620398</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15">
+        <v>1.4590167234095599</v>
+      </c>
+      <c r="D15">
+        <v>79.797343591337096</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>38</v>
       </c>
       <c r="B16">
         <v>68.121080671328002</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16">
+        <v>4.9420107856925899</v>
+      </c>
+      <c r="D16">
+        <v>113.629156173053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>44</v>
       </c>
       <c r="B17">
         <v>66.647717347198807</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17">
+        <v>1.61858646789383</v>
+      </c>
+      <c r="D17">
+        <v>57.8880808874599</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>45</v>
       </c>
       <c r="B18">
         <v>84.328459968970904</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18">
+        <v>4.3158388286791904</v>
+      </c>
+      <c r="D18">
+        <v>136.583948618823</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>46</v>
       </c>
       <c r="B19">
         <v>66.786127218971998</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19">
+        <v>4.8159642502695696</v>
+      </c>
+      <c r="D19">
+        <v>147.17943125120101</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>47</v>
       </c>
       <c r="B20">
         <v>34.830250770458903</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20">
+        <v>6.8057040154632098</v>
+      </c>
+      <c r="D20">
+        <v>129.809225113808</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>48</v>
       </c>
       <c r="B21">
         <v>121.20670222515101</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <v>11.0059624044126</v>
+      </c>
+      <c r="D21">
+        <v>141.595828574156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>49</v>
       </c>
       <c r="B22">
         <v>16.092469684539399</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D22">
+        <v>4.39382264898674</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>56</v>
       </c>
       <c r="B23">
-        <v>128.89917274900301</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+        <v>128.89917274900299</v>
+      </c>
+      <c r="C23">
+        <v>19.881135396854202</v>
+      </c>
+      <c r="D23">
+        <v>745.33598561111296</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>57</v>
       </c>
@@ -3158,15 +3291,21 @@
         <v>5.7362150556347098</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>59</v>
       </c>
       <c r="B25">
         <v>17.5881486032326</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25">
+        <v>1.50282581842038</v>
+      </c>
+      <c r="D25">
+        <v>39.2053375319053</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>62</v>
       </c>
@@ -3174,55 +3313,85 @@
         <v>17.518985135487799</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>68</v>
       </c>
       <c r="B27">
-        <v>17.814597455059697</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+        <v>17.814597455059602</v>
+      </c>
+      <c r="C27">
+        <v>2.3584449597002601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>72</v>
       </c>
       <c r="B28">
-        <v>23.617188354992997</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+        <v>23.617188354992901</v>
+      </c>
+      <c r="C28">
+        <v>1.7124050017077199</v>
+      </c>
+      <c r="D28">
+        <v>11.149065705208701</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>74</v>
       </c>
       <c r="B29">
         <v>4.1709686189861701</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <v>191.02423721744699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>80</v>
       </c>
       <c r="B30">
         <v>21.582552459189799</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30">
+        <v>11.130267109793699</v>
+      </c>
+      <c r="D30">
+        <v>27.0193047159547</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>82</v>
       </c>
       <c r="B31">
-        <v>0.73679092665746893</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+        <v>0.73679092665746804</v>
+      </c>
+      <c r="C31">
+        <v>2.2220470174265698</v>
+      </c>
+      <c r="D31">
+        <v>121.30517425446401</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>83</v>
       </c>
       <c r="B32">
         <v>0.393108732750372</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32">
+        <v>19.450308954973899</v>
+      </c>
+      <c r="D32">
+        <v>301.077531869589</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>84</v>
       </c>
@@ -3230,319 +3399,538 @@
         <v>16.399972223192702</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>85</v>
       </c>
       <c r="B34">
-        <v>11.922590329405601</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+        <v>11.922590329405599</v>
+      </c>
+      <c r="D34">
+        <v>11.087443517582701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>86</v>
       </c>
       <c r="B35">
-        <v>16.700908318916802</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+        <v>16.700908318916799</v>
+      </c>
+      <c r="C35">
+        <v>2.55234134568909</v>
+      </c>
+      <c r="D35">
+        <v>22.743462520375701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>87</v>
       </c>
       <c r="B36">
         <v>61.150938148266597</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36">
+        <v>8.0347494639541601</v>
+      </c>
+      <c r="D36">
+        <v>200.19728778580699</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>89</v>
       </c>
       <c r="B37">
         <v>12.209338796248</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37">
+        <v>2.00868124576288</v>
+      </c>
+      <c r="D37">
+        <v>16.320400126709401</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>90</v>
       </c>
       <c r="B38">
         <v>61.852367244897401</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38">
+        <v>5.0831438707541201</v>
+      </c>
+      <c r="D38">
+        <v>334.26837981251902</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>92</v>
       </c>
       <c r="B39">
-        <v>48.003890361753506</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+        <v>48.003890361753498</v>
+      </c>
+      <c r="C39">
+        <v>6.9565540241805301</v>
+      </c>
+      <c r="D39">
+        <v>45.267911558546203</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>93</v>
       </c>
       <c r="B40">
-        <v>30.729033085067503</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+        <v>30.729033085067499</v>
+      </c>
+      <c r="C40">
+        <v>49.155726999917697</v>
+      </c>
+      <c r="D40">
+        <v>1152.9467996978001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>95</v>
       </c>
       <c r="B41">
         <v>66.768820940095495</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C41">
+        <v>13.903487444163201</v>
+      </c>
+      <c r="D41">
+        <v>8.2720130685955002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>96</v>
       </c>
       <c r="B42">
         <v>57.991899241940999</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C42">
+        <v>14.125026384021901</v>
+      </c>
+      <c r="D42">
+        <v>42.365896480621899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>101</v>
       </c>
       <c r="B43">
         <v>13.5725371775284</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C43">
+        <v>1.2995748885830301</v>
+      </c>
+      <c r="D43">
+        <v>37.6524051088372</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>102</v>
       </c>
       <c r="B44">
-        <v>28.918686758553797</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+        <v>28.918686758553701</v>
+      </c>
+      <c r="C44">
+        <v>2.23035851755977</v>
+      </c>
+      <c r="D44">
+        <v>99.700060073038898</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>103</v>
       </c>
       <c r="B45">
         <v>56.666394045752099</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C45">
+        <v>20.832475993984399</v>
+      </c>
+      <c r="D45">
+        <v>69.822847474177905</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>104</v>
       </c>
       <c r="B46">
         <v>21.883636010759499</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C46">
+        <v>4.1315559545941598</v>
+      </c>
+      <c r="D46">
+        <v>15.089347032110901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>105</v>
       </c>
       <c r="B47">
         <v>33.148226238865703</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C47">
+        <v>9.3705031950905795</v>
+      </c>
+      <c r="D47">
+        <v>65.878154986005796</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>106</v>
       </c>
       <c r="B48">
-        <v>34.069154300544007</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+        <v>34.069154300544</v>
+      </c>
+      <c r="C48">
+        <v>28.8635920070009</v>
+      </c>
+      <c r="D48">
+        <v>162.853693961196</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>107</v>
       </c>
       <c r="B49">
         <v>57.196581074945598</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49">
+        <v>5.3273966599409297</v>
+      </c>
+      <c r="D49">
+        <v>231.21606545977099</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>108</v>
       </c>
       <c r="B50">
-        <v>3.0466849633245703</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+        <v>3.0466849633245698</v>
+      </c>
+      <c r="D50">
+        <v>45.290341478448397</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>109</v>
       </c>
       <c r="B51">
         <v>6.3640985779312498</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C51">
+        <v>0.61090489952045801</v>
+      </c>
+      <c r="D51">
+        <v>125.88987391077301</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>110</v>
       </c>
       <c r="B52">
         <v>18.2336901615225</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C52">
+        <v>3.9453519204021101</v>
+      </c>
+      <c r="D52">
+        <v>72.302350683050804</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>111</v>
       </c>
       <c r="B53">
         <v>64.0746826157105</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C53">
+        <v>87.824493840135602</v>
+      </c>
+      <c r="D53">
+        <v>1443.4565043356299</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>113</v>
       </c>
       <c r="B54">
         <v>15.3732518472636</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C54">
+        <v>1.7662484968265999</v>
+      </c>
+      <c r="D54">
+        <v>30.1915332937876</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>114</v>
       </c>
       <c r="B55">
         <v>85.657971271405899</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C55">
+        <v>2.7225565730851602</v>
+      </c>
+      <c r="D55">
+        <v>32.854409579508797</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>119</v>
       </c>
       <c r="B56">
         <v>62.912131507601103</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C56">
+        <v>78.775149410324701</v>
+      </c>
+      <c r="D56">
+        <v>200.38230465147899</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>120</v>
       </c>
       <c r="B57">
         <v>33.702368779454403</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C57">
+        <v>37.121084875187201</v>
+      </c>
+      <c r="D57">
+        <v>1501.3418717183799</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>121</v>
       </c>
       <c r="B58">
         <v>94.1291566739431</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C58">
+        <v>38.689175088431597</v>
+      </c>
+      <c r="D58">
+        <v>1805.0182092918601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>122</v>
       </c>
       <c r="B59">
         <v>41.849157005930202</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C59">
+        <v>13.392648918759299</v>
+      </c>
+      <c r="D59">
+        <v>459.73721706373499</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>123</v>
       </c>
       <c r="B60">
         <v>23.796507622701601</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C60">
+        <v>17.4498161033694</v>
+      </c>
+      <c r="D60">
+        <v>595.23654262245702</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>124</v>
       </c>
       <c r="B61">
-        <v>18.291319812558598</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+        <v>18.291319812558498</v>
+      </c>
+      <c r="C61">
+        <v>21.2273729825692</v>
+      </c>
+      <c r="D61">
+        <v>412.58579419599602</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>125</v>
       </c>
       <c r="B62">
         <v>17.2543812389608</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C62">
+        <v>0.80438506769376505</v>
+      </c>
+      <c r="D62">
+        <v>51.402160723805302</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>127</v>
       </c>
       <c r="B63">
-        <v>37.820536688400495</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+        <v>37.820536688400402</v>
+      </c>
+      <c r="C63">
+        <v>2.0655619772311899</v>
+      </c>
+      <c r="D63">
+        <v>3.63007190893447</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>128</v>
       </c>
       <c r="B64">
         <v>60.8236887123076</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C64">
+        <v>30.308944370481001</v>
+      </c>
+      <c r="D64">
+        <v>584.52958172034903</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>129</v>
       </c>
       <c r="B65">
         <v>41.343192696446103</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C65">
+        <v>22.335758115473201</v>
+      </c>
+      <c r="D65">
+        <v>265.114609805459</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>130</v>
       </c>
       <c r="B66">
         <v>14.9920813548565</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D66">
+        <v>98.4472715968015</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>131</v>
       </c>
       <c r="B67">
-        <v>14.568366769162399</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+        <v>14.568366769162299</v>
+      </c>
+      <c r="C67">
+        <v>56.800240028347197</v>
+      </c>
+      <c r="D67">
+        <v>1114.9563093904601</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>132</v>
       </c>
       <c r="B68">
-        <v>147.14315261005598</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+        <v>147.14315261005501</v>
+      </c>
+      <c r="C68">
+        <v>274.949295259895</v>
+      </c>
+      <c r="D68">
+        <v>2994.81043458053</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>133</v>
       </c>
       <c r="B69">
         <v>113.50764057621799</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D69">
+        <v>12.195714636174699</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>136</v>
       </c>
       <c r="B70">
         <v>11.3173685646903</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C70">
+        <v>436.75298809184898</v>
+      </c>
+      <c r="D70">
+        <v>3664.67622612279</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>137</v>
       </c>
       <c r="B71">
         <v>47.505618002688699</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D71">
+        <v>99.800854689708501</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>138</v>
       </c>
       <c r="B72">
         <v>39.540434614627998</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C72">
+        <v>8.1665538012436496</v>
+      </c>
+      <c r="D72">
+        <v>158.04302639817601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>139</v>
       </c>
@@ -3550,292 +3938,493 @@
         <v>25.0021884820497</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>140</v>
       </c>
       <c r="B74">
         <v>56.117064378217698</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C74">
+        <v>39.966453600193297</v>
+      </c>
+      <c r="D74">
+        <v>649.59694504908202</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>141</v>
       </c>
       <c r="B75">
-        <v>41.498931655941696</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+        <v>41.498931655941597</v>
+      </c>
+      <c r="C75">
+        <v>4.6637743252530601</v>
+      </c>
+      <c r="D75">
+        <v>16.7180954285787</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>142</v>
       </c>
       <c r="B76">
-        <v>22.559917431177897</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+        <v>22.559917431177801</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>144</v>
       </c>
       <c r="B77">
-        <v>12.916723775594601</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+        <v>12.916723775594599</v>
+      </c>
+      <c r="D77">
+        <v>16.730734126956399</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>145</v>
       </c>
       <c r="B78">
-        <v>49.327177826538204</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+        <v>49.327177826538197</v>
+      </c>
+      <c r="C78">
+        <v>7.9222886011828901</v>
+      </c>
+      <c r="D78">
+        <v>255.131536220687</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>146</v>
       </c>
       <c r="B79">
         <v>10.886887177280499</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D79">
+        <v>189.914401318882</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>147</v>
       </c>
       <c r="B80">
         <v>67.493124607455002</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C80">
+        <v>48.611326798223999</v>
+      </c>
+      <c r="D80">
+        <v>570.60202061092696</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>154</v>
       </c>
       <c r="B81">
-        <v>129.01766027308798</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+        <v>129.01766027308699</v>
+      </c>
+      <c r="C81">
+        <v>5.3616396382262401</v>
+      </c>
+      <c r="D81">
+        <v>27.694527342725799</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>157</v>
       </c>
       <c r="B82">
         <v>139.81550628903199</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C82">
+        <v>105.245905382321</v>
+      </c>
+      <c r="D82">
+        <v>1214.9544503024099</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>158</v>
       </c>
       <c r="B83">
         <v>36.189132031932402</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C83">
+        <v>91.611860302008097</v>
+      </c>
+      <c r="D83">
+        <v>915.98332057453104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>159</v>
       </c>
       <c r="B84">
-        <v>40.722940331555506</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+        <v>40.722940331555499</v>
+      </c>
+      <c r="C84">
+        <v>10.3036612503717</v>
+      </c>
+      <c r="D84">
+        <v>243.243293660962</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>160</v>
       </c>
       <c r="B85">
         <v>56.254680433708302</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C85">
+        <v>4.99201660553745</v>
+      </c>
+      <c r="D85">
+        <v>209.325095756683</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>165</v>
       </c>
       <c r="B86">
         <v>105.309328066353</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C86">
+        <v>8.0172416922080707</v>
+      </c>
+      <c r="D86">
+        <v>359.45404105297501</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>200</v>
       </c>
       <c r="B87">
-        <v>97.294834531165009</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+        <v>97.294834531164994</v>
+      </c>
+      <c r="C87">
+        <v>69.466757282401105</v>
+      </c>
+      <c r="D87">
+        <v>222.81018946536099</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>201</v>
       </c>
       <c r="B88">
         <v>101.74407693775601</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C88">
+        <v>76.4171403009058</v>
+      </c>
+      <c r="D88">
+        <v>544.70719860017698</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>204</v>
       </c>
       <c r="B89">
-        <v>75.016541728875907</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+        <v>75.016541728875893</v>
+      </c>
+      <c r="C89">
+        <v>69.152425806689905</v>
+      </c>
+      <c r="D89">
+        <v>787.75943740203695</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>206</v>
       </c>
       <c r="B90">
         <v>155.271628419449</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C90">
+        <v>13.4376991429566</v>
+      </c>
+      <c r="D90">
+        <v>24.106918419168199</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>207</v>
       </c>
       <c r="B91">
         <v>66.545367680081995</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C91">
+        <v>10.1740442423415</v>
+      </c>
+      <c r="D91">
+        <v>107.822399987474</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>208</v>
       </c>
       <c r="B92">
         <v>60.106835946228102</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C92">
+        <v>1.0957624435579301</v>
+      </c>
+      <c r="D92">
+        <v>142.03722477020099</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>209</v>
       </c>
       <c r="B93">
-        <v>116.00900398214901</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+        <v>116.009003982149</v>
+      </c>
+      <c r="C93">
+        <v>6.8334650557327103</v>
+      </c>
+      <c r="D93">
+        <v>127.286010453492</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>212</v>
       </c>
       <c r="B94">
         <v>15.759407377429399</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C94">
+        <v>2.9048629968370498</v>
+      </c>
+      <c r="D94">
+        <v>20.723934103861598</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>214</v>
       </c>
       <c r="B95">
         <v>241.72726207686</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C95">
+        <v>24.1415130712059</v>
+      </c>
+      <c r="D95">
+        <v>228.85784503887299</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>216</v>
       </c>
       <c r="B96">
         <v>185.298232444874</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C96">
+        <v>62.238134605736299</v>
+      </c>
+      <c r="D96">
+        <v>207.17918309148999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>217</v>
       </c>
       <c r="B97">
         <v>139.50795108312499</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C97">
+        <v>27.9084286795255</v>
+      </c>
+      <c r="D97">
+        <v>166.77211472137299</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>219</v>
       </c>
       <c r="B98">
         <v>219.353552794644</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C98">
+        <v>4.3340214250770401</v>
+      </c>
+      <c r="D98">
+        <v>195.79394918639801</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>221</v>
       </c>
       <c r="B99">
         <v>228.05187702106301</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C99">
+        <v>71.832824432266307</v>
+      </c>
+      <c r="D99">
+        <v>1310.1754112731001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>222</v>
       </c>
       <c r="B100">
         <v>88.0209661493178</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C100">
+        <v>14.9062873840008</v>
+      </c>
+      <c r="D100">
+        <v>716.75310928716794</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>224</v>
       </c>
       <c r="B101">
         <v>40.568367289178902</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C101">
+        <v>11.383057162826701</v>
+      </c>
+      <c r="D101">
+        <v>367.48810298178898</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>225</v>
       </c>
       <c r="B102">
-        <v>91.940430193144692</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+        <v>91.940430193144607</v>
+      </c>
+      <c r="C102">
+        <v>4.0670526051541698</v>
+      </c>
+      <c r="D102">
+        <v>715.99194511540702</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>231</v>
       </c>
       <c r="B103">
         <v>64.5365701890683</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D103">
+        <v>40.208601075231201</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>232</v>
       </c>
       <c r="B104">
-        <v>106.06167313702501</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+        <v>106.061673137025</v>
+      </c>
+      <c r="C104">
+        <v>159.44145350361001</v>
+      </c>
+      <c r="D104">
+        <v>356.78151141965401</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>233</v>
       </c>
       <c r="B105">
-        <v>288.35059161265997</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+        <v>288.350591612659</v>
+      </c>
+      <c r="C105">
+        <v>95.352082096011301</v>
+      </c>
+      <c r="D105">
+        <v>543.96894502012594</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>234</v>
       </c>
       <c r="B106">
         <v>127.807022380007</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C106">
+        <v>125.426084115883</v>
+      </c>
+      <c r="D106">
+        <v>377.164378554942</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>235</v>
       </c>
       <c r="B107">
         <v>194.508009381964</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C107">
+        <v>78.823242569075703</v>
+      </c>
+      <c r="D107">
+        <v>1644.8598187376001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>236</v>
       </c>
       <c r="B108">
         <v>144.077202742564</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C108">
+        <v>123.860618985184</v>
+      </c>
+      <c r="D108">
+        <v>358.007317437133</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>238</v>
       </c>
       <c r="B109">
         <v>21.010887781978902</v>
+      </c>
+      <c r="C109">
+        <v>9.0357266137662897</v>
+      </c>
+      <c r="D109">
+        <v>338.05644436640301</v>
       </c>
     </row>
   </sheetData>
@@ -3847,7 +4436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF53C27-29CA-4A91-B8DD-39F16DCC6542}">
   <dimension ref="A1:R111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
@@ -3855,716 +4444,716 @@
       <selection pane="bottomRight" activeCell="D111" sqref="D111"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.81640625" style="4" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.81640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="34.81640625" style="13" customWidth="1"/>
-    <col min="5" max="7" width="11.81640625" style="18" customWidth="1"/>
-    <col min="8" max="9" width="11.81640625" style="18" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="11.81640625" style="18" customWidth="1"/>
-    <col min="14" max="14" width="11.81640625" style="22" customWidth="1"/>
-    <col min="15" max="15" width="11.81640625" style="17" customWidth="1"/>
-    <col min="16" max="16" width="11.81640625" style="20" customWidth="1"/>
-    <col min="17" max="17" width="11.90625" style="13" customWidth="1"/>
-    <col min="18" max="18" width="18.453125" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="256" width="8.90625" style="13"/>
-    <col min="257" max="257" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="34.81640625" style="13" customWidth="1"/>
-    <col min="260" max="260" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.77734375" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="34.77734375" style="13" customWidth="1"/>
+    <col min="5" max="7" width="11.77734375" style="18" customWidth="1"/>
+    <col min="8" max="9" width="11.77734375" style="18" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="11.77734375" style="18" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" style="22" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" style="17" customWidth="1"/>
+    <col min="16" max="16" width="11.77734375" style="20" customWidth="1"/>
+    <col min="17" max="17" width="11.88671875" style="13" customWidth="1"/>
+    <col min="18" max="18" width="18.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="256" width="8.88671875" style="13"/>
+    <col min="257" max="257" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="34.77734375" style="13" customWidth="1"/>
+    <col min="260" max="260" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="264" max="264" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="265" max="267" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="268" max="269" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="270" max="512" width="8.90625" style="13"/>
-    <col min="513" max="513" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="34.81640625" style="13" customWidth="1"/>
-    <col min="516" max="516" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="265" max="267" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="268" max="269" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="270" max="512" width="8.88671875" style="13"/>
+    <col min="513" max="513" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="34.77734375" style="13" customWidth="1"/>
+    <col min="516" max="516" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="520" max="520" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="521" max="523" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="524" max="525" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="526" max="768" width="8.90625" style="13"/>
-    <col min="769" max="769" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="34.81640625" style="13" customWidth="1"/>
-    <col min="772" max="772" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="521" max="523" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="524" max="525" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="526" max="768" width="8.88671875" style="13"/>
+    <col min="769" max="769" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="34.77734375" style="13" customWidth="1"/>
+    <col min="772" max="772" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="776" max="776" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="777" max="779" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="780" max="781" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="782" max="1024" width="8.90625" style="13"/>
-    <col min="1025" max="1025" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="34.81640625" style="13" customWidth="1"/>
-    <col min="1028" max="1028" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="777" max="779" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="780" max="781" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="782" max="1024" width="8.88671875" style="13"/>
+    <col min="1025" max="1025" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="34.77734375" style="13" customWidth="1"/>
+    <col min="1028" max="1028" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="1032" max="1032" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1035" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1037" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1038" max="1280" width="8.90625" style="13"/>
-    <col min="1281" max="1281" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="34.81640625" style="13" customWidth="1"/>
-    <col min="1284" max="1284" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1035" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1037" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1280" width="8.88671875" style="13"/>
+    <col min="1281" max="1281" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="34.77734375" style="13" customWidth="1"/>
+    <col min="1284" max="1284" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="1288" max="1288" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1291" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1293" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1294" max="1536" width="8.90625" style="13"/>
-    <col min="1537" max="1537" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="34.81640625" style="13" customWidth="1"/>
-    <col min="1540" max="1540" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1291" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1293" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1294" max="1536" width="8.88671875" style="13"/>
+    <col min="1537" max="1537" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="34.77734375" style="13" customWidth="1"/>
+    <col min="1540" max="1540" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="1544" max="1544" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1547" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1549" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1550" max="1792" width="8.90625" style="13"/>
-    <col min="1793" max="1793" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="34.81640625" style="13" customWidth="1"/>
-    <col min="1796" max="1796" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1547" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1549" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1550" max="1792" width="8.88671875" style="13"/>
+    <col min="1793" max="1793" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="34.77734375" style="13" customWidth="1"/>
+    <col min="1796" max="1796" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="1800" max="1800" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1803" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1805" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="1806" max="2048" width="8.90625" style="13"/>
-    <col min="2049" max="2049" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="34.81640625" style="13" customWidth="1"/>
-    <col min="2052" max="2052" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1803" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1805" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1806" max="2048" width="8.88671875" style="13"/>
+    <col min="2049" max="2049" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="34.77734375" style="13" customWidth="1"/>
+    <col min="2052" max="2052" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="2056" max="2056" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2059" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2061" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2062" max="2304" width="8.90625" style="13"/>
-    <col min="2305" max="2305" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="34.81640625" style="13" customWidth="1"/>
-    <col min="2308" max="2308" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2059" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2061" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2062" max="2304" width="8.88671875" style="13"/>
+    <col min="2305" max="2305" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="34.77734375" style="13" customWidth="1"/>
+    <col min="2308" max="2308" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="2312" max="2312" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2315" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2317" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2318" max="2560" width="8.90625" style="13"/>
-    <col min="2561" max="2561" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="34.81640625" style="13" customWidth="1"/>
-    <col min="2564" max="2564" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2315" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2317" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2318" max="2560" width="8.88671875" style="13"/>
+    <col min="2561" max="2561" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="34.77734375" style="13" customWidth="1"/>
+    <col min="2564" max="2564" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="2568" max="2568" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2571" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2573" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2574" max="2816" width="8.90625" style="13"/>
-    <col min="2817" max="2817" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="34.81640625" style="13" customWidth="1"/>
-    <col min="2820" max="2820" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2571" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2573" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2574" max="2816" width="8.88671875" style="13"/>
+    <col min="2817" max="2817" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="34.77734375" style="13" customWidth="1"/>
+    <col min="2820" max="2820" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="2824" max="2824" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2827" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2829" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="2830" max="3072" width="8.90625" style="13"/>
-    <col min="3073" max="3073" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="34.81640625" style="13" customWidth="1"/>
-    <col min="3076" max="3076" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2827" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2829" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2830" max="3072" width="8.88671875" style="13"/>
+    <col min="3073" max="3073" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="34.77734375" style="13" customWidth="1"/>
+    <col min="3076" max="3076" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="3080" max="3080" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3083" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3085" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3086" max="3328" width="8.90625" style="13"/>
-    <col min="3329" max="3329" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="34.81640625" style="13" customWidth="1"/>
-    <col min="3332" max="3332" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3083" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3085" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3086" max="3328" width="8.88671875" style="13"/>
+    <col min="3329" max="3329" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="34.77734375" style="13" customWidth="1"/>
+    <col min="3332" max="3332" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="3336" max="3336" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3339" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3341" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3342" max="3584" width="8.90625" style="13"/>
-    <col min="3585" max="3585" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="34.81640625" style="13" customWidth="1"/>
-    <col min="3588" max="3588" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3339" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3341" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3342" max="3584" width="8.88671875" style="13"/>
+    <col min="3585" max="3585" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="34.77734375" style="13" customWidth="1"/>
+    <col min="3588" max="3588" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="3592" max="3592" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3595" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3597" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3598" max="3840" width="8.90625" style="13"/>
-    <col min="3841" max="3841" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="34.81640625" style="13" customWidth="1"/>
-    <col min="3844" max="3844" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3595" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3597" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3598" max="3840" width="8.88671875" style="13"/>
+    <col min="3841" max="3841" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="34.77734375" style="13" customWidth="1"/>
+    <col min="3844" max="3844" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="3848" max="3848" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3851" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3853" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="3854" max="4096" width="8.90625" style="13"/>
-    <col min="4097" max="4097" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="34.81640625" style="13" customWidth="1"/>
-    <col min="4100" max="4100" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3851" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3853" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3854" max="4096" width="8.88671875" style="13"/>
+    <col min="4097" max="4097" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="34.77734375" style="13" customWidth="1"/>
+    <col min="4100" max="4100" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="4104" max="4104" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4107" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4109" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4110" max="4352" width="8.90625" style="13"/>
-    <col min="4353" max="4353" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="34.81640625" style="13" customWidth="1"/>
-    <col min="4356" max="4356" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4107" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4109" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4110" max="4352" width="8.88671875" style="13"/>
+    <col min="4353" max="4353" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="34.77734375" style="13" customWidth="1"/>
+    <col min="4356" max="4356" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="4360" max="4360" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4363" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4365" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4366" max="4608" width="8.90625" style="13"/>
-    <col min="4609" max="4609" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="34.81640625" style="13" customWidth="1"/>
-    <col min="4612" max="4612" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4363" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4365" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4366" max="4608" width="8.88671875" style="13"/>
+    <col min="4609" max="4609" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="34.77734375" style="13" customWidth="1"/>
+    <col min="4612" max="4612" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="4616" max="4616" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4619" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4621" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4622" max="4864" width="8.90625" style="13"/>
-    <col min="4865" max="4865" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="34.81640625" style="13" customWidth="1"/>
-    <col min="4868" max="4868" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4619" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4621" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4622" max="4864" width="8.88671875" style="13"/>
+    <col min="4865" max="4865" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="34.77734375" style="13" customWidth="1"/>
+    <col min="4868" max="4868" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="4872" max="4872" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4875" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4877" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="4878" max="5120" width="8.90625" style="13"/>
-    <col min="5121" max="5121" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="34.81640625" style="13" customWidth="1"/>
-    <col min="5124" max="5124" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4875" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4877" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4878" max="5120" width="8.88671875" style="13"/>
+    <col min="5121" max="5121" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="34.77734375" style="13" customWidth="1"/>
+    <col min="5124" max="5124" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="5128" max="5128" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5131" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5133" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5134" max="5376" width="8.90625" style="13"/>
-    <col min="5377" max="5377" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="34.81640625" style="13" customWidth="1"/>
-    <col min="5380" max="5380" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5131" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5133" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5134" max="5376" width="8.88671875" style="13"/>
+    <col min="5377" max="5377" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="34.77734375" style="13" customWidth="1"/>
+    <col min="5380" max="5380" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="5384" max="5384" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5387" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5389" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5390" max="5632" width="8.90625" style="13"/>
-    <col min="5633" max="5633" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="34.81640625" style="13" customWidth="1"/>
-    <col min="5636" max="5636" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5387" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5389" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5390" max="5632" width="8.88671875" style="13"/>
+    <col min="5633" max="5633" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="34.77734375" style="13" customWidth="1"/>
+    <col min="5636" max="5636" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="5640" max="5640" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5643" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5645" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5646" max="5888" width="8.90625" style="13"/>
-    <col min="5889" max="5889" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="34.81640625" style="13" customWidth="1"/>
-    <col min="5892" max="5892" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5643" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5645" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5646" max="5888" width="8.88671875" style="13"/>
+    <col min="5889" max="5889" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="34.77734375" style="13" customWidth="1"/>
+    <col min="5892" max="5892" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="5896" max="5896" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5899" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5901" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="5902" max="6144" width="8.90625" style="13"/>
-    <col min="6145" max="6145" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="34.81640625" style="13" customWidth="1"/>
-    <col min="6148" max="6148" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5899" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5901" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5902" max="6144" width="8.88671875" style="13"/>
+    <col min="6145" max="6145" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="34.77734375" style="13" customWidth="1"/>
+    <col min="6148" max="6148" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="6152" max="6152" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6155" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6157" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6158" max="6400" width="8.90625" style="13"/>
-    <col min="6401" max="6401" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="34.81640625" style="13" customWidth="1"/>
-    <col min="6404" max="6404" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6155" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6157" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6158" max="6400" width="8.88671875" style="13"/>
+    <col min="6401" max="6401" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="34.77734375" style="13" customWidth="1"/>
+    <col min="6404" max="6404" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="6408" max="6408" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6411" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6413" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6414" max="6656" width="8.90625" style="13"/>
-    <col min="6657" max="6657" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="34.81640625" style="13" customWidth="1"/>
-    <col min="6660" max="6660" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6411" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6413" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6414" max="6656" width="8.88671875" style="13"/>
+    <col min="6657" max="6657" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="34.77734375" style="13" customWidth="1"/>
+    <col min="6660" max="6660" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="6664" max="6664" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6667" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6669" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6670" max="6912" width="8.90625" style="13"/>
-    <col min="6913" max="6913" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="34.81640625" style="13" customWidth="1"/>
-    <col min="6916" max="6916" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6667" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6669" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6670" max="6912" width="8.88671875" style="13"/>
+    <col min="6913" max="6913" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="34.77734375" style="13" customWidth="1"/>
+    <col min="6916" max="6916" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="6920" max="6920" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6923" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6925" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6926" max="7168" width="8.90625" style="13"/>
-    <col min="7169" max="7169" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="34.81640625" style="13" customWidth="1"/>
-    <col min="7172" max="7172" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6923" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6925" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6926" max="7168" width="8.88671875" style="13"/>
+    <col min="7169" max="7169" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="34.77734375" style="13" customWidth="1"/>
+    <col min="7172" max="7172" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="7176" max="7176" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7179" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7181" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7182" max="7424" width="8.90625" style="13"/>
-    <col min="7425" max="7425" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="34.81640625" style="13" customWidth="1"/>
-    <col min="7428" max="7428" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7179" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7181" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7182" max="7424" width="8.88671875" style="13"/>
+    <col min="7425" max="7425" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="34.77734375" style="13" customWidth="1"/>
+    <col min="7428" max="7428" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="7432" max="7432" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7435" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7437" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7438" max="7680" width="8.90625" style="13"/>
-    <col min="7681" max="7681" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="34.81640625" style="13" customWidth="1"/>
-    <col min="7684" max="7684" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7435" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7437" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7438" max="7680" width="8.88671875" style="13"/>
+    <col min="7681" max="7681" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="34.77734375" style="13" customWidth="1"/>
+    <col min="7684" max="7684" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="7688" max="7688" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7691" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7693" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7694" max="7936" width="8.90625" style="13"/>
-    <col min="7937" max="7937" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="34.81640625" style="13" customWidth="1"/>
-    <col min="7940" max="7940" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7691" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7693" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7694" max="7936" width="8.88671875" style="13"/>
+    <col min="7937" max="7937" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="34.77734375" style="13" customWidth="1"/>
+    <col min="7940" max="7940" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="7944" max="7944" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7947" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7949" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7950" max="8192" width="8.90625" style="13"/>
-    <col min="8193" max="8193" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="34.81640625" style="13" customWidth="1"/>
-    <col min="8196" max="8196" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7947" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7949" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7950" max="8192" width="8.88671875" style="13"/>
+    <col min="8193" max="8193" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="34.77734375" style="13" customWidth="1"/>
+    <col min="8196" max="8196" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="8200" max="8200" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8203" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8205" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8206" max="8448" width="8.90625" style="13"/>
-    <col min="8449" max="8449" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="34.81640625" style="13" customWidth="1"/>
-    <col min="8452" max="8452" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8203" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8205" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8206" max="8448" width="8.88671875" style="13"/>
+    <col min="8449" max="8449" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="34.77734375" style="13" customWidth="1"/>
+    <col min="8452" max="8452" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="8456" max="8456" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8459" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8461" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8462" max="8704" width="8.90625" style="13"/>
-    <col min="8705" max="8705" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="34.81640625" style="13" customWidth="1"/>
-    <col min="8708" max="8708" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8459" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8461" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8462" max="8704" width="8.88671875" style="13"/>
+    <col min="8705" max="8705" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="34.77734375" style="13" customWidth="1"/>
+    <col min="8708" max="8708" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="8712" max="8712" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8715" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8717" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8718" max="8960" width="8.90625" style="13"/>
-    <col min="8961" max="8961" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="34.81640625" style="13" customWidth="1"/>
-    <col min="8964" max="8964" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8715" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8717" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8718" max="8960" width="8.88671875" style="13"/>
+    <col min="8961" max="8961" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="34.77734375" style="13" customWidth="1"/>
+    <col min="8964" max="8964" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="8968" max="8968" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8971" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8973" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8974" max="9216" width="8.90625" style="13"/>
-    <col min="9217" max="9217" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="34.81640625" style="13" customWidth="1"/>
-    <col min="9220" max="9220" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8971" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8973" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8974" max="9216" width="8.88671875" style="13"/>
+    <col min="9217" max="9217" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="34.77734375" style="13" customWidth="1"/>
+    <col min="9220" max="9220" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="9224" max="9224" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9227" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9229" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9230" max="9472" width="8.90625" style="13"/>
-    <col min="9473" max="9473" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="34.81640625" style="13" customWidth="1"/>
-    <col min="9476" max="9476" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9227" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9229" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9230" max="9472" width="8.88671875" style="13"/>
+    <col min="9473" max="9473" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="34.77734375" style="13" customWidth="1"/>
+    <col min="9476" max="9476" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="9480" max="9480" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9483" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9485" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9486" max="9728" width="8.90625" style="13"/>
-    <col min="9729" max="9729" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="34.81640625" style="13" customWidth="1"/>
-    <col min="9732" max="9732" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9483" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9485" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9486" max="9728" width="8.88671875" style="13"/>
+    <col min="9729" max="9729" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="34.77734375" style="13" customWidth="1"/>
+    <col min="9732" max="9732" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="9736" max="9736" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9739" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9741" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9742" max="9984" width="8.90625" style="13"/>
-    <col min="9985" max="9985" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="34.81640625" style="13" customWidth="1"/>
-    <col min="9988" max="9988" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9739" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9741" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9742" max="9984" width="8.88671875" style="13"/>
+    <col min="9985" max="9985" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="34.77734375" style="13" customWidth="1"/>
+    <col min="9988" max="9988" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="9992" max="9992" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9995" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9997" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9998" max="10240" width="8.90625" style="13"/>
-    <col min="10241" max="10241" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="34.81640625" style="13" customWidth="1"/>
-    <col min="10244" max="10244" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9995" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9997" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9998" max="10240" width="8.88671875" style="13"/>
+    <col min="10241" max="10241" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="34.77734375" style="13" customWidth="1"/>
+    <col min="10244" max="10244" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="10248" max="10248" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10251" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10253" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10254" max="10496" width="8.90625" style="13"/>
-    <col min="10497" max="10497" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="34.81640625" style="13" customWidth="1"/>
-    <col min="10500" max="10500" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10251" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10253" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10254" max="10496" width="8.88671875" style="13"/>
+    <col min="10497" max="10497" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="34.77734375" style="13" customWidth="1"/>
+    <col min="10500" max="10500" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="10504" max="10504" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10507" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10509" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10510" max="10752" width="8.90625" style="13"/>
-    <col min="10753" max="10753" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="34.81640625" style="13" customWidth="1"/>
-    <col min="10756" max="10756" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10507" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10509" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10510" max="10752" width="8.88671875" style="13"/>
+    <col min="10753" max="10753" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="34.77734375" style="13" customWidth="1"/>
+    <col min="10756" max="10756" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="10760" max="10760" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10763" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10765" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="10766" max="11008" width="8.90625" style="13"/>
-    <col min="11009" max="11009" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="34.81640625" style="13" customWidth="1"/>
-    <col min="11012" max="11012" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10763" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10765" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10766" max="11008" width="8.88671875" style="13"/>
+    <col min="11009" max="11009" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="34.77734375" style="13" customWidth="1"/>
+    <col min="11012" max="11012" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="11016" max="11016" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11019" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11021" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11022" max="11264" width="8.90625" style="13"/>
-    <col min="11265" max="11265" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="34.81640625" style="13" customWidth="1"/>
-    <col min="11268" max="11268" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11019" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11021" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11022" max="11264" width="8.88671875" style="13"/>
+    <col min="11265" max="11265" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="34.77734375" style="13" customWidth="1"/>
+    <col min="11268" max="11268" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="11272" max="11272" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11275" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11277" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11278" max="11520" width="8.90625" style="13"/>
-    <col min="11521" max="11521" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="34.81640625" style="13" customWidth="1"/>
-    <col min="11524" max="11524" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11275" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11277" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11278" max="11520" width="8.88671875" style="13"/>
+    <col min="11521" max="11521" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="34.77734375" style="13" customWidth="1"/>
+    <col min="11524" max="11524" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="11528" max="11528" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11531" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11533" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11534" max="11776" width="8.90625" style="13"/>
-    <col min="11777" max="11777" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="34.81640625" style="13" customWidth="1"/>
-    <col min="11780" max="11780" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11531" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11533" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11534" max="11776" width="8.88671875" style="13"/>
+    <col min="11777" max="11777" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="34.77734375" style="13" customWidth="1"/>
+    <col min="11780" max="11780" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="11784" max="11784" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11787" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11789" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="11790" max="12032" width="8.90625" style="13"/>
-    <col min="12033" max="12033" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="34.81640625" style="13" customWidth="1"/>
-    <col min="12036" max="12036" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11787" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11789" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11790" max="12032" width="8.88671875" style="13"/>
+    <col min="12033" max="12033" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="34.77734375" style="13" customWidth="1"/>
+    <col min="12036" max="12036" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="12040" max="12040" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12043" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12045" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12046" max="12288" width="8.90625" style="13"/>
-    <col min="12289" max="12289" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="34.81640625" style="13" customWidth="1"/>
-    <col min="12292" max="12292" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12043" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12045" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12046" max="12288" width="8.88671875" style="13"/>
+    <col min="12289" max="12289" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="34.77734375" style="13" customWidth="1"/>
+    <col min="12292" max="12292" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="12296" max="12296" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12299" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12301" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12302" max="12544" width="8.90625" style="13"/>
-    <col min="12545" max="12545" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="34.81640625" style="13" customWidth="1"/>
-    <col min="12548" max="12548" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12299" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12301" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12302" max="12544" width="8.88671875" style="13"/>
+    <col min="12545" max="12545" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="34.77734375" style="13" customWidth="1"/>
+    <col min="12548" max="12548" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="12552" max="12552" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12555" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12557" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12558" max="12800" width="8.90625" style="13"/>
-    <col min="12801" max="12801" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="34.81640625" style="13" customWidth="1"/>
-    <col min="12804" max="12804" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12555" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12557" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12558" max="12800" width="8.88671875" style="13"/>
+    <col min="12801" max="12801" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="34.77734375" style="13" customWidth="1"/>
+    <col min="12804" max="12804" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="12808" max="12808" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12811" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12813" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12814" max="13056" width="8.90625" style="13"/>
-    <col min="13057" max="13057" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="34.81640625" style="13" customWidth="1"/>
-    <col min="13060" max="13060" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12811" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12813" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12814" max="13056" width="8.88671875" style="13"/>
+    <col min="13057" max="13057" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="34.77734375" style="13" customWidth="1"/>
+    <col min="13060" max="13060" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="13064" max="13064" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13067" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13069" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13070" max="13312" width="8.90625" style="13"/>
-    <col min="13313" max="13313" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="34.81640625" style="13" customWidth="1"/>
-    <col min="13316" max="13316" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13067" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13069" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13070" max="13312" width="8.88671875" style="13"/>
+    <col min="13313" max="13313" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="34.77734375" style="13" customWidth="1"/>
+    <col min="13316" max="13316" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="13320" max="13320" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13323" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13325" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13326" max="13568" width="8.90625" style="13"/>
-    <col min="13569" max="13569" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="34.81640625" style="13" customWidth="1"/>
-    <col min="13572" max="13572" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13323" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13325" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13326" max="13568" width="8.88671875" style="13"/>
+    <col min="13569" max="13569" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="34.77734375" style="13" customWidth="1"/>
+    <col min="13572" max="13572" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="13576" max="13576" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13579" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13581" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13582" max="13824" width="8.90625" style="13"/>
-    <col min="13825" max="13825" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="34.81640625" style="13" customWidth="1"/>
-    <col min="13828" max="13828" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13579" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13581" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13582" max="13824" width="8.88671875" style="13"/>
+    <col min="13825" max="13825" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="34.77734375" style="13" customWidth="1"/>
+    <col min="13828" max="13828" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="13832" max="13832" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13835" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13837" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="13838" max="14080" width="8.90625" style="13"/>
-    <col min="14081" max="14081" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="34.81640625" style="13" customWidth="1"/>
-    <col min="14084" max="14084" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13835" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13837" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13838" max="14080" width="8.88671875" style="13"/>
+    <col min="14081" max="14081" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="34.77734375" style="13" customWidth="1"/>
+    <col min="14084" max="14084" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="14088" max="14088" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14091" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14093" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14094" max="14336" width="8.90625" style="13"/>
-    <col min="14337" max="14337" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="34.81640625" style="13" customWidth="1"/>
-    <col min="14340" max="14340" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14091" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14093" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14094" max="14336" width="8.88671875" style="13"/>
+    <col min="14337" max="14337" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="34.77734375" style="13" customWidth="1"/>
+    <col min="14340" max="14340" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="14344" max="14344" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14347" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14349" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14350" max="14592" width="8.90625" style="13"/>
-    <col min="14593" max="14593" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="34.81640625" style="13" customWidth="1"/>
-    <col min="14596" max="14596" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14347" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14349" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14350" max="14592" width="8.88671875" style="13"/>
+    <col min="14593" max="14593" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="34.77734375" style="13" customWidth="1"/>
+    <col min="14596" max="14596" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="14600" max="14600" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14603" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14605" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14606" max="14848" width="8.90625" style="13"/>
-    <col min="14849" max="14849" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="34.81640625" style="13" customWidth="1"/>
-    <col min="14852" max="14852" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14603" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14605" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14606" max="14848" width="8.88671875" style="13"/>
+    <col min="14849" max="14849" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="34.77734375" style="13" customWidth="1"/>
+    <col min="14852" max="14852" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="14856" max="14856" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14859" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14861" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="14862" max="15104" width="8.90625" style="13"/>
-    <col min="15105" max="15105" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="34.81640625" style="13" customWidth="1"/>
-    <col min="15108" max="15108" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14859" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14861" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14862" max="15104" width="8.88671875" style="13"/>
+    <col min="15105" max="15105" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="34.77734375" style="13" customWidth="1"/>
+    <col min="15108" max="15108" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="15112" max="15112" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15115" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15117" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15118" max="15360" width="8.90625" style="13"/>
-    <col min="15361" max="15361" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="34.81640625" style="13" customWidth="1"/>
-    <col min="15364" max="15364" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15115" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15117" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15118" max="15360" width="8.88671875" style="13"/>
+    <col min="15361" max="15361" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="34.77734375" style="13" customWidth="1"/>
+    <col min="15364" max="15364" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="15368" max="15368" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15371" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15373" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15374" max="15616" width="8.90625" style="13"/>
-    <col min="15617" max="15617" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="34.81640625" style="13" customWidth="1"/>
-    <col min="15620" max="15620" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15371" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15373" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15374" max="15616" width="8.88671875" style="13"/>
+    <col min="15617" max="15617" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="34.77734375" style="13" customWidth="1"/>
+    <col min="15620" max="15620" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="15624" max="15624" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15627" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15629" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15630" max="15872" width="8.90625" style="13"/>
-    <col min="15873" max="15873" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="34.81640625" style="13" customWidth="1"/>
-    <col min="15876" max="15876" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15627" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15629" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15630" max="15872" width="8.88671875" style="13"/>
+    <col min="15873" max="15873" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="34.77734375" style="13" customWidth="1"/>
+    <col min="15876" max="15876" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="15880" max="15880" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15883" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15885" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="15886" max="16128" width="8.90625" style="13"/>
-    <col min="16129" max="16129" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="34.81640625" style="13" customWidth="1"/>
-    <col min="16132" max="16132" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15883" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15885" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15886" max="16128" width="8.88671875" style="13"/>
+    <col min="16129" max="16129" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="34.77734375" style="13" customWidth="1"/>
+    <col min="16132" max="16132" width="18.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="16136" max="16136" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16139" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16141" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="16142" max="16384" width="8.90625" style="13"/>
+    <col min="16137" max="16139" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16141" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="16142" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="39" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -9799,7 +10388,7 @@
         <v>-0.33126078425478106</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="24" t="s">
@@ -9848,7 +10437,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B111" s="21"/>
       <c r="C111" s="23" t="s">
         <v>123</v>

--- a/gis/data/geographical.xlsx
+++ b/gis/data/geographical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1411B29-D936-40EC-AF56-9428FDA3E262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C6D3FA-3326-47FC-BA10-A563D63CF6CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-48" windowWidth="23256" windowHeight="13896" xr2:uid="{6C3CB45D-6930-4358-8246-5C5767DAECE9}"/>
+    <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{6C3CB45D-6930-4358-8246-5C5767DAECE9}"/>
   </bookViews>
   <sheets>
     <sheet name="catchment" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="136">
   <si>
     <t>MEAN_AGE_ABOVE_45_POP</t>
   </si>
@@ -487,9 +487,6 @@
     <t>ln PAL</t>
   </si>
   <si>
-    <t>shore all j</t>
-  </si>
-  <si>
     <t>shore coastal</t>
   </si>
   <si>
@@ -503,6 +500,9 @@
   </si>
   <si>
     <t>streams</t>
+  </si>
+  <si>
+    <t>shores all j</t>
   </si>
 </sst>
 </file>
@@ -686,9 +686,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -726,7 +726,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -832,7 +832,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -974,7 +974,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -986,38 +986,39 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="8.88671875" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="8.90625" customWidth="1"/>
+    <col min="2" max="2" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>128</v>
       </c>
       <c r="B1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C1" t="s">
         <v>130</v>
-      </c>
-      <c r="C1" t="s">
-        <v>131</v>
       </c>
       <c r="D1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2">
         <f>ID_108!C2</f>
         <v>1</v>
       </c>
       <c r="B2">
-        <f>SUM('all_VP_shore length'!B2:D2)</f>
-        <v>636.51185778548188</v>
+        <f>'all_VP_shore length'!E2</f>
+        <v>636.51185778548302</v>
       </c>
       <c r="C2">
         <f>ID_108!L2</f>
@@ -1028,14 +1029,14 @@
         <v>-0.9026983531843642</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
         <f>ID_108!C3</f>
         <v>2</v>
       </c>
       <c r="B3">
-        <f>SUM('all_VP_shore length'!B3:D3)</f>
-        <v>416.38526189793879</v>
+        <f>'all_VP_shore length'!E3</f>
+        <v>416.38526189793902</v>
       </c>
       <c r="C3">
         <f>ID_108!L3</f>
@@ -1046,13 +1047,13 @@
         <v>-0.51585486974664008</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4">
         <f>ID_108!C4</f>
         <v>6</v>
       </c>
       <c r="B4">
-        <f>SUM('all_VP_shore length'!B4:D4)</f>
+        <f>'all_VP_shore length'!E4</f>
         <v>578.32471689827503</v>
       </c>
       <c r="C4">
@@ -1064,14 +1065,14 @@
         <v>-2.2883473658819415</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5">
         <f>ID_108!C5</f>
         <v>16</v>
       </c>
       <c r="B5">
-        <f>SUM('all_VP_shore length'!B5:D5)</f>
-        <v>18.704060855522982</v>
+        <f>'all_VP_shore length'!E5</f>
+        <v>18.704060855522901</v>
       </c>
       <c r="C5">
         <f>ID_108!L5</f>
@@ -1082,14 +1083,14 @@
         <v>-0.3938657434068783</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6">
         <f>ID_108!C6</f>
         <v>17</v>
       </c>
       <c r="B6">
-        <f>SUM('all_VP_shore length'!B6:D6)</f>
-        <v>41.272206754884152</v>
+        <f>'all_VP_shore length'!E6</f>
+        <v>41.272206754884202</v>
       </c>
       <c r="C6">
         <f>ID_108!L6</f>
@@ -1100,13 +1101,13 @@
         <v>-0.17210922674641163</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7">
         <f>ID_108!C7</f>
         <v>18</v>
       </c>
       <c r="B7">
-        <f>SUM('all_VP_shore length'!B7:D7)</f>
+        <f>'all_VP_shore length'!E7</f>
         <v>17.789887294684199</v>
       </c>
       <c r="C7">
@@ -1118,14 +1119,14 @@
         <v>-0.4634129488996177</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8">
         <f>ID_108!C8</f>
         <v>24</v>
       </c>
       <c r="B8">
-        <f>SUM('all_VP_shore length'!B8:D8)</f>
-        <v>110.43064154280167</v>
+        <f>'all_VP_shore length'!E8</f>
+        <v>110.430641542801</v>
       </c>
       <c r="C8">
         <f>ID_108!L8</f>
@@ -1136,14 +1137,14 @@
         <v>-0.76877655490985286</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9">
         <f>ID_108!C9</f>
         <v>25</v>
       </c>
       <c r="B9">
-        <f>SUM('all_VP_shore length'!B9:D9)</f>
-        <v>21.32277152389802</v>
+        <f>'all_VP_shore length'!E9</f>
+        <v>21.322771523897998</v>
       </c>
       <c r="C9">
         <f>ID_108!L9</f>
@@ -1154,13 +1155,13 @@
         <v>-0.5498286387983089</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10">
         <f>ID_108!C10</f>
         <v>28</v>
       </c>
       <c r="B10">
-        <f>SUM('all_VP_shore length'!B10:D10)</f>
+        <f>'all_VP_shore length'!E10</f>
         <v>326.520409938603</v>
       </c>
       <c r="C10">
@@ -1172,13 +1173,13 @@
         <v>-0.69934032187685946</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11">
         <f>ID_108!C11</f>
         <v>29</v>
       </c>
       <c r="B11">
-        <f>SUM('all_VP_shore length'!B11:D11)</f>
+        <f>'all_VP_shore length'!E11</f>
         <v>55.719380860366101</v>
       </c>
       <c r="C11">
@@ -1190,14 +1191,14 @@
         <v>-0.65794194512247484</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12">
         <f>ID_108!C12</f>
         <v>34</v>
       </c>
       <c r="B12">
-        <f>SUM('all_VP_shore length'!B12:D12)</f>
-        <v>355.13258532290649</v>
+        <f>'all_VP_shore length'!E12</f>
+        <v>355.132585322907</v>
       </c>
       <c r="C12">
         <f>ID_108!L12</f>
@@ -1208,14 +1209,14 @@
         <v>-0.33162630546528804</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13">
         <f>ID_108!C13</f>
         <v>35</v>
       </c>
       <c r="B13">
-        <f>SUM('all_VP_shore length'!B13:D13)</f>
-        <v>1222.8693964351805</v>
+        <f>'all_VP_shore length'!E13</f>
+        <v>1222.8693964351801</v>
       </c>
       <c r="C13">
         <f>ID_108!L13</f>
@@ -1226,13 +1227,13 @@
         <v>-0.43206055202377819</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14">
         <f>ID_108!C14</f>
         <v>36</v>
       </c>
       <c r="B14">
-        <f>SUM('all_VP_shore length'!B14:D14)</f>
+        <f>'all_VP_shore length'!E14</f>
         <v>34.956137101696598</v>
       </c>
       <c r="C14">
@@ -1244,14 +1245,14 @@
         <v>-0.27870496622239227</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15">
         <f>ID_108!C15</f>
         <v>37</v>
       </c>
       <c r="B15">
-        <f>SUM('all_VP_shore length'!B15:D15)</f>
-        <v>116.01941660336706</v>
+        <f>'all_VP_shore length'!E15</f>
+        <v>116.01941660336701</v>
       </c>
       <c r="C15">
         <f>ID_108!L15</f>
@@ -1262,14 +1263,14 @@
         <v>-0.21753619486035208</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16">
         <f>ID_108!C16</f>
         <v>38</v>
       </c>
       <c r="B16">
-        <f>SUM('all_VP_shore length'!B16:D16)</f>
-        <v>186.69224763007361</v>
+        <f>'all_VP_shore length'!E16</f>
+        <v>186.69224763007401</v>
       </c>
       <c r="C16">
         <f>ID_108!L16</f>
@@ -1280,14 +1281,14 @@
         <v>-0.34755734322875853</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17">
         <f>ID_108!C17</f>
         <v>44</v>
       </c>
       <c r="B17">
-        <f>SUM('all_VP_shore length'!B17:D17)</f>
-        <v>126.15438470255253</v>
+        <f>'all_VP_shore length'!E17</f>
+        <v>126.15438470255199</v>
       </c>
       <c r="C17">
         <f>ID_108!L17</f>
@@ -1298,14 +1299,14 @@
         <v>-0.35533717569749024</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18">
         <f>ID_108!C18</f>
         <v>45</v>
       </c>
       <c r="B18">
-        <f>SUM('all_VP_shore length'!B18:D18)</f>
-        <v>225.2282474164731</v>
+        <f>'all_VP_shore length'!E18</f>
+        <v>225.22824741647301</v>
       </c>
       <c r="C18">
         <f>ID_108!L18</f>
@@ -1316,14 +1317,14 @@
         <v>-0.32651677284317338</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19">
         <f>ID_108!C19</f>
         <v>46</v>
       </c>
       <c r="B19">
-        <f>SUM('all_VP_shore length'!B19:D19)</f>
-        <v>218.78152272044258</v>
+        <f>'all_VP_shore length'!E19</f>
+        <v>218.78152272044301</v>
       </c>
       <c r="C19">
         <f>ID_108!L19</f>
@@ -1334,14 +1335,14 @@
         <v>-0.33336307888530248</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20">
         <f>ID_108!C20</f>
         <v>47</v>
       </c>
       <c r="B20">
-        <f>SUM('all_VP_shore length'!B20:D20)</f>
-        <v>171.44517989973011</v>
+        <f>'all_VP_shore length'!E20</f>
+        <v>171.44517989972999</v>
       </c>
       <c r="C20">
         <f>ID_108!L20</f>
@@ -1352,14 +1353,14 @@
         <v>-0.40721169528599827</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21">
         <f>ID_108!C21</f>
         <v>48</v>
       </c>
       <c r="B21">
-        <f>SUM('all_VP_shore length'!B21:D21)</f>
-        <v>273.80849320371965</v>
+        <f>'all_VP_shore length'!E21</f>
+        <v>273.80849320371902</v>
       </c>
       <c r="C21">
         <f>ID_108!L21</f>
@@ -1370,14 +1371,14 @@
         <v>-0.36963766756270439</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22">
         <f>ID_108!C22</f>
         <v>49</v>
       </c>
       <c r="B22">
-        <f>SUM('all_VP_shore length'!B22:D22)</f>
-        <v>20.486292333526137</v>
+        <f>'all_VP_shore length'!E22</f>
+        <v>20.486292333526102</v>
       </c>
       <c r="C22">
         <f>ID_108!L22</f>
@@ -1388,14 +1389,14 @@
         <v>-0.15989768553367753</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23">
         <f>ID_108!C23</f>
         <v>56</v>
       </c>
       <c r="B23">
-        <f>SUM('all_VP_shore length'!B23:D23)</f>
-        <v>894.11629375697021</v>
+        <f>'all_VP_shore length'!E23</f>
+        <v>894.11629375696998</v>
       </c>
       <c r="C23">
         <f>ID_108!L23</f>
@@ -1406,13 +1407,13 @@
         <v>-0.52615807012696958</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24">
         <f>ID_108!C24</f>
         <v>57</v>
       </c>
       <c r="B24">
-        <f>SUM('all_VP_shore length'!B24:D24)</f>
+        <f>'all_VP_shore length'!E24</f>
         <v>5.7362150556347098</v>
       </c>
       <c r="C24">
@@ -1424,14 +1425,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25">
         <f>ID_108!C25</f>
         <v>59</v>
       </c>
       <c r="B25">
-        <f>SUM('all_VP_shore length'!B25:D25)</f>
-        <v>58.296311953558281</v>
+        <f>'all_VP_shore length'!E25</f>
+        <v>58.296311953558302</v>
       </c>
       <c r="C25">
         <f>ID_108!L25</f>
@@ -1442,13 +1443,13 @@
         <v>-0.14224308927852178</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26">
         <f>ID_108!C26</f>
         <v>62</v>
       </c>
       <c r="B26">
-        <f>SUM('all_VP_shore length'!B26:D26)</f>
+        <f>'all_VP_shore length'!E26</f>
         <v>17.518985135487799</v>
       </c>
       <c r="C26">
@@ -1460,14 +1461,14 @@
         <v>-0.22158272910396501</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27">
         <f>ID_108!C27</f>
         <v>68</v>
       </c>
       <c r="B27">
-        <f>SUM('all_VP_shore length'!B27:D27)</f>
-        <v>20.173042414759863</v>
+        <f>'all_VP_shore length'!E27</f>
+        <v>20.173042414759902</v>
       </c>
       <c r="C27">
         <f>ID_108!L27</f>
@@ -1478,14 +1479,14 @@
         <v>-0.27118573172237376</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28">
         <f>ID_108!C28</f>
         <v>72</v>
       </c>
       <c r="B28">
-        <f>SUM('all_VP_shore length'!B28:D28)</f>
-        <v>36.478659061909319</v>
+        <f>'all_VP_shore length'!E28</f>
+        <v>36.478659061909397</v>
       </c>
       <c r="C28">
         <f>ID_108!L28</f>
@@ -1496,14 +1497,14 @@
         <v>-0.37380100374880065</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29">
         <f>ID_108!C29</f>
         <v>74</v>
       </c>
       <c r="B29">
-        <f>SUM('all_VP_shore length'!B29:D29)</f>
-        <v>195.19520583643316</v>
+        <f>'all_VP_shore length'!E29</f>
+        <v>195.19520583643299</v>
       </c>
       <c r="C29">
         <f>ID_108!L29</f>
@@ -1514,14 +1515,14 @@
         <v>-0.57761101746602084</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30">
         <f>ID_108!C30</f>
         <v>80</v>
       </c>
       <c r="B30">
-        <f>SUM('all_VP_shore length'!B30:D30)</f>
-        <v>59.732124284938195</v>
+        <f>'all_VP_shore length'!E30</f>
+        <v>59.732124284938202</v>
       </c>
       <c r="C30">
         <f>ID_108!L30</f>
@@ -1532,14 +1533,14 @@
         <v>-0.18543810233724753</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31">
         <f>ID_108!C31</f>
         <v>82</v>
       </c>
       <c r="B31">
-        <f>SUM('all_VP_shore length'!B31:D31)</f>
-        <v>124.26401219854804</v>
+        <f>'all_VP_shore length'!E31</f>
+        <v>124.264012198549</v>
       </c>
       <c r="C31">
         <f>ID_108!L31</f>
@@ -1550,14 +1551,14 @@
         <v>-0.16797461734547633</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32">
         <f>ID_108!C32</f>
         <v>83</v>
       </c>
       <c r="B32">
-        <f>SUM('all_VP_shore length'!B32:D32)</f>
-        <v>320.92094955731329</v>
+        <f>'all_VP_shore length'!E32</f>
+        <v>320.92094955731301</v>
       </c>
       <c r="C32">
         <f>ID_108!L32</f>
@@ -1568,13 +1569,13 @@
         <v>-0.3831424977047439</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33">
         <f>ID_108!C33</f>
         <v>84</v>
       </c>
       <c r="B33">
-        <f>SUM('all_VP_shore length'!B33:D33)</f>
+        <f>'all_VP_shore length'!E33</f>
         <v>16.399972223192702</v>
       </c>
       <c r="C33">
@@ -1586,13 +1587,13 @@
         <v>-0.21260068658663531</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34">
         <f>ID_108!C34</f>
         <v>85</v>
       </c>
       <c r="B34">
-        <f>SUM('all_VP_shore length'!B34:D34)</f>
+        <f>'all_VP_shore length'!E34</f>
         <v>23.0100338469883</v>
       </c>
       <c r="C34">
@@ -1604,14 +1605,14 @@
         <v>-0.19419191333027611</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35">
         <f>ID_108!C35</f>
         <v>86</v>
       </c>
       <c r="B35">
-        <f>SUM('all_VP_shore length'!B35:D35)</f>
-        <v>41.99671218498159</v>
+        <f>'all_VP_shore length'!E35</f>
+        <v>41.996712184981597</v>
       </c>
       <c r="C35">
         <f>ID_108!L35</f>
@@ -1622,14 +1623,14 @@
         <v>-1.3704074435594995</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36">
         <f>ID_108!C36</f>
         <v>87</v>
       </c>
       <c r="B36">
-        <f>SUM('all_VP_shore length'!B36:D36)</f>
-        <v>269.38297539802772</v>
+        <f>'all_VP_shore length'!E36</f>
+        <v>269.38297539802801</v>
       </c>
       <c r="C36">
         <f>ID_108!L36</f>
@@ -1640,14 +1641,14 @@
         <v>-0.34594718152457338</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37">
         <f>ID_108!C37</f>
         <v>89</v>
       </c>
       <c r="B37">
-        <f>SUM('all_VP_shore length'!B37:D37)</f>
-        <v>30.538420168720279</v>
+        <f>'all_VP_shore length'!E37</f>
+        <v>30.5384201687203</v>
       </c>
       <c r="C37">
         <f>ID_108!L37</f>
@@ -1658,14 +1659,14 @@
         <v>-0.66132290823537176</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38">
         <f>ID_108!C38</f>
         <v>90</v>
       </c>
       <c r="B38">
-        <f>SUM('all_VP_shore length'!B38:D38)</f>
-        <v>401.20389092817055</v>
+        <f>'all_VP_shore length'!E38</f>
+        <v>401.20389092817101</v>
       </c>
       <c r="C38">
         <f>ID_108!L38</f>
@@ -1676,14 +1677,14 @@
         <v>-0.38678735315178514</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39">
         <f>ID_108!C39</f>
         <v>92</v>
       </c>
       <c r="B39">
-        <f>SUM('all_VP_shore length'!B39:D39)</f>
-        <v>100.22835594448023</v>
+        <f>'all_VP_shore length'!E39</f>
+        <v>100.22835594448</v>
       </c>
       <c r="C39">
         <f>ID_108!L39</f>
@@ -1694,14 +1695,14 @@
         <v>-0.21381824373782748</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40">
         <f>ID_108!C40</f>
         <v>93</v>
       </c>
       <c r="B40">
-        <f>SUM('all_VP_shore length'!B40:D40)</f>
-        <v>1232.8315597827852</v>
+        <f>'all_VP_shore length'!E40</f>
+        <v>1232.83155978279</v>
       </c>
       <c r="C40">
         <f>ID_108!L40</f>
@@ -1712,14 +1713,14 @@
         <v>-0.45781753560050525</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41">
         <f>ID_108!C41</f>
         <v>95</v>
       </c>
       <c r="B41">
-        <f>SUM('all_VP_shore length'!B41:D41)</f>
-        <v>88.944321452854197</v>
+        <f>'all_VP_shore length'!E41</f>
+        <v>88.944321452854297</v>
       </c>
       <c r="C41">
         <f>ID_108!L41</f>
@@ -1730,14 +1731,14 @@
         <v>-0.46970618019983168</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42">
         <f>ID_108!C42</f>
         <v>96</v>
       </c>
       <c r="B42">
-        <f>SUM('all_VP_shore length'!B42:D42)</f>
-        <v>114.48282210658479</v>
+        <f>'all_VP_shore length'!E42</f>
+        <v>114.482822106584</v>
       </c>
       <c r="C42">
         <f>ID_108!L42</f>
@@ -1748,14 +1749,14 @@
         <v>-0.28936031530724099</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A43">
         <f>ID_108!C43</f>
         <v>101</v>
       </c>
       <c r="B43">
-        <f>SUM('all_VP_shore length'!B43:D43)</f>
-        <v>52.524517174948627</v>
+        <f>'all_VP_shore length'!E43</f>
+        <v>52.524517174948599</v>
       </c>
       <c r="C43">
         <f>ID_108!L43</f>
@@ -1766,14 +1767,14 @@
         <v>-0.57911523552225452</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44">
         <f>ID_108!C44</f>
         <v>102</v>
       </c>
       <c r="B44">
-        <f>SUM('all_VP_shore length'!B44:D44)</f>
-        <v>130.84910534915235</v>
+        <f>'all_VP_shore length'!E44</f>
+        <v>130.84910534915201</v>
       </c>
       <c r="C44">
         <f>ID_108!L44</f>
@@ -1784,14 +1785,14 @@
         <v>-0.7850219337275165</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45">
         <f>ID_108!C45</f>
         <v>103</v>
       </c>
       <c r="B45">
-        <f>SUM('all_VP_shore length'!B45:D45)</f>
-        <v>147.32171751391439</v>
+        <f>'all_VP_shore length'!E45</f>
+        <v>147.321717513914</v>
       </c>
       <c r="C45">
         <f>ID_108!L45</f>
@@ -1802,14 +1803,14 @@
         <v>-0.18993069660248696</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46">
         <f>ID_108!C46</f>
         <v>104</v>
       </c>
       <c r="B46">
-        <f>SUM('all_VP_shore length'!B46:D46)</f>
-        <v>41.104538997464559</v>
+        <f>'all_VP_shore length'!E46</f>
+        <v>41.104538997464601</v>
       </c>
       <c r="C46">
         <f>ID_108!L46</f>
@@ -1820,14 +1821,14 @@
         <v>-0.3298002078098779</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47">
         <f>ID_108!C47</f>
         <v>105</v>
       </c>
       <c r="B47">
-        <f>SUM('all_VP_shore length'!B47:D47)</f>
-        <v>108.39688441996208</v>
+        <f>'all_VP_shore length'!E47</f>
+        <v>108.39688441996201</v>
       </c>
       <c r="C47">
         <f>ID_108!L47</f>
@@ -1838,14 +1839,14 @@
         <v>-0.35502347446147614</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48">
         <f>ID_108!C48</f>
         <v>106</v>
       </c>
       <c r="B48">
-        <f>SUM('all_VP_shore length'!B48:D48)</f>
-        <v>225.7864402687409</v>
+        <f>'all_VP_shore length'!E48</f>
+        <v>225.78644026874099</v>
       </c>
       <c r="C48">
         <f>ID_108!L48</f>
@@ -1856,14 +1857,14 @@
         <v>-0.42467660795749906</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A49">
         <f>ID_108!C49</f>
         <v>107</v>
       </c>
       <c r="B49">
-        <f>SUM('all_VP_shore length'!B49:D49)</f>
-        <v>293.74004319465752</v>
+        <f>'all_VP_shore length'!E49</f>
+        <v>293.74004319465701</v>
       </c>
       <c r="C49">
         <f>ID_108!L49</f>
@@ -1874,14 +1875,14 @@
         <v>-0.39131480564960403</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A50">
         <f>ID_108!C50</f>
         <v>108</v>
       </c>
       <c r="B50">
-        <f>SUM('all_VP_shore length'!B50:D50)</f>
-        <v>48.33702644177297</v>
+        <f>'all_VP_shore length'!E50</f>
+        <v>48.337026441772899</v>
       </c>
       <c r="C50">
         <f>ID_108!L50</f>
@@ -1892,14 +1893,14 @@
         <v>-0.23147280720157978</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51">
         <f>ID_108!C51</f>
         <v>109</v>
       </c>
       <c r="B51">
-        <f>SUM('all_VP_shore length'!B51:D51)</f>
-        <v>132.86487738822473</v>
+        <f>'all_VP_shore length'!E51</f>
+        <v>132.86487738822399</v>
       </c>
       <c r="C51">
         <f>ID_108!L51</f>
@@ -1910,14 +1911,14 @@
         <v>-0.2038077316072136</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A52">
         <f>ID_108!C52</f>
         <v>110</v>
       </c>
       <c r="B52">
-        <f>SUM('all_VP_shore length'!B52:D52)</f>
-        <v>94.481392764975411</v>
+        <f>'all_VP_shore length'!E52</f>
+        <v>94.481392764975396</v>
       </c>
       <c r="C52">
         <f>ID_108!L52</f>
@@ -1928,14 +1929,14 @@
         <v>-0.45314559518541536</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A53">
         <f>ID_108!C53</f>
         <v>111</v>
       </c>
       <c r="B53">
-        <f>SUM('all_VP_shore length'!B53:D53)</f>
-        <v>1595.3556807914761</v>
+        <f>'all_VP_shore length'!E53</f>
+        <v>1595.3556807914799</v>
       </c>
       <c r="C53">
         <f>ID_108!L53</f>
@@ -1946,14 +1947,14 @@
         <v>-0.30886143117555254</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A54">
         <f>ID_108!C54</f>
         <v>113</v>
       </c>
       <c r="B54">
-        <f>SUM('all_VP_shore length'!B54:D54)</f>
-        <v>47.331033637877795</v>
+        <f>'all_VP_shore length'!E54</f>
+        <v>47.331033637877802</v>
       </c>
       <c r="C54">
         <f>ID_108!L54</f>
@@ -1964,14 +1965,14 @@
         <v>-0.69700948446022792</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A55">
         <f>ID_108!C55</f>
         <v>114</v>
       </c>
       <c r="B55">
-        <f>SUM('all_VP_shore length'!B55:D55)</f>
-        <v>121.23493742399985</v>
+        <f>'all_VP_shore length'!E55</f>
+        <v>121.234937423999</v>
       </c>
       <c r="C55">
         <f>ID_108!L55</f>
@@ -1982,14 +1983,14 @@
         <v>-0.34076106365774606</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A56">
         <f>ID_108!C56</f>
         <v>119</v>
       </c>
       <c r="B56">
-        <f>SUM('all_VP_shore length'!B56:D56)</f>
-        <v>342.06958556940481</v>
+        <f>'all_VP_shore length'!E56</f>
+        <v>342.06958556940401</v>
       </c>
       <c r="C56">
         <f>ID_108!L56</f>
@@ -2000,14 +2001,14 @@
         <v>-1.2184236525581895</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A57">
         <f>ID_108!C57</f>
         <v>120</v>
       </c>
       <c r="B57">
-        <f>SUM('all_VP_shore length'!B57:D57)</f>
-        <v>1572.1653253730215</v>
+        <f>'all_VP_shore length'!E57</f>
+        <v>1572.1653253730201</v>
       </c>
       <c r="C57">
         <f>ID_108!L57</f>
@@ -2018,14 +2019,14 @@
         <v>-0.23162379074341521</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A58">
         <f>ID_108!C58</f>
         <v>121</v>
       </c>
       <c r="B58">
-        <f>SUM('all_VP_shore length'!B58:D58)</f>
-        <v>1937.8365410542349</v>
+        <f>'all_VP_shore length'!E58</f>
+        <v>1937.8365410542399</v>
       </c>
       <c r="C58">
         <f>ID_108!L58</f>
@@ -2036,14 +2037,14 @@
         <v>-0.44164025962954095</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A59">
         <f>ID_108!C59</f>
         <v>122</v>
       </c>
       <c r="B59">
-        <f>SUM('all_VP_shore length'!B59:D59)</f>
-        <v>514.9790229884245</v>
+        <f>'all_VP_shore length'!E59</f>
+        <v>514.97902298842405</v>
       </c>
       <c r="C59">
         <f>ID_108!L59</f>
@@ -2054,13 +2055,13 @@
         <v>-0.41642816243851788</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A60">
         <f>ID_108!C60</f>
         <v>123</v>
       </c>
       <c r="B60">
-        <f>SUM('all_VP_shore length'!B60:D60)</f>
+        <f>'all_VP_shore length'!E60</f>
         <v>636.48286634852798</v>
       </c>
       <c r="C60">
@@ -2072,14 +2073,14 @@
         <v>-0.70938742044928615</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A61">
         <f>ID_108!C61</f>
         <v>124</v>
       </c>
       <c r="B61">
-        <f>SUM('all_VP_shore length'!B61:D61)</f>
-        <v>452.10448699112374</v>
+        <f>'all_VP_shore length'!E61</f>
+        <v>452.10448699112402</v>
       </c>
       <c r="C61">
         <f>ID_108!L61</f>
@@ -2090,14 +2091,14 @@
         <v>-0.49392468743501822</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A62">
         <f>ID_108!C62</f>
         <v>125</v>
       </c>
       <c r="B62">
-        <f>SUM('all_VP_shore length'!B62:D62)</f>
-        <v>69.460927030459871</v>
+        <f>'all_VP_shore length'!E62</f>
+        <v>69.4609270304598</v>
       </c>
       <c r="C62">
         <f>ID_108!L62</f>
@@ -2108,14 +2109,14 @@
         <v>-0.47972253305427148</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A63">
         <f>ID_108!C63</f>
         <v>127</v>
       </c>
       <c r="B63">
-        <f>SUM('all_VP_shore length'!B63:D63)</f>
-        <v>43.516170574566061</v>
+        <f>'all_VP_shore length'!E63</f>
+        <v>43.516170574566097</v>
       </c>
       <c r="C63">
         <f>ID_108!L63</f>
@@ -2126,14 +2127,14 @@
         <v>-0.37129129105774533</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A64">
         <f>ID_108!C64</f>
         <v>128</v>
       </c>
       <c r="B64">
-        <f>SUM('all_VP_shore length'!B64:D64)</f>
-        <v>675.66221480313766</v>
+        <f>'all_VP_shore length'!E64</f>
+        <v>675.662214803138</v>
       </c>
       <c r="C64">
         <f>ID_108!L64</f>
@@ -2144,14 +2145,14 @@
         <v>-0.39883680528909932</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A65">
         <f>ID_108!C65</f>
         <v>129</v>
       </c>
       <c r="B65">
-        <f>SUM('all_VP_shore length'!B65:D65)</f>
-        <v>328.79356061737832</v>
+        <f>'all_VP_shore length'!E65</f>
+        <v>328.79356061737798</v>
       </c>
       <c r="C65">
         <f>ID_108!L65</f>
@@ -2162,13 +2163,13 @@
         <v>-0.47726409326116748</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A66">
         <f>ID_108!C66</f>
         <v>130</v>
       </c>
       <c r="B66">
-        <f>SUM('all_VP_shore length'!B66:D66)</f>
+        <f>'all_VP_shore length'!E66</f>
         <v>113.43935295165799</v>
       </c>
       <c r="C66">
@@ -2180,14 +2181,14 @@
         <v>-0.36193919256754759</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67">
         <f>ID_108!C67</f>
         <v>131</v>
       </c>
       <c r="B67">
-        <f>SUM('all_VP_shore length'!B67:D67)</f>
-        <v>1186.3249161879696</v>
+        <f>'all_VP_shore length'!E67</f>
+        <v>1186.3249161879701</v>
       </c>
       <c r="C67">
         <f>ID_108!L67</f>
@@ -2198,13 +2199,13 @@
         <v>-0.47057240742949308</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A68">
         <f>ID_108!C68</f>
         <v>132</v>
       </c>
       <c r="B68">
-        <f>SUM('all_VP_shore length'!B68:D68)</f>
+        <f>'all_VP_shore length'!E68</f>
         <v>3416.9028824504799</v>
       </c>
       <c r="C68">
@@ -2216,14 +2217,14 @@
         <v>-0.49996509330097438</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A69">
         <f>ID_108!C69</f>
         <v>133</v>
       </c>
       <c r="B69">
-        <f>SUM('all_VP_shore length'!B69:D69)</f>
-        <v>125.70335521239269</v>
+        <f>'all_VP_shore length'!E69</f>
+        <v>125.703355212392</v>
       </c>
       <c r="C69">
         <f>ID_108!L69</f>
@@ -2234,14 +2235,14 @@
         <v>-0.81921720007650878</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A70">
         <f>ID_108!C70</f>
         <v>136</v>
       </c>
       <c r="B70">
-        <f>SUM('all_VP_shore length'!B70:D70)</f>
-        <v>4112.7465827793294</v>
+        <f>'all_VP_shore length'!E70</f>
+        <v>4112.7465827793303</v>
       </c>
       <c r="C70">
         <f>ID_108!L70</f>
@@ -2252,14 +2253,14 @@
         <v>-0.57868058796229849</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A71">
         <f>ID_108!C71</f>
         <v>137</v>
       </c>
       <c r="B71">
-        <f>SUM('all_VP_shore length'!B71:D71)</f>
-        <v>147.30647269239719</v>
+        <f>'all_VP_shore length'!E71</f>
+        <v>147.30647269239699</v>
       </c>
       <c r="C71">
         <f>ID_108!L71</f>
@@ -2270,14 +2271,14 @@
         <v>-0.24953663007035887</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A72">
         <f>ID_108!C72</f>
         <v>138</v>
       </c>
       <c r="B72">
-        <f>SUM('all_VP_shore length'!B72:D72)</f>
-        <v>205.75001481404766</v>
+        <f>'all_VP_shore length'!E72</f>
+        <v>205.75001481404701</v>
       </c>
       <c r="C72">
         <f>ID_108!L72</f>
@@ -2288,13 +2289,13 @@
         <v>-0.73997696054951678</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A73">
         <f>ID_108!C73</f>
         <v>139</v>
       </c>
       <c r="B73">
-        <f>SUM('all_VP_shore length'!B73:D73)</f>
+        <f>'all_VP_shore length'!E73</f>
         <v>25.0021884820497</v>
       </c>
       <c r="C73">
@@ -2306,13 +2307,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A74">
         <f>ID_108!C74</f>
         <v>140</v>
       </c>
       <c r="B74">
-        <f>SUM('all_VP_shore length'!B74:D74)</f>
+        <f>'all_VP_shore length'!E74</f>
         <v>745.68046302749303</v>
       </c>
       <c r="C74">
@@ -2324,14 +2325,14 @@
         <v>-0.60066155214535666</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A75">
         <f>ID_108!C75</f>
         <v>141</v>
       </c>
       <c r="B75">
-        <f>SUM('all_VP_shore length'!B75:D75)</f>
-        <v>62.880801409773355</v>
+        <f>'all_VP_shore length'!E75</f>
+        <v>62.880801409773497</v>
       </c>
       <c r="C75">
         <f>ID_108!L75</f>
@@ -2342,13 +2343,13 @@
         <v>-1.6457002544010422</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A76">
         <f>ID_108!C76</f>
         <v>142</v>
       </c>
       <c r="B76">
-        <f>SUM('all_VP_shore length'!B76:D76)</f>
+        <f>'all_VP_shore length'!E76</f>
         <v>22.559917431177801</v>
       </c>
       <c r="C76">
@@ -2360,14 +2361,14 @@
         <v>-0.53030058986927175</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A77">
         <f>ID_108!C77</f>
         <v>144</v>
       </c>
       <c r="B77">
-        <f>SUM('all_VP_shore length'!B77:D77)</f>
-        <v>29.647457902550997</v>
+        <f>'all_VP_shore length'!E77</f>
+        <v>29.647457902551</v>
       </c>
       <c r="C77">
         <f>ID_108!L77</f>
@@ -2378,14 +2379,14 @@
         <v>-0.44727459267826825</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A78">
         <f>ID_108!C78</f>
         <v>145</v>
       </c>
       <c r="B78">
-        <f>SUM('all_VP_shore length'!B78:D78)</f>
-        <v>312.38100264840807</v>
+        <f>'all_VP_shore length'!E78</f>
+        <v>312.38100264840898</v>
       </c>
       <c r="C78">
         <f>ID_108!L78</f>
@@ -2396,14 +2397,14 @@
         <v>-0.5458509059253458</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A79">
         <f>ID_108!C79</f>
         <v>146</v>
       </c>
       <c r="B79">
-        <f>SUM('all_VP_shore length'!B79:D79)</f>
-        <v>200.8012884961625</v>
+        <f>'all_VP_shore length'!E79</f>
+        <v>200.80128849616301</v>
       </c>
       <c r="C79">
         <f>ID_108!L79</f>
@@ -2414,13 +2415,13 @@
         <v>-0.33752718282793215</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A80">
         <f>ID_108!C80</f>
         <v>147</v>
       </c>
       <c r="B80">
-        <f>SUM('all_VP_shore length'!B80:D80)</f>
+        <f>'all_VP_shore length'!E80</f>
         <v>686.70647201660597</v>
       </c>
       <c r="C80">
@@ -2432,14 +2433,14 @@
         <v>-0.61082690051456301</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81">
         <f>ID_108!C81</f>
         <v>154</v>
       </c>
       <c r="B81">
-        <f>SUM('all_VP_shore length'!B81:D81)</f>
-        <v>162.07382725403903</v>
+        <f>'all_VP_shore length'!E81</f>
+        <v>162.07382725404</v>
       </c>
       <c r="C81">
         <f>ID_108!L81</f>
@@ -2450,14 +2451,14 @@
         <v>-1.5573901287579945</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82">
         <f>ID_108!C82</f>
         <v>157</v>
       </c>
       <c r="B82">
-        <f>SUM('all_VP_shore length'!B82:D82)</f>
-        <v>1460.0158619737629</v>
+        <f>'all_VP_shore length'!E82</f>
+        <v>1460.0158619737599</v>
       </c>
       <c r="C82">
         <f>ID_108!L82</f>
@@ -2468,14 +2469,14 @@
         <v>-0.48816977778106219</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83">
         <f>ID_108!C83</f>
         <v>158</v>
       </c>
       <c r="B83">
-        <f>SUM('all_VP_shore length'!B83:D83)</f>
-        <v>1043.7843129084715</v>
+        <f>'all_VP_shore length'!E83</f>
+        <v>1043.7843129084699</v>
       </c>
       <c r="C83">
         <f>ID_108!L83</f>
@@ -2486,14 +2487,14 @@
         <v>-0.39442879518630602</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84">
         <f>ID_108!C84</f>
         <v>159</v>
       </c>
       <c r="B84">
-        <f>SUM('all_VP_shore length'!B84:D84)</f>
-        <v>294.26989524288922</v>
+        <f>'all_VP_shore length'!E84</f>
+        <v>294.26989524289002</v>
       </c>
       <c r="C84">
         <f>ID_108!L84</f>
@@ -2504,14 +2505,14 @@
         <v>-0.48779910483210226</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85">
         <f>ID_108!C85</f>
         <v>160</v>
       </c>
       <c r="B85">
-        <f>SUM('all_VP_shore length'!B85:D85)</f>
-        <v>270.57179279592873</v>
+        <f>'all_VP_shore length'!E85</f>
+        <v>270.57179279592901</v>
       </c>
       <c r="C85">
         <f>ID_108!L85</f>
@@ -2522,14 +2523,14 @@
         <v>-0.52047428622417946</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86">
         <f>ID_108!C86</f>
         <v>165</v>
       </c>
       <c r="B86">
-        <f>SUM('all_VP_shore length'!B86:D86)</f>
-        <v>472.78061081153612</v>
+        <f>'all_VP_shore length'!E86</f>
+        <v>472.78061081153601</v>
       </c>
       <c r="C86">
         <f>ID_108!L86</f>
@@ -2540,14 +2541,14 @@
         <v>-0.32641633327787273</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87">
         <f>ID_108!C87</f>
         <v>200</v>
       </c>
       <c r="B87">
-        <f>SUM('all_VP_shore length'!B87:D87)</f>
-        <v>389.57178127892712</v>
+        <f>'all_VP_shore length'!E87</f>
+        <v>389.57178127892701</v>
       </c>
       <c r="C87">
         <f>ID_108!L87</f>
@@ -2558,14 +2559,14 @@
         <v>-0.98130519183863485</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88">
         <f>ID_108!C88</f>
         <v>201</v>
       </c>
       <c r="B88">
-        <f>SUM('all_VP_shore length'!B88:D88)</f>
-        <v>722.86841583883881</v>
+        <f>'all_VP_shore length'!E88</f>
+        <v>722.86841583883904</v>
       </c>
       <c r="C88">
         <f>ID_108!L88</f>
@@ -2576,14 +2577,14 @@
         <v>-0.55326128157952736</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89">
         <f>ID_108!C89</f>
         <v>204</v>
       </c>
       <c r="B89">
-        <f>SUM('all_VP_shore length'!B89:D89)</f>
-        <v>931.92840493760275</v>
+        <f>'all_VP_shore length'!E89</f>
+        <v>931.92840493760298</v>
       </c>
       <c r="C89">
         <f>ID_108!L89</f>
@@ -2594,14 +2595,14 @@
         <v>-0.3892511301792187</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90">
         <f>ID_108!C90</f>
         <v>206</v>
       </c>
       <c r="B90">
-        <f>SUM('all_VP_shore length'!B90:D90)</f>
-        <v>192.81624598157381</v>
+        <f>'all_VP_shore length'!E90</f>
+        <v>192.81624598157299</v>
       </c>
       <c r="C90">
         <f>ID_108!L90</f>
@@ -2612,14 +2613,14 @@
         <v>-0.41847828230826473</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91">
         <f>ID_108!C91</f>
         <v>207</v>
       </c>
       <c r="B91">
-        <f>SUM('all_VP_shore length'!B91:D91)</f>
-        <v>184.54181190989749</v>
+        <f>'all_VP_shore length'!E91</f>
+        <v>184.54181190989701</v>
       </c>
       <c r="C91">
         <f>ID_108!L91</f>
@@ -2630,14 +2631,14 @@
         <v>-0.2098802561919493</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92">
         <f>ID_108!C92</f>
         <v>208</v>
       </c>
       <c r="B92">
-        <f>SUM('all_VP_shore length'!B92:D92)</f>
-        <v>203.23982315998703</v>
+        <f>'all_VP_shore length'!E92</f>
+        <v>203.239823159987</v>
       </c>
       <c r="C92">
         <f>ID_108!L92</f>
@@ -2648,14 +2649,14 @@
         <v>-0.1379413552874133</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93">
         <f>ID_108!C93</f>
         <v>209</v>
       </c>
       <c r="B93">
-        <f>SUM('all_VP_shore length'!B93:D93)</f>
-        <v>250.1284794913737</v>
+        <f>'all_VP_shore length'!E93</f>
+        <v>250.12847949137401</v>
       </c>
       <c r="C93">
         <f>ID_108!L93</f>
@@ -2666,14 +2667,14 @@
         <v>-0.29555705297429352</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94">
         <f>ID_108!C94</f>
         <v>212</v>
       </c>
       <c r="B94">
-        <f>SUM('all_VP_shore length'!B94:D94)</f>
-        <v>39.388204478128046</v>
+        <f>'all_VP_shore length'!E94</f>
+        <v>39.388204478128003</v>
       </c>
       <c r="C94">
         <f>ID_108!L94</f>
@@ -2684,14 +2685,14 @@
         <v>-0.7672619337820028</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95">
         <f>ID_108!C95</f>
         <v>214</v>
       </c>
       <c r="B95">
-        <f>SUM('all_VP_shore length'!B95:D95)</f>
-        <v>494.72662018693887</v>
+        <f>'all_VP_shore length'!E95</f>
+        <v>494.72662018693899</v>
       </c>
       <c r="C95">
         <f>ID_108!L95</f>
@@ -2702,14 +2703,14 @@
         <v>-0.43437437872031187</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96">
         <f>ID_108!C96</f>
         <v>216</v>
       </c>
       <c r="B96">
-        <f>SUM('all_VP_shore length'!B96:D96)</f>
-        <v>454.71555014210026</v>
+        <f>'all_VP_shore length'!E96</f>
+        <v>454.71555014210003</v>
       </c>
       <c r="C96">
         <f>ID_108!L96</f>
@@ -2720,14 +2721,14 @@
         <v>-0.30811582353672207</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A97">
         <f>ID_108!C97</f>
         <v>217</v>
       </c>
       <c r="B97">
-        <f>SUM('all_VP_shore length'!B97:D97)</f>
-        <v>334.18849448402347</v>
+        <f>'all_VP_shore length'!E97</f>
+        <v>334.18849448402398</v>
       </c>
       <c r="C97">
         <f>ID_108!L97</f>
@@ -2738,14 +2739,14 @@
         <v>-0.36200724541324864</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A98">
         <f>ID_108!C98</f>
         <v>219</v>
       </c>
       <c r="B98">
-        <f>SUM('all_VP_shore length'!B98:D98)</f>
-        <v>419.48152340611909</v>
+        <f>'all_VP_shore length'!E98</f>
+        <v>419.48152340611898</v>
       </c>
       <c r="C98">
         <f>ID_108!L98</f>
@@ -2756,14 +2757,14 @@
         <v>-0.32697254768856843</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A99">
         <f>ID_108!C99</f>
         <v>221</v>
       </c>
       <c r="B99">
-        <f>SUM('all_VP_shore length'!B99:D99)</f>
-        <v>1610.0601127264295</v>
+        <f>'all_VP_shore length'!E99</f>
+        <v>1610.0601127264299</v>
       </c>
       <c r="C99">
         <f>ID_108!L99</f>
@@ -2774,14 +2775,14 @@
         <v>-0.77018392832969396</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A100">
         <f>ID_108!C100</f>
         <v>222</v>
       </c>
       <c r="B100">
-        <f>SUM('all_VP_shore length'!B100:D100)</f>
-        <v>819.68036282048661</v>
+        <f>'all_VP_shore length'!E100</f>
+        <v>819.68036282048604</v>
       </c>
       <c r="C100">
         <f>ID_108!L100</f>
@@ -2792,14 +2793,14 @@
         <v>-0.50687944329222667</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101">
         <f>ID_108!C101</f>
         <v>224</v>
       </c>
       <c r="B101">
-        <f>SUM('all_VP_shore length'!B101:D101)</f>
-        <v>419.43952743379458</v>
+        <f>'all_VP_shore length'!E101</f>
+        <v>419.43952743379498</v>
       </c>
       <c r="C101">
         <f>ID_108!L101</f>
@@ -2810,14 +2811,14 @@
         <v>-0.26383835019326518</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A102">
         <f>ID_108!C102</f>
         <v>225</v>
       </c>
       <c r="B102">
-        <f>SUM('all_VP_shore length'!B102:D102)</f>
-        <v>811.99942791370586</v>
+        <f>'all_VP_shore length'!E102</f>
+        <v>811.99942791370597</v>
       </c>
       <c r="C102">
         <f>ID_108!L102</f>
@@ -2828,14 +2829,14 @@
         <v>-0.92435444296338654</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A103">
         <f>ID_108!C103</f>
         <v>231</v>
       </c>
       <c r="B103">
-        <f>SUM('all_VP_shore length'!B103:D103)</f>
-        <v>104.7451712642995</v>
+        <f>'all_VP_shore length'!E103</f>
+        <v>104.745171264299</v>
       </c>
       <c r="C103">
         <f>ID_108!L103</f>
@@ -2846,14 +2847,14 @@
         <v>-1.2390167406448969</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A104">
         <f>ID_108!C104</f>
         <v>232</v>
       </c>
       <c r="B104">
-        <f>SUM('all_VP_shore length'!B104:D104)</f>
-        <v>622.28463806028901</v>
+        <f>'all_VP_shore length'!E104</f>
+        <v>622.28463806029004</v>
       </c>
       <c r="C104">
         <f>ID_108!L104</f>
@@ -2864,14 +2865,14 @@
         <v>-0.42392333832794804</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A105">
         <f>ID_108!C105</f>
         <v>233</v>
       </c>
       <c r="B105">
-        <f>SUM('all_VP_shore length'!B105:D105)</f>
-        <v>927.67161872879626</v>
+        <f>'all_VP_shore length'!E105</f>
+        <v>927.67161872879797</v>
       </c>
       <c r="C105">
         <f>ID_108!L105</f>
@@ -2882,14 +2883,14 @@
         <v>-0.31940470017562256</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A106">
         <f>ID_108!C106</f>
         <v>234</v>
       </c>
       <c r="B106">
-        <f>SUM('all_VP_shore length'!B106:D106)</f>
-        <v>630.39748505083207</v>
+        <f>'all_VP_shore length'!E106</f>
+        <v>630.39748505083298</v>
       </c>
       <c r="C106">
         <f>ID_108!L106</f>
@@ -2900,14 +2901,14 @@
         <v>-0.36481547045545226</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A107">
         <f>ID_108!C107</f>
         <v>235</v>
       </c>
       <c r="B107">
-        <f>SUM('all_VP_shore length'!B107:D107)</f>
-        <v>1918.1910706886397</v>
+        <f>'all_VP_shore length'!E107</f>
+        <v>1918.1910706886399</v>
       </c>
       <c r="C107">
         <f>ID_108!L107</f>
@@ -2918,14 +2919,14 @@
         <v>-0.41621654665699742</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A108">
         <f>ID_108!C108</f>
         <v>236</v>
       </c>
       <c r="B108">
-        <f>SUM('all_VP_shore length'!B108:D108)</f>
-        <v>625.94513916488097</v>
+        <f>'all_VP_shore length'!E108</f>
+        <v>625.94513916488199</v>
       </c>
       <c r="C108">
         <f>ID_108!L108</f>
@@ -2936,14 +2937,14 @@
         <v>-0.43727382952202681</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109">
         <f>ID_108!C109</f>
         <v>238</v>
       </c>
       <c r="B109">
-        <f>SUM('all_VP_shore length'!B109:D109)</f>
-        <v>368.10305876214818</v>
+        <f>'all_VP_shore length'!E109</f>
+        <v>368.10305876214801</v>
       </c>
       <c r="C109">
         <f>ID_108!L109</f>
@@ -2954,7 +2955,7 @@
         <v>-0.33126078425478106</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
       <c r="D110" s="26"/>
     </row>
   </sheetData>
@@ -2964,33 +2965,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5345CE1D-39D7-4E3E-83C7-2617AB338F52}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="8.88671875" customWidth="1"/>
+    <col min="5" max="5" width="9.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D1" t="s">
         <v>134</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3003,8 +3007,11 @@
       <c r="D2">
         <v>437.21199536986899</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>636.51185778548302</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3017,8 +3024,11 @@
       <c r="D3">
         <v>299.25609338418201</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3">
+        <v>416.38526189793902</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>6</v>
       </c>
@@ -3031,8 +3041,11 @@
       <c r="D4">
         <v>270.36776281285597</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4">
+        <v>578.32471689827503</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>16</v>
       </c>
@@ -3045,8 +3058,11 @@
       <c r="D5">
         <v>2.1894580606429899</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E5">
+        <v>18.704060855522901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>17</v>
       </c>
@@ -3059,16 +3075,22 @@
       <c r="D6">
         <v>12.9178949812356</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E6">
+        <v>41.272206754884202</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>18</v>
       </c>
       <c r="B7">
         <v>17.789887294684199</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E7">
+        <v>17.789887294684199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>24</v>
       </c>
@@ -3081,8 +3103,11 @@
       <c r="D8">
         <v>22.740143085629601</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E8">
+        <v>110.430641542801</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>25</v>
       </c>
@@ -3095,8 +3120,11 @@
       <c r="D9">
         <v>5.5584010253876004</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E9">
+        <v>21.322771523897998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>28</v>
       </c>
@@ -3109,8 +3137,11 @@
       <c r="D10">
         <v>106.07313581643299</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E10">
+        <v>326.520409938603</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>29</v>
       </c>
@@ -3120,8 +3151,11 @@
       <c r="D11">
         <v>16.812072785507102</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E11">
+        <v>55.719380860366101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>34</v>
       </c>
@@ -3134,8 +3168,11 @@
       <c r="D12">
         <v>160.82686049620301</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E12">
+        <v>355.132585322907</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>35</v>
       </c>
@@ -3148,8 +3185,11 @@
       <c r="D13">
         <v>1058.4989068053001</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E13">
+        <v>1222.8693964351801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>36</v>
       </c>
@@ -3159,8 +3199,11 @@
       <c r="D14">
         <v>10.229780831086201</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E14">
+        <v>34.956137101696598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>37</v>
       </c>
@@ -3173,8 +3216,11 @@
       <c r="D15">
         <v>79.797343591337096</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E15">
+        <v>116.01941660336701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>38</v>
       </c>
@@ -3187,8 +3233,11 @@
       <c r="D16">
         <v>113.629156173053</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E16">
+        <v>186.69224763007401</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>44</v>
       </c>
@@ -3201,8 +3250,11 @@
       <c r="D17">
         <v>57.8880808874599</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E17">
+        <v>126.15438470255199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>45</v>
       </c>
@@ -3215,8 +3267,11 @@
       <c r="D18">
         <v>136.583948618823</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E18">
+        <v>225.22824741647301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>46</v>
       </c>
@@ -3229,8 +3284,11 @@
       <c r="D19">
         <v>147.17943125120101</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E19">
+        <v>218.78152272044301</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>47</v>
       </c>
@@ -3243,8 +3301,11 @@
       <c r="D20">
         <v>129.809225113808</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E20">
+        <v>171.44517989972999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>48</v>
       </c>
@@ -3257,8 +3318,11 @@
       <c r="D21">
         <v>141.595828574156</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E21">
+        <v>273.80849320371902</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>49</v>
       </c>
@@ -3268,8 +3332,11 @@
       <c r="D22">
         <v>4.39382264898674</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E22">
+        <v>20.486292333526102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>56</v>
       </c>
@@ -3282,16 +3349,22 @@
       <c r="D23">
         <v>745.33598561111296</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E23">
+        <v>894.11629375696998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>57</v>
       </c>
       <c r="B24">
         <v>5.7362150556347098</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E24">
+        <v>5.7362150556347098</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>59</v>
       </c>
@@ -3304,16 +3377,22 @@
       <c r="D25">
         <v>39.2053375319053</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E25">
+        <v>58.296311953558302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>62</v>
       </c>
       <c r="B26">
         <v>17.518985135487799</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E26">
+        <v>17.518985135487799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>68</v>
       </c>
@@ -3323,8 +3402,11 @@
       <c r="C27">
         <v>2.3584449597002601</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E27">
+        <v>20.173042414759902</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>72</v>
       </c>
@@ -3337,8 +3419,11 @@
       <c r="D28">
         <v>11.149065705208701</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E28">
+        <v>36.478659061909397</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>74</v>
       </c>
@@ -3348,8 +3433,11 @@
       <c r="D29">
         <v>191.02423721744699</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E29">
+        <v>195.19520583643299</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>80</v>
       </c>
@@ -3362,8 +3450,11 @@
       <c r="D30">
         <v>27.0193047159547</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E30">
+        <v>59.732124284938202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>82</v>
       </c>
@@ -3376,8 +3467,11 @@
       <c r="D31">
         <v>121.30517425446401</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E31">
+        <v>124.264012198549</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>83</v>
       </c>
@@ -3390,16 +3484,22 @@
       <c r="D32">
         <v>301.077531869589</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E32">
+        <v>320.92094955731301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>84</v>
       </c>
       <c r="B33">
         <v>16.399972223192702</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E33">
+        <v>16.399972223192702</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>85</v>
       </c>
@@ -3409,8 +3509,11 @@
       <c r="D34">
         <v>11.087443517582701</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>23.0100338469883</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>86</v>
       </c>
@@ -3423,8 +3526,11 @@
       <c r="D35">
         <v>22.743462520375701</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>41.996712184981597</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>87</v>
       </c>
@@ -3437,8 +3543,11 @@
       <c r="D36">
         <v>200.19728778580699</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>269.38297539802801</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>89</v>
       </c>
@@ -3451,8 +3560,11 @@
       <c r="D37">
         <v>16.320400126709401</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E37">
+        <v>30.5384201687203</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>90</v>
       </c>
@@ -3465,8 +3577,11 @@
       <c r="D38">
         <v>334.26837981251902</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E38">
+        <v>401.20389092817101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>92</v>
       </c>
@@ -3479,8 +3594,11 @@
       <c r="D39">
         <v>45.267911558546203</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E39">
+        <v>100.22835594448</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>93</v>
       </c>
@@ -3493,8 +3611,11 @@
       <c r="D40">
         <v>1152.9467996978001</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>1232.83155978279</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>95</v>
       </c>
@@ -3507,8 +3628,11 @@
       <c r="D41">
         <v>8.2720130685955002</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>88.944321452854297</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>96</v>
       </c>
@@ -3521,8 +3645,11 @@
       <c r="D42">
         <v>42.365896480621899</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>114.482822106584</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>101</v>
       </c>
@@ -3535,8 +3662,11 @@
       <c r="D43">
         <v>37.6524051088372</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <v>52.524517174948599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>102</v>
       </c>
@@ -3549,8 +3679,11 @@
       <c r="D44">
         <v>99.700060073038898</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <v>130.84910534915201</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>103</v>
       </c>
@@ -3563,8 +3696,11 @@
       <c r="D45">
         <v>69.822847474177905</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <v>147.321717513914</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>104</v>
       </c>
@@ -3577,8 +3713,11 @@
       <c r="D46">
         <v>15.089347032110901</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <v>41.104538997464601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>105</v>
       </c>
@@ -3591,8 +3730,11 @@
       <c r="D47">
         <v>65.878154986005796</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <v>108.39688441996201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>106</v>
       </c>
@@ -3605,8 +3747,11 @@
       <c r="D48">
         <v>162.853693961196</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <v>225.78644026874099</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>107</v>
       </c>
@@ -3619,8 +3764,11 @@
       <c r="D49">
         <v>231.21606545977099</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <v>293.74004319465701</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>108</v>
       </c>
@@ -3630,8 +3778,11 @@
       <c r="D50">
         <v>45.290341478448397</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <v>48.337026441772899</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>109</v>
       </c>
@@ -3644,8 +3795,11 @@
       <c r="D51">
         <v>125.88987391077301</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <v>132.86487738822399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>110</v>
       </c>
@@ -3658,8 +3812,11 @@
       <c r="D52">
         <v>72.302350683050804</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <v>94.481392764975396</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>111</v>
       </c>
@@ -3672,8 +3829,11 @@
       <c r="D53">
         <v>1443.4565043356299</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <v>1595.3556807914799</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>113</v>
       </c>
@@ -3686,8 +3846,11 @@
       <c r="D54">
         <v>30.1915332937876</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <v>47.331033637877802</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>114</v>
       </c>
@@ -3700,8 +3863,11 @@
       <c r="D55">
         <v>32.854409579508797</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <v>121.234937423999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>119</v>
       </c>
@@ -3714,8 +3880,11 @@
       <c r="D56">
         <v>200.38230465147899</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <v>342.06958556940401</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>120</v>
       </c>
@@ -3728,8 +3897,11 @@
       <c r="D57">
         <v>1501.3418717183799</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <v>1572.1653253730201</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>121</v>
       </c>
@@ -3742,8 +3914,11 @@
       <c r="D58">
         <v>1805.0182092918601</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <v>1937.8365410542399</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>122</v>
       </c>
@@ -3756,8 +3931,11 @@
       <c r="D59">
         <v>459.73721706373499</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <v>514.97902298842405</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>123</v>
       </c>
@@ -3770,8 +3948,11 @@
       <c r="D60">
         <v>595.23654262245702</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <v>636.48286634852798</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>124</v>
       </c>
@@ -3784,8 +3965,11 @@
       <c r="D61">
         <v>412.58579419599602</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <v>452.10448699112402</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>125</v>
       </c>
@@ -3798,8 +3982,11 @@
       <c r="D62">
         <v>51.402160723805302</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <v>69.4609270304598</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>127</v>
       </c>
@@ -3812,8 +3999,11 @@
       <c r="D63">
         <v>3.63007190893447</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <v>43.516170574566097</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>128</v>
       </c>
@@ -3826,8 +4016,11 @@
       <c r="D64">
         <v>584.52958172034903</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <v>675.662214803138</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>129</v>
       </c>
@@ -3840,8 +4033,11 @@
       <c r="D65">
         <v>265.114609805459</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E65">
+        <v>328.79356061737798</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>130</v>
       </c>
@@ -3851,8 +4047,11 @@
       <c r="D66">
         <v>98.4472715968015</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E66">
+        <v>113.43935295165799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>131</v>
       </c>
@@ -3865,8 +4064,11 @@
       <c r="D67">
         <v>1114.9563093904601</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E67">
+        <v>1186.3249161879701</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>132</v>
       </c>
@@ -3879,8 +4081,11 @@
       <c r="D68">
         <v>2994.81043458053</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>3416.9028824504799</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>133</v>
       </c>
@@ -3890,8 +4095,11 @@
       <c r="D69">
         <v>12.195714636174699</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>125.703355212392</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>136</v>
       </c>
@@ -3904,8 +4112,11 @@
       <c r="D70">
         <v>3664.67622612279</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>4112.7465827793303</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>137</v>
       </c>
@@ -3915,8 +4126,11 @@
       <c r="D71">
         <v>99.800854689708501</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>147.30647269239699</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>138</v>
       </c>
@@ -3929,16 +4143,22 @@
       <c r="D72">
         <v>158.04302639817601</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>205.75001481404701</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>139</v>
       </c>
       <c r="B73">
         <v>25.0021884820497</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>25.0021884820497</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>140</v>
       </c>
@@ -3951,8 +4171,11 @@
       <c r="D74">
         <v>649.59694504908202</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>745.68046302749303</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>141</v>
       </c>
@@ -3965,16 +4188,22 @@
       <c r="D75">
         <v>16.7180954285787</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>62.880801409773497</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>142</v>
       </c>
       <c r="B76">
         <v>22.559917431177801</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>22.559917431177801</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>144</v>
       </c>
@@ -3984,8 +4213,11 @@
       <c r="D77">
         <v>16.730734126956399</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>29.647457902551</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>145</v>
       </c>
@@ -3998,8 +4230,11 @@
       <c r="D78">
         <v>255.131536220687</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>312.38100264840898</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>146</v>
       </c>
@@ -4009,8 +4244,11 @@
       <c r="D79">
         <v>189.914401318882</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>200.80128849616301</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>147</v>
       </c>
@@ -4023,8 +4261,11 @@
       <c r="D80">
         <v>570.60202061092696</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>686.70647201660597</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>154</v>
       </c>
@@ -4037,8 +4278,11 @@
       <c r="D81">
         <v>27.694527342725799</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>162.07382725404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>157</v>
       </c>
@@ -4051,8 +4295,11 @@
       <c r="D82">
         <v>1214.9544503024099</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>1460.0158619737599</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>158</v>
       </c>
@@ -4065,8 +4312,11 @@
       <c r="D83">
         <v>915.98332057453104</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>1043.7843129084699</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>159</v>
       </c>
@@ -4079,8 +4329,11 @@
       <c r="D84">
         <v>243.243293660962</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>294.26989524289002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>160</v>
       </c>
@@ -4093,8 +4346,11 @@
       <c r="D85">
         <v>209.325095756683</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>270.57179279592901</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>165</v>
       </c>
@@ -4107,8 +4363,11 @@
       <c r="D86">
         <v>359.45404105297501</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>472.78061081153601</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>200</v>
       </c>
@@ -4121,8 +4380,11 @@
       <c r="D87">
         <v>222.81018946536099</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>389.57178127892701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>201</v>
       </c>
@@ -4135,8 +4397,11 @@
       <c r="D88">
         <v>544.70719860017698</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <v>722.86841583883904</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>204</v>
       </c>
@@ -4149,8 +4414,11 @@
       <c r="D89">
         <v>787.75943740203695</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <v>931.92840493760298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>206</v>
       </c>
@@ -4163,8 +4431,11 @@
       <c r="D90">
         <v>24.106918419168199</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>192.81624598157299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>207</v>
       </c>
@@ -4177,8 +4448,11 @@
       <c r="D91">
         <v>107.822399987474</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>184.54181190989701</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>208</v>
       </c>
@@ -4191,8 +4465,11 @@
       <c r="D92">
         <v>142.03722477020099</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>203.239823159987</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>209</v>
       </c>
@@ -4205,8 +4482,11 @@
       <c r="D93">
         <v>127.286010453492</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>250.12847949137401</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>212</v>
       </c>
@@ -4219,8 +4499,11 @@
       <c r="D94">
         <v>20.723934103861598</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>39.388204478128003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>214</v>
       </c>
@@ -4233,8 +4516,11 @@
       <c r="D95">
         <v>228.85784503887299</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E95">
+        <v>494.72662018693899</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>216</v>
       </c>
@@ -4247,8 +4533,11 @@
       <c r="D96">
         <v>207.17918309148999</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>454.71555014210003</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>217</v>
       </c>
@@ -4261,8 +4550,11 @@
       <c r="D97">
         <v>166.77211472137299</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>334.18849448402398</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>219</v>
       </c>
@@ -4275,8 +4567,11 @@
       <c r="D98">
         <v>195.79394918639801</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>419.48152340611898</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>221</v>
       </c>
@@ -4289,8 +4584,11 @@
       <c r="D99">
         <v>1310.1754112731001</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>1610.0601127264299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>222</v>
       </c>
@@ -4303,8 +4601,11 @@
       <c r="D100">
         <v>716.75310928716794</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>819.68036282048604</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>224</v>
       </c>
@@ -4317,8 +4618,11 @@
       <c r="D101">
         <v>367.48810298178898</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>419.43952743379498</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>225</v>
       </c>
@@ -4331,8 +4635,11 @@
       <c r="D102">
         <v>715.99194511540702</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>811.99942791370597</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>231</v>
       </c>
@@ -4342,8 +4649,11 @@
       <c r="D103">
         <v>40.208601075231201</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>104.745171264299</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>232</v>
       </c>
@@ -4356,8 +4666,11 @@
       <c r="D104">
         <v>356.78151141965401</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>622.28463806029004</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>233</v>
       </c>
@@ -4370,8 +4683,11 @@
       <c r="D105">
         <v>543.96894502012594</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <v>927.67161872879797</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>234</v>
       </c>
@@ -4384,8 +4700,11 @@
       <c r="D106">
         <v>377.164378554942</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <v>630.39748505083298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>235</v>
       </c>
@@ -4398,8 +4717,11 @@
       <c r="D107">
         <v>1644.8598187376001</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>1918.1910706886399</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>236</v>
       </c>
@@ -4412,8 +4734,11 @@
       <c r="D108">
         <v>358.007317437133</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <v>625.94513916488199</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>238</v>
       </c>
@@ -4425,6 +4750,9 @@
       </c>
       <c r="D109">
         <v>338.05644436640301</v>
+      </c>
+      <c r="E109">
+        <v>368.10305876214801</v>
       </c>
     </row>
   </sheetData>
@@ -4437,723 +4765,723 @@
   <dimension ref="A1:R111"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D88" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="D111" sqref="D111"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="7.77734375" style="4" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="34.77734375" style="13" customWidth="1"/>
-    <col min="5" max="7" width="11.77734375" style="18" customWidth="1"/>
-    <col min="8" max="9" width="11.77734375" style="18" hidden="1" customWidth="1"/>
-    <col min="10" max="13" width="11.77734375" style="18" customWidth="1"/>
-    <col min="14" max="14" width="11.77734375" style="22" customWidth="1"/>
-    <col min="15" max="15" width="11.77734375" style="17" customWidth="1"/>
-    <col min="16" max="16" width="11.77734375" style="20" customWidth="1"/>
-    <col min="17" max="17" width="11.88671875" style="13" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="256" width="8.88671875" style="13"/>
-    <col min="257" max="257" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="258" max="258" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="259" max="259" width="34.77734375" style="13" customWidth="1"/>
-    <col min="260" max="260" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="261" max="261" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="262" max="262" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="263" max="263" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="7.81640625" style="4" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="11.81640625" style="13" customWidth="1"/>
+    <col min="4" max="4" width="34.81640625" style="13" customWidth="1"/>
+    <col min="5" max="7" width="11.81640625" style="18" customWidth="1"/>
+    <col min="8" max="9" width="11.81640625" style="18" hidden="1" customWidth="1"/>
+    <col min="10" max="13" width="11.81640625" style="18" customWidth="1"/>
+    <col min="14" max="14" width="11.81640625" style="22" customWidth="1"/>
+    <col min="15" max="15" width="11.81640625" style="17" customWidth="1"/>
+    <col min="16" max="16" width="11.81640625" style="20" customWidth="1"/>
+    <col min="17" max="17" width="11.90625" style="13" customWidth="1"/>
+    <col min="18" max="18" width="18.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="19" max="256" width="8.90625" style="13"/>
+    <col min="257" max="257" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="258" max="258" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="259" max="259" width="34.81640625" style="13" customWidth="1"/>
+    <col min="260" max="260" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="261" max="261" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="262" max="262" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="263" max="263" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="264" max="264" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="265" max="267" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="268" max="269" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="270" max="512" width="8.88671875" style="13"/>
-    <col min="513" max="513" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="514" max="514" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="515" max="515" width="34.77734375" style="13" customWidth="1"/>
-    <col min="516" max="516" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="517" max="517" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="518" max="518" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="519" max="519" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="265" max="267" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="268" max="269" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="270" max="512" width="8.90625" style="13"/>
+    <col min="513" max="513" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="514" max="514" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="515" max="515" width="34.81640625" style="13" customWidth="1"/>
+    <col min="516" max="516" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="517" max="517" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="518" max="518" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="519" max="519" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="520" max="520" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="521" max="523" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="524" max="525" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="526" max="768" width="8.88671875" style="13"/>
-    <col min="769" max="769" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="770" max="770" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="771" max="771" width="34.77734375" style="13" customWidth="1"/>
-    <col min="772" max="772" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="773" max="773" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="774" max="774" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="775" max="775" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="521" max="523" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="524" max="525" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="526" max="768" width="8.90625" style="13"/>
+    <col min="769" max="769" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="770" max="770" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="771" max="771" width="34.81640625" style="13" customWidth="1"/>
+    <col min="772" max="772" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="773" max="773" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="774" max="774" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="775" max="775" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="776" max="776" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="777" max="779" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="780" max="781" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="782" max="1024" width="8.88671875" style="13"/>
-    <col min="1025" max="1025" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1026" max="1026" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1027" max="1027" width="34.77734375" style="13" customWidth="1"/>
-    <col min="1028" max="1028" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1029" max="1029" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1030" max="1030" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1031" max="1031" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="777" max="779" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="780" max="781" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="782" max="1024" width="8.90625" style="13"/>
+    <col min="1025" max="1025" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1026" max="1026" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1027" max="1027" width="34.81640625" style="13" customWidth="1"/>
+    <col min="1028" max="1028" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1029" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1030" max="1030" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1031" max="1031" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="1032" max="1032" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="1033" max="1035" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1036" max="1037" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1038" max="1280" width="8.88671875" style="13"/>
-    <col min="1281" max="1281" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1282" max="1282" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1283" max="1283" width="34.77734375" style="13" customWidth="1"/>
-    <col min="1284" max="1284" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1285" max="1285" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1286" max="1286" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1287" max="1287" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1033" max="1035" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1036" max="1037" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1038" max="1280" width="8.90625" style="13"/>
+    <col min="1281" max="1281" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1282" max="1282" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1283" max="1283" width="34.81640625" style="13" customWidth="1"/>
+    <col min="1284" max="1284" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1285" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1286" max="1286" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1287" max="1287" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="1288" max="1288" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="1289" max="1291" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1292" max="1293" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1294" max="1536" width="8.88671875" style="13"/>
-    <col min="1537" max="1537" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1538" max="1538" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1539" max="1539" width="34.77734375" style="13" customWidth="1"/>
-    <col min="1540" max="1540" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1541" max="1541" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1542" max="1542" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1543" max="1543" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1289" max="1291" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1292" max="1293" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1294" max="1536" width="8.90625" style="13"/>
+    <col min="1537" max="1537" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1538" max="1538" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1539" max="1539" width="34.81640625" style="13" customWidth="1"/>
+    <col min="1540" max="1540" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1541" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1542" max="1542" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1543" max="1543" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="1544" max="1544" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="1545" max="1547" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1548" max="1549" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1550" max="1792" width="8.88671875" style="13"/>
-    <col min="1793" max="1793" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1794" max="1794" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1795" max="1795" width="34.77734375" style="13" customWidth="1"/>
-    <col min="1796" max="1796" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1797" max="1797" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1798" max="1798" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="1799" max="1799" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1545" max="1547" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1548" max="1549" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1550" max="1792" width="8.90625" style="13"/>
+    <col min="1793" max="1793" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1794" max="1794" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1795" max="1795" width="34.81640625" style="13" customWidth="1"/>
+    <col min="1796" max="1796" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1797" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1798" max="1798" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1799" max="1799" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="1800" max="1800" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="1801" max="1803" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1804" max="1805" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="1806" max="2048" width="8.88671875" style="13"/>
-    <col min="2049" max="2049" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2050" max="2050" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2051" max="2051" width="34.77734375" style="13" customWidth="1"/>
-    <col min="2052" max="2052" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2053" max="2053" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2054" max="2054" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2055" max="2055" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1801" max="1803" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1804" max="1805" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="1806" max="2048" width="8.90625" style="13"/>
+    <col min="2049" max="2049" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2050" max="2050" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2051" max="2051" width="34.81640625" style="13" customWidth="1"/>
+    <col min="2052" max="2052" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2053" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2054" max="2054" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2055" max="2055" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="2056" max="2056" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="2057" max="2059" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2060" max="2061" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2062" max="2304" width="8.88671875" style="13"/>
-    <col min="2305" max="2305" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2306" max="2306" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2307" max="2307" width="34.77734375" style="13" customWidth="1"/>
-    <col min="2308" max="2308" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2309" max="2309" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2310" max="2310" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2311" max="2311" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2057" max="2059" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2060" max="2061" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2062" max="2304" width="8.90625" style="13"/>
+    <col min="2305" max="2305" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2306" max="2306" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2307" max="2307" width="34.81640625" style="13" customWidth="1"/>
+    <col min="2308" max="2308" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2309" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2310" max="2310" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2311" max="2311" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="2312" max="2312" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="2313" max="2315" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2316" max="2317" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2318" max="2560" width="8.88671875" style="13"/>
-    <col min="2561" max="2561" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2562" max="2562" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2563" max="2563" width="34.77734375" style="13" customWidth="1"/>
-    <col min="2564" max="2564" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2565" max="2565" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2566" max="2566" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2567" max="2567" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2313" max="2315" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2316" max="2317" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2318" max="2560" width="8.90625" style="13"/>
+    <col min="2561" max="2561" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2562" max="2562" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2563" max="2563" width="34.81640625" style="13" customWidth="1"/>
+    <col min="2564" max="2564" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2565" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2566" max="2566" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2567" max="2567" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="2568" max="2568" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="2569" max="2571" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2572" max="2573" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2574" max="2816" width="8.88671875" style="13"/>
-    <col min="2817" max="2817" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2818" max="2818" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2819" max="2819" width="34.77734375" style="13" customWidth="1"/>
-    <col min="2820" max="2820" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2821" max="2821" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2822" max="2822" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2823" max="2823" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2569" max="2571" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2572" max="2573" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2574" max="2816" width="8.90625" style="13"/>
+    <col min="2817" max="2817" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2818" max="2818" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2819" max="2819" width="34.81640625" style="13" customWidth="1"/>
+    <col min="2820" max="2820" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2821" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2822" max="2822" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="2823" max="2823" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="2824" max="2824" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="2825" max="2827" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2828" max="2829" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="2830" max="3072" width="8.88671875" style="13"/>
-    <col min="3073" max="3073" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3074" max="3074" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3075" max="3075" width="34.77734375" style="13" customWidth="1"/>
-    <col min="3076" max="3076" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3077" max="3077" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3078" max="3078" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3079" max="3079" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2825" max="2827" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2828" max="2829" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="2830" max="3072" width="8.90625" style="13"/>
+    <col min="3073" max="3073" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3074" max="3074" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3075" max="3075" width="34.81640625" style="13" customWidth="1"/>
+    <col min="3076" max="3076" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3077" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3078" max="3078" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3079" max="3079" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3080" max="3080" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="3081" max="3083" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3084" max="3085" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3086" max="3328" width="8.88671875" style="13"/>
-    <col min="3329" max="3329" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3330" max="3330" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3331" max="3331" width="34.77734375" style="13" customWidth="1"/>
-    <col min="3332" max="3332" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3333" max="3333" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3334" max="3334" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3335" max="3335" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3081" max="3083" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3084" max="3085" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3086" max="3328" width="8.90625" style="13"/>
+    <col min="3329" max="3329" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3330" max="3330" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3331" max="3331" width="34.81640625" style="13" customWidth="1"/>
+    <col min="3332" max="3332" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3333" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3334" max="3334" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3335" max="3335" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3336" max="3336" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="3337" max="3339" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3340" max="3341" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3342" max="3584" width="8.88671875" style="13"/>
-    <col min="3585" max="3585" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3586" max="3586" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3587" max="3587" width="34.77734375" style="13" customWidth="1"/>
-    <col min="3588" max="3588" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3589" max="3589" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3590" max="3590" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3591" max="3591" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3337" max="3339" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3340" max="3341" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3342" max="3584" width="8.90625" style="13"/>
+    <col min="3585" max="3585" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3586" max="3586" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3587" max="3587" width="34.81640625" style="13" customWidth="1"/>
+    <col min="3588" max="3588" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3589" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3590" max="3590" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3591" max="3591" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3592" max="3592" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="3593" max="3595" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3596" max="3597" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3598" max="3840" width="8.88671875" style="13"/>
-    <col min="3841" max="3841" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3842" max="3842" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3843" max="3843" width="34.77734375" style="13" customWidth="1"/>
-    <col min="3844" max="3844" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3845" max="3845" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3846" max="3846" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="3847" max="3847" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3593" max="3595" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3596" max="3597" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3598" max="3840" width="8.90625" style="13"/>
+    <col min="3841" max="3841" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3842" max="3842" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3843" max="3843" width="34.81640625" style="13" customWidth="1"/>
+    <col min="3844" max="3844" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3845" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3846" max="3846" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="3847" max="3847" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="3848" max="3848" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="3849" max="3851" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3852" max="3853" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3854" max="4096" width="8.88671875" style="13"/>
-    <col min="4097" max="4097" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4098" max="4098" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4099" max="4099" width="34.77734375" style="13" customWidth="1"/>
-    <col min="4100" max="4100" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4101" max="4101" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4102" max="4102" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4103" max="4103" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3849" max="3851" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3852" max="3853" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3854" max="4096" width="8.90625" style="13"/>
+    <col min="4097" max="4097" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4098" max="4098" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4099" max="4099" width="34.81640625" style="13" customWidth="1"/>
+    <col min="4100" max="4100" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4101" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4102" max="4102" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4103" max="4103" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="4104" max="4104" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="4105" max="4107" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4108" max="4109" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4110" max="4352" width="8.88671875" style="13"/>
-    <col min="4353" max="4353" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4354" max="4354" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4355" max="4355" width="34.77734375" style="13" customWidth="1"/>
-    <col min="4356" max="4356" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4357" max="4357" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4358" max="4358" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4359" max="4359" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4105" max="4107" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4108" max="4109" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4110" max="4352" width="8.90625" style="13"/>
+    <col min="4353" max="4353" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4354" max="4354" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4355" max="4355" width="34.81640625" style="13" customWidth="1"/>
+    <col min="4356" max="4356" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4357" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4358" max="4358" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4359" max="4359" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="4360" max="4360" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="4361" max="4363" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4364" max="4365" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4366" max="4608" width="8.88671875" style="13"/>
-    <col min="4609" max="4609" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4610" max="4610" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4611" max="4611" width="34.77734375" style="13" customWidth="1"/>
-    <col min="4612" max="4612" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4613" max="4613" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4614" max="4614" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4615" max="4615" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4361" max="4363" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4364" max="4365" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4366" max="4608" width="8.90625" style="13"/>
+    <col min="4609" max="4609" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4610" max="4610" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4611" max="4611" width="34.81640625" style="13" customWidth="1"/>
+    <col min="4612" max="4612" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4613" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4614" max="4614" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4615" max="4615" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="4616" max="4616" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="4617" max="4619" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4620" max="4621" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4622" max="4864" width="8.88671875" style="13"/>
-    <col min="4865" max="4865" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4866" max="4866" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4867" max="4867" width="34.77734375" style="13" customWidth="1"/>
-    <col min="4868" max="4868" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4869" max="4869" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4870" max="4870" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4871" max="4871" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4617" max="4619" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4620" max="4621" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4622" max="4864" width="8.90625" style="13"/>
+    <col min="4865" max="4865" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4866" max="4866" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4867" max="4867" width="34.81640625" style="13" customWidth="1"/>
+    <col min="4868" max="4868" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4869" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4870" max="4870" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4871" max="4871" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="4872" max="4872" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="4873" max="4875" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4876" max="4877" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4878" max="5120" width="8.88671875" style="13"/>
-    <col min="5121" max="5121" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5122" max="5122" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5123" max="5123" width="34.77734375" style="13" customWidth="1"/>
-    <col min="5124" max="5124" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5125" max="5125" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5126" max="5126" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5127" max="5127" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4873" max="4875" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4876" max="4877" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4878" max="5120" width="8.90625" style="13"/>
+    <col min="5121" max="5121" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5122" max="5122" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5123" max="5123" width="34.81640625" style="13" customWidth="1"/>
+    <col min="5124" max="5124" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5125" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5126" max="5126" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5127" max="5127" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5128" max="5128" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="5129" max="5131" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5132" max="5133" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5134" max="5376" width="8.88671875" style="13"/>
-    <col min="5377" max="5377" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5378" max="5378" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5379" max="5379" width="34.77734375" style="13" customWidth="1"/>
-    <col min="5380" max="5380" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5381" max="5381" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5382" max="5382" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5383" max="5383" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5129" max="5131" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5132" max="5133" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5134" max="5376" width="8.90625" style="13"/>
+    <col min="5377" max="5377" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5378" max="5378" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5379" max="5379" width="34.81640625" style="13" customWidth="1"/>
+    <col min="5380" max="5380" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5381" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5382" max="5382" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5383" max="5383" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5384" max="5384" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="5385" max="5387" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5388" max="5389" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5390" max="5632" width="8.88671875" style="13"/>
-    <col min="5633" max="5633" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5634" max="5634" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5635" max="5635" width="34.77734375" style="13" customWidth="1"/>
-    <col min="5636" max="5636" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5637" max="5637" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5638" max="5638" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5639" max="5639" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5385" max="5387" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5388" max="5389" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5390" max="5632" width="8.90625" style="13"/>
+    <col min="5633" max="5633" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5634" max="5634" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5635" max="5635" width="34.81640625" style="13" customWidth="1"/>
+    <col min="5636" max="5636" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5637" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5638" max="5638" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5639" max="5639" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5640" max="5640" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="5641" max="5643" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5644" max="5645" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5646" max="5888" width="8.88671875" style="13"/>
-    <col min="5889" max="5889" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5890" max="5890" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5891" max="5891" width="34.77734375" style="13" customWidth="1"/>
-    <col min="5892" max="5892" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5893" max="5893" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5894" max="5894" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5895" max="5895" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5641" max="5643" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5644" max="5645" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5646" max="5888" width="8.90625" style="13"/>
+    <col min="5889" max="5889" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5890" max="5890" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5891" max="5891" width="34.81640625" style="13" customWidth="1"/>
+    <col min="5892" max="5892" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5893" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5894" max="5894" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="5895" max="5895" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="5896" max="5896" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="5897" max="5899" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5900" max="5901" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="5902" max="6144" width="8.88671875" style="13"/>
-    <col min="6145" max="6145" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6146" max="6146" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6147" max="6147" width="34.77734375" style="13" customWidth="1"/>
-    <col min="6148" max="6148" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6149" max="6149" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6150" max="6150" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6151" max="6151" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5897" max="5899" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5900" max="5901" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="5902" max="6144" width="8.90625" style="13"/>
+    <col min="6145" max="6145" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6146" max="6146" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6147" max="6147" width="34.81640625" style="13" customWidth="1"/>
+    <col min="6148" max="6148" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6149" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6150" max="6150" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6151" max="6151" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="6152" max="6152" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="6153" max="6155" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6156" max="6157" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6158" max="6400" width="8.88671875" style="13"/>
-    <col min="6401" max="6401" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6402" max="6402" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6403" max="6403" width="34.77734375" style="13" customWidth="1"/>
-    <col min="6404" max="6404" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6405" max="6405" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6406" max="6406" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6407" max="6407" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6153" max="6155" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6156" max="6157" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6158" max="6400" width="8.90625" style="13"/>
+    <col min="6401" max="6401" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6402" max="6402" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6403" max="6403" width="34.81640625" style="13" customWidth="1"/>
+    <col min="6404" max="6404" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6405" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6406" max="6406" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6407" max="6407" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="6408" max="6408" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="6409" max="6411" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6412" max="6413" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6414" max="6656" width="8.88671875" style="13"/>
-    <col min="6657" max="6657" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6658" max="6658" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6659" max="6659" width="34.77734375" style="13" customWidth="1"/>
-    <col min="6660" max="6660" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6661" max="6661" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6662" max="6662" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6663" max="6663" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6409" max="6411" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6412" max="6413" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6414" max="6656" width="8.90625" style="13"/>
+    <col min="6657" max="6657" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6658" max="6658" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6659" max="6659" width="34.81640625" style="13" customWidth="1"/>
+    <col min="6660" max="6660" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6661" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6662" max="6662" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6663" max="6663" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="6664" max="6664" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="6665" max="6667" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6668" max="6669" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6670" max="6912" width="8.88671875" style="13"/>
-    <col min="6913" max="6913" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6914" max="6914" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6915" max="6915" width="34.77734375" style="13" customWidth="1"/>
-    <col min="6916" max="6916" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6917" max="6917" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6918" max="6918" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="6919" max="6919" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6665" max="6667" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6668" max="6669" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6670" max="6912" width="8.90625" style="13"/>
+    <col min="6913" max="6913" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6914" max="6914" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6915" max="6915" width="34.81640625" style="13" customWidth="1"/>
+    <col min="6916" max="6916" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6917" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6918" max="6918" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="6919" max="6919" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="6920" max="6920" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="6921" max="6923" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6924" max="6925" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6926" max="7168" width="8.88671875" style="13"/>
-    <col min="7169" max="7169" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7170" max="7170" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7171" max="7171" width="34.77734375" style="13" customWidth="1"/>
-    <col min="7172" max="7172" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7173" max="7173" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7174" max="7174" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7175" max="7175" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="6921" max="6923" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6924" max="6925" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6926" max="7168" width="8.90625" style="13"/>
+    <col min="7169" max="7169" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7170" max="7170" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7171" max="7171" width="34.81640625" style="13" customWidth="1"/>
+    <col min="7172" max="7172" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7173" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7174" max="7174" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7175" max="7175" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="7176" max="7176" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="7177" max="7179" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7180" max="7181" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7182" max="7424" width="8.88671875" style="13"/>
-    <col min="7425" max="7425" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7426" max="7426" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7427" max="7427" width="34.77734375" style="13" customWidth="1"/>
-    <col min="7428" max="7428" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7429" max="7429" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7430" max="7430" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7431" max="7431" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7177" max="7179" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7180" max="7181" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7182" max="7424" width="8.90625" style="13"/>
+    <col min="7425" max="7425" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7426" max="7426" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7427" max="7427" width="34.81640625" style="13" customWidth="1"/>
+    <col min="7428" max="7428" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7429" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7430" max="7430" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7431" max="7431" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="7432" max="7432" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="7433" max="7435" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7436" max="7437" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7438" max="7680" width="8.88671875" style="13"/>
-    <col min="7681" max="7681" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7682" max="7682" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7683" max="7683" width="34.77734375" style="13" customWidth="1"/>
-    <col min="7684" max="7684" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7685" max="7685" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7686" max="7686" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7687" max="7687" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7433" max="7435" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7436" max="7437" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7438" max="7680" width="8.90625" style="13"/>
+    <col min="7681" max="7681" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7682" max="7682" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7683" max="7683" width="34.81640625" style="13" customWidth="1"/>
+    <col min="7684" max="7684" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7685" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7686" max="7686" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7687" max="7687" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="7688" max="7688" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="7689" max="7691" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7692" max="7693" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7694" max="7936" width="8.88671875" style="13"/>
-    <col min="7937" max="7937" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7938" max="7938" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7939" max="7939" width="34.77734375" style="13" customWidth="1"/>
-    <col min="7940" max="7940" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7941" max="7941" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7942" max="7942" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="7943" max="7943" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7689" max="7691" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7692" max="7693" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7694" max="7936" width="8.90625" style="13"/>
+    <col min="7937" max="7937" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7938" max="7938" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7939" max="7939" width="34.81640625" style="13" customWidth="1"/>
+    <col min="7940" max="7940" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7941" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7942" max="7942" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="7943" max="7943" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="7944" max="7944" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="7945" max="7947" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7948" max="7949" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="7950" max="8192" width="8.88671875" style="13"/>
-    <col min="8193" max="8193" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8194" max="8194" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8195" max="8195" width="34.77734375" style="13" customWidth="1"/>
-    <col min="8196" max="8196" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8197" max="8197" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8198" max="8198" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8199" max="8199" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7945" max="7947" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7948" max="7949" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7950" max="8192" width="8.90625" style="13"/>
+    <col min="8193" max="8193" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8194" max="8194" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8195" max="8195" width="34.81640625" style="13" customWidth="1"/>
+    <col min="8196" max="8196" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8197" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8198" max="8198" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8199" max="8199" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="8200" max="8200" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="8201" max="8203" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8204" max="8205" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8206" max="8448" width="8.88671875" style="13"/>
-    <col min="8449" max="8449" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8450" max="8450" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8451" max="8451" width="34.77734375" style="13" customWidth="1"/>
-    <col min="8452" max="8452" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8453" max="8453" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8454" max="8454" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8455" max="8455" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8201" max="8203" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8204" max="8205" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8206" max="8448" width="8.90625" style="13"/>
+    <col min="8449" max="8449" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8450" max="8450" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8451" max="8451" width="34.81640625" style="13" customWidth="1"/>
+    <col min="8452" max="8452" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8453" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8454" max="8454" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8455" max="8455" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="8456" max="8456" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="8457" max="8459" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8460" max="8461" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8462" max="8704" width="8.88671875" style="13"/>
-    <col min="8705" max="8705" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8706" max="8706" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8707" max="8707" width="34.77734375" style="13" customWidth="1"/>
-    <col min="8708" max="8708" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8709" max="8709" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8710" max="8710" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8711" max="8711" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8457" max="8459" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8460" max="8461" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8462" max="8704" width="8.90625" style="13"/>
+    <col min="8705" max="8705" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8706" max="8706" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8707" max="8707" width="34.81640625" style="13" customWidth="1"/>
+    <col min="8708" max="8708" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8709" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8710" max="8710" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8711" max="8711" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="8712" max="8712" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="8713" max="8715" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8716" max="8717" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8718" max="8960" width="8.88671875" style="13"/>
-    <col min="8961" max="8961" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8962" max="8962" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8963" max="8963" width="34.77734375" style="13" customWidth="1"/>
-    <col min="8964" max="8964" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8965" max="8965" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8966" max="8966" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8967" max="8967" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8713" max="8715" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8716" max="8717" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8718" max="8960" width="8.90625" style="13"/>
+    <col min="8961" max="8961" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8962" max="8962" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8963" max="8963" width="34.81640625" style="13" customWidth="1"/>
+    <col min="8964" max="8964" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8965" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8966" max="8966" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8967" max="8967" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="8968" max="8968" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="8969" max="8971" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8972" max="8973" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="8974" max="9216" width="8.88671875" style="13"/>
-    <col min="9217" max="9217" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9218" max="9218" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9219" max="9219" width="34.77734375" style="13" customWidth="1"/>
-    <col min="9220" max="9220" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9221" max="9221" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9222" max="9222" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9223" max="9223" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="8969" max="8971" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8972" max="8973" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8974" max="9216" width="8.90625" style="13"/>
+    <col min="9217" max="9217" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9218" max="9218" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9219" max="9219" width="34.81640625" style="13" customWidth="1"/>
+    <col min="9220" max="9220" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9221" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9222" max="9222" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9223" max="9223" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="9224" max="9224" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="9225" max="9227" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9228" max="9229" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9230" max="9472" width="8.88671875" style="13"/>
-    <col min="9473" max="9473" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9474" max="9474" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9475" max="9475" width="34.77734375" style="13" customWidth="1"/>
-    <col min="9476" max="9476" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9477" max="9477" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9478" max="9478" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9479" max="9479" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9225" max="9227" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9228" max="9229" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9230" max="9472" width="8.90625" style="13"/>
+    <col min="9473" max="9473" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9474" max="9474" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9475" max="9475" width="34.81640625" style="13" customWidth="1"/>
+    <col min="9476" max="9476" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9477" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9478" max="9478" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9479" max="9479" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="9480" max="9480" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="9481" max="9483" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9484" max="9485" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9486" max="9728" width="8.88671875" style="13"/>
-    <col min="9729" max="9729" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9730" max="9730" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9731" max="9731" width="34.77734375" style="13" customWidth="1"/>
-    <col min="9732" max="9732" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9733" max="9733" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9734" max="9734" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9735" max="9735" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9481" max="9483" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9484" max="9485" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9486" max="9728" width="8.90625" style="13"/>
+    <col min="9729" max="9729" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9730" max="9730" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9731" max="9731" width="34.81640625" style="13" customWidth="1"/>
+    <col min="9732" max="9732" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9733" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9734" max="9734" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9735" max="9735" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="9736" max="9736" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="9737" max="9739" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9740" max="9741" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9742" max="9984" width="8.88671875" style="13"/>
-    <col min="9985" max="9985" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9986" max="9986" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9987" max="9987" width="34.77734375" style="13" customWidth="1"/>
-    <col min="9988" max="9988" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9989" max="9989" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9990" max="9990" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9991" max="9991" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9737" max="9739" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9740" max="9741" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9742" max="9984" width="8.90625" style="13"/>
+    <col min="9985" max="9985" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9986" max="9986" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9987" max="9987" width="34.81640625" style="13" customWidth="1"/>
+    <col min="9988" max="9988" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9989" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9990" max="9990" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9991" max="9991" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="9992" max="9992" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="9993" max="9995" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9996" max="9997" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9998" max="10240" width="8.88671875" style="13"/>
-    <col min="10241" max="10241" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10242" max="10242" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10243" max="10243" width="34.77734375" style="13" customWidth="1"/>
-    <col min="10244" max="10244" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10245" max="10245" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10246" max="10246" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10247" max="10247" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9993" max="9995" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9996" max="9997" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="9998" max="10240" width="8.90625" style="13"/>
+    <col min="10241" max="10241" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10242" max="10242" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10243" max="10243" width="34.81640625" style="13" customWidth="1"/>
+    <col min="10244" max="10244" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10245" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10246" max="10246" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10247" max="10247" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="10248" max="10248" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10249" max="10251" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10252" max="10253" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10254" max="10496" width="8.88671875" style="13"/>
-    <col min="10497" max="10497" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10498" max="10498" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10499" max="10499" width="34.77734375" style="13" customWidth="1"/>
-    <col min="10500" max="10500" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10501" max="10501" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10502" max="10502" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10503" max="10503" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10249" max="10251" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10252" max="10253" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10254" max="10496" width="8.90625" style="13"/>
+    <col min="10497" max="10497" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10498" max="10498" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10499" max="10499" width="34.81640625" style="13" customWidth="1"/>
+    <col min="10500" max="10500" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10501" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10502" max="10502" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10503" max="10503" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="10504" max="10504" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10505" max="10507" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10508" max="10509" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10510" max="10752" width="8.88671875" style="13"/>
-    <col min="10753" max="10753" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10754" max="10754" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10755" max="10755" width="34.77734375" style="13" customWidth="1"/>
-    <col min="10756" max="10756" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10757" max="10757" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10758" max="10758" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10759" max="10759" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10505" max="10507" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10508" max="10509" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10510" max="10752" width="8.90625" style="13"/>
+    <col min="10753" max="10753" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10754" max="10754" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10755" max="10755" width="34.81640625" style="13" customWidth="1"/>
+    <col min="10756" max="10756" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10757" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10758" max="10758" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="10759" max="10759" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="10760" max="10760" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="10761" max="10763" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10764" max="10765" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="10766" max="11008" width="8.88671875" style="13"/>
-    <col min="11009" max="11009" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11010" max="11010" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11011" max="11011" width="34.77734375" style="13" customWidth="1"/>
-    <col min="11012" max="11012" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11013" max="11013" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11014" max="11014" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11015" max="11015" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="10761" max="10763" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10764" max="10765" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10766" max="11008" width="8.90625" style="13"/>
+    <col min="11009" max="11009" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11010" max="11010" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11011" max="11011" width="34.81640625" style="13" customWidth="1"/>
+    <col min="11012" max="11012" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11013" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11014" max="11014" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11015" max="11015" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="11016" max="11016" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="11017" max="11019" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11020" max="11021" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11022" max="11264" width="8.88671875" style="13"/>
-    <col min="11265" max="11265" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11266" max="11266" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11267" max="11267" width="34.77734375" style="13" customWidth="1"/>
-    <col min="11268" max="11268" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11269" max="11269" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11270" max="11270" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11271" max="11271" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11017" max="11019" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11020" max="11021" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11022" max="11264" width="8.90625" style="13"/>
+    <col min="11265" max="11265" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11266" max="11266" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11267" max="11267" width="34.81640625" style="13" customWidth="1"/>
+    <col min="11268" max="11268" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11269" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11270" max="11270" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11271" max="11271" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="11272" max="11272" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="11273" max="11275" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11276" max="11277" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11278" max="11520" width="8.88671875" style="13"/>
-    <col min="11521" max="11521" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11522" max="11522" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11523" max="11523" width="34.77734375" style="13" customWidth="1"/>
-    <col min="11524" max="11524" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11525" max="11525" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11526" max="11526" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11527" max="11527" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11273" max="11275" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11276" max="11277" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11278" max="11520" width="8.90625" style="13"/>
+    <col min="11521" max="11521" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11522" max="11522" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11523" max="11523" width="34.81640625" style="13" customWidth="1"/>
+    <col min="11524" max="11524" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11525" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11526" max="11526" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11527" max="11527" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="11528" max="11528" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="11529" max="11531" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11532" max="11533" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11534" max="11776" width="8.88671875" style="13"/>
-    <col min="11777" max="11777" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11778" max="11778" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11779" max="11779" width="34.77734375" style="13" customWidth="1"/>
-    <col min="11780" max="11780" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11781" max="11781" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11782" max="11782" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="11783" max="11783" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11529" max="11531" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11532" max="11533" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11534" max="11776" width="8.90625" style="13"/>
+    <col min="11777" max="11777" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11778" max="11778" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11779" max="11779" width="34.81640625" style="13" customWidth="1"/>
+    <col min="11780" max="11780" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11781" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11782" max="11782" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="11783" max="11783" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="11784" max="11784" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="11785" max="11787" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11788" max="11789" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="11790" max="12032" width="8.88671875" style="13"/>
-    <col min="12033" max="12033" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12034" max="12034" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12035" max="12035" width="34.77734375" style="13" customWidth="1"/>
-    <col min="12036" max="12036" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12037" max="12037" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12038" max="12038" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12039" max="12039" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="11785" max="11787" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11788" max="11789" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="11790" max="12032" width="8.90625" style="13"/>
+    <col min="12033" max="12033" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12034" max="12034" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12035" max="12035" width="34.81640625" style="13" customWidth="1"/>
+    <col min="12036" max="12036" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12037" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12038" max="12038" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12039" max="12039" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="12040" max="12040" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="12041" max="12043" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12044" max="12045" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12046" max="12288" width="8.88671875" style="13"/>
-    <col min="12289" max="12289" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12290" max="12290" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12291" max="12291" width="34.77734375" style="13" customWidth="1"/>
-    <col min="12292" max="12292" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12293" max="12293" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12294" max="12294" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12295" max="12295" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12041" max="12043" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12044" max="12045" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12046" max="12288" width="8.90625" style="13"/>
+    <col min="12289" max="12289" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12290" max="12290" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12291" max="12291" width="34.81640625" style="13" customWidth="1"/>
+    <col min="12292" max="12292" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12293" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12294" max="12294" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12295" max="12295" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="12296" max="12296" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="12297" max="12299" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12300" max="12301" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12302" max="12544" width="8.88671875" style="13"/>
-    <col min="12545" max="12545" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12546" max="12546" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12547" max="12547" width="34.77734375" style="13" customWidth="1"/>
-    <col min="12548" max="12548" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12549" max="12549" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12550" max="12550" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12551" max="12551" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12297" max="12299" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12300" max="12301" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12302" max="12544" width="8.90625" style="13"/>
+    <col min="12545" max="12545" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12546" max="12546" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12547" max="12547" width="34.81640625" style="13" customWidth="1"/>
+    <col min="12548" max="12548" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12549" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12550" max="12550" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12551" max="12551" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="12552" max="12552" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="12553" max="12555" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12556" max="12557" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12558" max="12800" width="8.88671875" style="13"/>
-    <col min="12801" max="12801" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12802" max="12802" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12803" max="12803" width="34.77734375" style="13" customWidth="1"/>
-    <col min="12804" max="12804" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12805" max="12805" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12806" max="12806" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="12807" max="12807" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12553" max="12555" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12556" max="12557" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12558" max="12800" width="8.90625" style="13"/>
+    <col min="12801" max="12801" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12802" max="12802" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12803" max="12803" width="34.81640625" style="13" customWidth="1"/>
+    <col min="12804" max="12804" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12805" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12806" max="12806" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12807" max="12807" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="12808" max="12808" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="12809" max="12811" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12812" max="12813" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="12814" max="13056" width="8.88671875" style="13"/>
-    <col min="13057" max="13057" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13058" max="13058" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13059" max="13059" width="34.77734375" style="13" customWidth="1"/>
-    <col min="13060" max="13060" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13061" max="13061" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13062" max="13062" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13063" max="13063" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="12809" max="12811" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12812" max="12813" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12814" max="13056" width="8.90625" style="13"/>
+    <col min="13057" max="13057" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13058" max="13058" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13059" max="13059" width="34.81640625" style="13" customWidth="1"/>
+    <col min="13060" max="13060" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13061" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13062" max="13062" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13063" max="13063" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="13064" max="13064" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="13065" max="13067" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13068" max="13069" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13070" max="13312" width="8.88671875" style="13"/>
-    <col min="13313" max="13313" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13314" max="13314" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13315" max="13315" width="34.77734375" style="13" customWidth="1"/>
-    <col min="13316" max="13316" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13317" max="13317" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13318" max="13318" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13319" max="13319" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13065" max="13067" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13068" max="13069" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13070" max="13312" width="8.90625" style="13"/>
+    <col min="13313" max="13313" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13314" max="13314" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13315" max="13315" width="34.81640625" style="13" customWidth="1"/>
+    <col min="13316" max="13316" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13317" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13318" max="13318" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13319" max="13319" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="13320" max="13320" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="13321" max="13323" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13324" max="13325" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13326" max="13568" width="8.88671875" style="13"/>
-    <col min="13569" max="13569" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13570" max="13570" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13571" max="13571" width="34.77734375" style="13" customWidth="1"/>
-    <col min="13572" max="13572" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13573" max="13573" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13574" max="13574" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13575" max="13575" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13321" max="13323" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13324" max="13325" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13326" max="13568" width="8.90625" style="13"/>
+    <col min="13569" max="13569" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13570" max="13570" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13571" max="13571" width="34.81640625" style="13" customWidth="1"/>
+    <col min="13572" max="13572" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13573" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13574" max="13574" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13575" max="13575" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="13576" max="13576" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="13577" max="13579" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13580" max="13581" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13582" max="13824" width="8.88671875" style="13"/>
-    <col min="13825" max="13825" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13826" max="13826" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13827" max="13827" width="34.77734375" style="13" customWidth="1"/>
-    <col min="13828" max="13828" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13829" max="13829" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13830" max="13830" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="13831" max="13831" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13577" max="13579" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13580" max="13581" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13582" max="13824" width="8.90625" style="13"/>
+    <col min="13825" max="13825" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13826" max="13826" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13827" max="13827" width="34.81640625" style="13" customWidth="1"/>
+    <col min="13828" max="13828" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13829" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13830" max="13830" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="13831" max="13831" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="13832" max="13832" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="13833" max="13835" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13836" max="13837" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="13838" max="14080" width="8.88671875" style="13"/>
-    <col min="14081" max="14081" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14082" max="14082" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14083" max="14083" width="34.77734375" style="13" customWidth="1"/>
-    <col min="14084" max="14084" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14085" max="14085" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14086" max="14086" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14087" max="14087" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="13833" max="13835" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13836" max="13837" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13838" max="14080" width="8.90625" style="13"/>
+    <col min="14081" max="14081" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14082" max="14082" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14083" max="14083" width="34.81640625" style="13" customWidth="1"/>
+    <col min="14084" max="14084" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14085" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14086" max="14086" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14087" max="14087" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="14088" max="14088" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="14089" max="14091" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14092" max="14093" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14094" max="14336" width="8.88671875" style="13"/>
-    <col min="14337" max="14337" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14338" max="14338" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14339" max="14339" width="34.77734375" style="13" customWidth="1"/>
-    <col min="14340" max="14340" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14341" max="14341" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14342" max="14342" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14343" max="14343" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14089" max="14091" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14092" max="14093" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14094" max="14336" width="8.90625" style="13"/>
+    <col min="14337" max="14337" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14338" max="14338" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14339" max="14339" width="34.81640625" style="13" customWidth="1"/>
+    <col min="14340" max="14340" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14341" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14342" max="14342" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14343" max="14343" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="14344" max="14344" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="14345" max="14347" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14348" max="14349" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14350" max="14592" width="8.88671875" style="13"/>
-    <col min="14593" max="14593" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14594" max="14594" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14595" max="14595" width="34.77734375" style="13" customWidth="1"/>
-    <col min="14596" max="14596" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14597" max="14597" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14598" max="14598" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14599" max="14599" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14345" max="14347" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14348" max="14349" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14350" max="14592" width="8.90625" style="13"/>
+    <col min="14593" max="14593" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14594" max="14594" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14595" max="14595" width="34.81640625" style="13" customWidth="1"/>
+    <col min="14596" max="14596" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14597" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14598" max="14598" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14599" max="14599" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="14600" max="14600" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="14601" max="14603" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14604" max="14605" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14606" max="14848" width="8.88671875" style="13"/>
-    <col min="14849" max="14849" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14850" max="14850" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14851" max="14851" width="34.77734375" style="13" customWidth="1"/>
-    <col min="14852" max="14852" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14853" max="14853" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14854" max="14854" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="14855" max="14855" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14601" max="14603" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14604" max="14605" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14606" max="14848" width="8.90625" style="13"/>
+    <col min="14849" max="14849" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14850" max="14850" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14851" max="14851" width="34.81640625" style="13" customWidth="1"/>
+    <col min="14852" max="14852" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14853" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14854" max="14854" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="14855" max="14855" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="14856" max="14856" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="14857" max="14859" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14860" max="14861" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="14862" max="15104" width="8.88671875" style="13"/>
-    <col min="15105" max="15105" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15106" max="15106" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15107" max="15107" width="34.77734375" style="13" customWidth="1"/>
-    <col min="15108" max="15108" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15109" max="15109" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15110" max="15110" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15111" max="15111" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="14857" max="14859" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14860" max="14861" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="14862" max="15104" width="8.90625" style="13"/>
+    <col min="15105" max="15105" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15106" max="15106" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15107" max="15107" width="34.81640625" style="13" customWidth="1"/>
+    <col min="15108" max="15108" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15109" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15110" max="15110" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15111" max="15111" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="15112" max="15112" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="15113" max="15115" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15116" max="15117" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15118" max="15360" width="8.88671875" style="13"/>
-    <col min="15361" max="15361" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15362" max="15362" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15363" max="15363" width="34.77734375" style="13" customWidth="1"/>
-    <col min="15364" max="15364" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15365" max="15365" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15366" max="15366" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15367" max="15367" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15113" max="15115" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15116" max="15117" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15118" max="15360" width="8.90625" style="13"/>
+    <col min="15361" max="15361" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15362" max="15362" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15363" max="15363" width="34.81640625" style="13" customWidth="1"/>
+    <col min="15364" max="15364" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15365" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15366" max="15366" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15367" max="15367" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="15368" max="15368" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="15369" max="15371" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15372" max="15373" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15374" max="15616" width="8.88671875" style="13"/>
-    <col min="15617" max="15617" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15618" max="15618" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15619" max="15619" width="34.77734375" style="13" customWidth="1"/>
-    <col min="15620" max="15620" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15621" max="15621" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15622" max="15622" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15623" max="15623" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15369" max="15371" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15372" max="15373" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15374" max="15616" width="8.90625" style="13"/>
+    <col min="15617" max="15617" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15618" max="15618" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15619" max="15619" width="34.81640625" style="13" customWidth="1"/>
+    <col min="15620" max="15620" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15621" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15622" max="15622" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15623" max="15623" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="15624" max="15624" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="15625" max="15627" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15628" max="15629" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15630" max="15872" width="8.88671875" style="13"/>
-    <col min="15873" max="15873" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15874" max="15874" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15875" max="15875" width="34.77734375" style="13" customWidth="1"/>
-    <col min="15876" max="15876" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15877" max="15877" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15878" max="15878" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="15879" max="15879" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15625" max="15627" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15628" max="15629" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15630" max="15872" width="8.90625" style="13"/>
+    <col min="15873" max="15873" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15874" max="15874" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15875" max="15875" width="34.81640625" style="13" customWidth="1"/>
+    <col min="15876" max="15876" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15877" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15878" max="15878" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="15879" max="15879" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="15880" max="15880" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="15881" max="15883" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15884" max="15885" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="15886" max="16128" width="8.88671875" style="13"/>
-    <col min="16129" max="16129" width="7.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="16130" max="16130" width="10.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="16131" max="16131" width="34.77734375" style="13" customWidth="1"/>
-    <col min="16132" max="16132" width="18.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="16133" max="16133" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="16134" max="16134" width="11.21875" style="13" bestFit="1" customWidth="1"/>
-    <col min="16135" max="16135" width="12.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="15881" max="15883" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15884" max="15885" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15886" max="16128" width="8.90625" style="13"/>
+    <col min="16129" max="16129" width="7.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16130" max="16130" width="10.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16131" max="16131" width="34.81640625" style="13" customWidth="1"/>
+    <col min="16132" max="16132" width="18.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16133" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16134" max="16134" width="11.1796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="16135" max="16135" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
     <col min="16136" max="16136" width="12" style="13" bestFit="1" customWidth="1"/>
-    <col min="16137" max="16139" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="16140" max="16141" width="14.77734375" style="13" bestFit="1" customWidth="1"/>
-    <col min="16142" max="16384" width="8.88671875" style="13"/>
+    <col min="16137" max="16139" width="11.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16140" max="16141" width="14.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="16142" max="16384" width="8.90625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="39" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -10388,7 +10716,7 @@
         <v>-0.33126078425478106</v>
       </c>
     </row>
-    <row r="110" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" ht="110.4" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="15"/>
       <c r="B110" s="15"/>
       <c r="C110" s="24" t="s">
@@ -10437,13 +10765,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="111" spans="1:17" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B111" s="21"/>
       <c r="C111" s="23" t="s">
         <v>123</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E111" s="13"/>
       <c r="F111" s="17"/>

--- a/gis/data/geographical.xlsx
+++ b/gis/data/geographical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\au687527\GitHub\GreenGDP\gis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68494D13-6E55-43E8-9E22-31FCB3961257}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A69A86-653C-41B5-B3E5-818D63FBC9CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="2" xr2:uid="{6C3CB45D-6930-4358-8246-5C5767DAECE9}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{6C3CB45D-6930-4358-8246-5C5767DAECE9}"/>
   </bookViews>
   <sheets>
     <sheet name="catchment" sheetId="1" r:id="rId1"/>
@@ -971,8 +971,8 @@
   <dimension ref="A1:D110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2951,9 +2951,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5345CE1D-39D7-4E3E-83C7-2617AB338F52}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
@@ -4741,6 +4741,12 @@
         <v>368.10305876214801</v>
       </c>
     </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B112" s="15"/>
+      <c r="C112" s="15"/>
+      <c r="D112" s="15"/>
+      <c r="E112" s="15"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4750,12 +4756,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAF53C27-29CA-4A91-B8DD-39F16DCC6542}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="H112" sqref="H112:K112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
